--- a/docs/how-to-configure/sparnatural-car-configuration.xlsx
+++ b/docs/how-to-configure/sparnatural-car-configuration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,11 +14,14 @@
     <sheet name="sparnatural-config-core" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <r>
       <rPr>
@@ -613,6 +616,12 @@
     <t xml:space="preserve">poids en kg</t>
   </si>
   <si>
+    <t xml:space="preserve">The weight of the vehicle in kilograms, as an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le poids du véhicule en kilogrammes, comme un entier</t>
+  </si>
+  <si>
     <t>xsd:integer</t>
   </si>
   <si>
@@ -767,6 +776,15 @@
   </si>
   <si>
     <t>odb:errorCode</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The core of the error as a literal string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le code de l'erreur comme une chaine de caractères</t>
   </si>
   <si>
     <t>odb:hasSymptom</t>
@@ -1266,7 +1284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -1402,17 +1420,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color indexed="64"/>
       <name val="&quot;Ȫrial\&quot;&quot;"/>
-    </font>
-    <font>
-      <color indexed="64"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1495,7 +1503,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1623,14 +1631,13 @@
     <xf fontId="19" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="27" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="28" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="27" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="29" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="24" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="29" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6801,7 +6808,7 @@
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" ht="33.75" customHeight="1">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE("this:",RIGHT(C12,LEN(C12)-SEARCH(":",C12)),"_",RIGHT(B12,LEN(B12)-SEARCH(":",B12)))</f>
         <v>this:Vehicle_weightInKg</v>
@@ -6821,8 +6828,12 @@
       <c r="F12" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="52"/>
+      <c r="G12" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>180</v>
+      </c>
       <c r="I12" s="35">
         <v>1</v>
       </c>
@@ -6833,12 +6844,12 @@
         <v>158</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="35"/>
@@ -6896,7 +6907,7 @@
         <v>this:Manufacturer_name</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C14" s="52" t="s">
         <v>60</v>
@@ -6905,16 +6916,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I14" s="35">
         <v>1</v>
@@ -6989,7 +7000,7 @@
         <v>this:Diagnostic_diagnosticDate</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>67</v>
@@ -6998,16 +7009,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I16" s="35">
         <v>1</v>
@@ -7019,12 +7030,12 @@
         <v>158</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -7049,7 +7060,7 @@
         <v>this:Diagnostic_analysedVehicle</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>67</v>
@@ -7058,16 +7069,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I17" s="35">
         <v>1</v>
@@ -7087,7 +7098,7 @@
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -7108,7 +7119,7 @@
         <v>this:Diagnostic_hasResults</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>67</v>
@@ -7117,16 +7128,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -7161,7 +7172,7 @@
         <v>this:Diagnostic_diagnosticPlace</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>67</v>
@@ -7170,16 +7181,16 @@
         <v>4</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I19" s="35">
         <v>1</v>
@@ -7191,12 +7202,12 @@
         <v>158</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
@@ -7215,10 +7226,10 @@
     </row>
     <row r="20" ht="45" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>67</v>
@@ -7227,16 +7238,16 @@
         <v>5</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -7305,7 +7316,7 @@
         <v>this:Error_alreadyRaised</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>74</v>
@@ -7314,16 +7325,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35">
@@ -7333,12 +7344,12 @@
         <v>158</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -7365,7 +7376,7 @@
         <v>this:Error_hasErrorCode</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>74</v>
@@ -7374,16 +7385,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I23" s="35">
         <v>1</v>
@@ -7421,7 +7432,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -7458,7 +7469,7 @@
         <v>this:ErrorCode_errorCode</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>81</v>
@@ -7466,10 +7477,18 @@
       <c r="D25" s="35">
         <v>1</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="E25" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>235</v>
+      </c>
       <c r="I25" s="35">
         <v>1</v>
       </c>
@@ -7512,7 +7531,7 @@
         <v>this:ErrorCode_hasSymptom</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>81</v>
@@ -7521,16 +7540,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
@@ -7568,7 +7587,7 @@
         <v>this:ErrorCode_hasComponent</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>81</v>
@@ -7577,16 +7596,16 @@
         <v>2</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -7603,7 +7622,7 @@
       </c>
       <c r="P27" s="35"/>
       <c r="Q27" s="53" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="R27" s="53"/>
       <c r="S27" s="35"/>
@@ -7622,10 +7641,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>81</v>
@@ -7634,16 +7653,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F28" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="G28" s="33" t="s">
-        <v>239</v>
-      </c>
       <c r="H28" s="33" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -7656,7 +7675,7 @@
       </c>
       <c r="N28" s="32"/>
       <c r="O28" s="32" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
@@ -7667,10 +7686,10 @@
       </c>
       <c r="U28" s="35"/>
       <c r="V28" s="54" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="W28" s="54" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -7718,7 +7737,7 @@
         <v>this:Symptom_label</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>88</v>
@@ -7727,16 +7746,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I30" s="35">
         <v>1</v>
@@ -7748,12 +7767,12 @@
         <v>158</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="32" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P30" s="35" t="s">
         <v>161</v>
@@ -7811,7 +7830,7 @@
         <v>this:Component_componentCode</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>95</v>
@@ -7820,16 +7839,16 @@
         <v>1</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I32" s="35">
         <v>1</v>
@@ -7846,7 +7865,7 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="32" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
@@ -7871,7 +7890,7 @@
         <v>this:Component_label</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>95</v>
@@ -7880,16 +7899,16 @@
         <v>2</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I33" s="35">
         <v>1</v>
@@ -7899,12 +7918,12 @@
         <v>158</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="32" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P33" s="35" t="s">
         <v>161</v>
@@ -7929,10 +7948,10 @@
     </row>
     <row r="34" ht="39" customHeight="1">
       <c r="A34" s="38" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C34" s="52" t="s">
         <v>95</v>
@@ -7941,16 +7960,16 @@
         <v>3</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
@@ -7963,7 +7982,7 @@
         <v>102</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
@@ -9685,22 +9704,22 @@
     </row>
     <row r="3" ht="91.5" customHeight="1">
       <c r="A3" s="57" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -9714,33 +9733,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="61" t="s">
-        <v>198</v>
+      <c r="A5" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>153</v>
@@ -9751,14 +9770,14 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" ht="276" customHeight="1">
-      <c r="A6" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>279</v>
+      <c r="A6" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>284</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="35"/>
@@ -9768,14 +9787,14 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" ht="315" customHeight="1">
-      <c r="A7" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>277</v>
+      <c r="A7" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>282</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -9785,14 +9804,14 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" ht="333.75" customHeight="1">
-      <c r="A8" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>277</v>
+      <c r="A8" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>282</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -10990,7 +11009,7 @@
       <c r="C1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="66"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -11009,16 +11028,16 @@
     </row>
     <row r="4" ht="58.5" customHeight="1">
       <c r="A4" s="57" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E4" s="28"/>
     </row>
@@ -11030,25 +11049,25 @@
         <v>26</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E5" s="60"/>
     </row>
     <row r="6" ht="160.5" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E6" s="28"/>
     </row>
@@ -13339,14 +13358,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>292</v>
+      <c r="A1" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="2">
@@ -13354,10 +13373,10 @@
         <v>160</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
@@ -13365,54 +13384,54 @@
         <v>168</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8">
@@ -13420,321 +13439,321 @@
         <v>175</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="36"/>
       <c r="B14" s="36" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="36"/>
       <c r="B15" s="36" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="36"/>
       <c r="B16" s="36" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="36"/>
       <c r="B17" s="36" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="36"/>
       <c r="B18" s="36" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="36"/>
       <c r="B19" s="36" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="36"/>
       <c r="B20" s="36" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="36"/>
       <c r="B22" s="36" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="36"/>
       <c r="B23" s="36" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="36"/>
       <c r="B24" s="36" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="36"/>
       <c r="B25" s="36" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="36"/>
       <c r="B26" s="36" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="36"/>
       <c r="B27" s="36" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C27" s="36"/>
     </row>
     <row r="28">
       <c r="A28" s="36"/>
       <c r="B28" s="36" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C28" s="36"/>
     </row>
     <row r="29">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C29" s="36"/>
     </row>
     <row r="30">
       <c r="A30" s="36"/>
       <c r="B30" s="36" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C30" s="36"/>
     </row>
     <row r="31">
       <c r="A31" s="36"/>
       <c r="B31" s="36" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C31" s="36"/>
     </row>
     <row r="32">
       <c r="A32" s="36"/>
       <c r="B32" s="36" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C32" s="36"/>
     </row>
     <row r="33">
       <c r="A33" s="36"/>
       <c r="B33" s="36" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C33" s="36"/>
     </row>
     <row r="34">
       <c r="A34" s="36"/>
       <c r="B34" s="36" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C34" s="36"/>
     </row>
     <row r="35">
       <c r="A35" s="36"/>
       <c r="B35" s="36" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C35" s="36"/>
     </row>
     <row r="36">
       <c r="A36" s="36"/>
       <c r="B36" s="36" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C36" s="36"/>
     </row>
     <row r="37">
       <c r="A37" s="36"/>
       <c r="B37" s="36" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C37" s="36"/>
     </row>
     <row r="38">
       <c r="A38" s="36"/>
       <c r="B38" s="36" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C38" s="36"/>
     </row>
     <row r="39">
       <c r="A39" s="36"/>
       <c r="B39" s="36" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C39" s="36"/>
     </row>
     <row r="40">
       <c r="A40" s="36"/>
       <c r="B40" s="36" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C40" s="36"/>
     </row>
     <row r="41">
       <c r="A41" s="36"/>
       <c r="B41" s="36" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C41" s="36"/>
     </row>
     <row r="42">
       <c r="A42" s="36"/>
       <c r="B42" s="36" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C42" s="36"/>
     </row>
     <row r="43">
       <c r="A43" s="36"/>
       <c r="B43" s="36" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C43" s="36"/>
     </row>
     <row r="44">
       <c r="A44" s="36"/>
       <c r="B44" s="36" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C44" s="36"/>
     </row>
     <row r="45">
       <c r="A45" s="36"/>
       <c r="B45" s="36" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C45" s="36"/>
     </row>
     <row r="46">
       <c r="A46" s="36"/>
       <c r="B46" s="36" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C46" s="36"/>
     </row>

--- a/docs/how-to-configure/sparnatural-car-configuration.xlsx
+++ b/docs/how-to-configure/sparnatural-car-configuration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -1402,17 +1402,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color indexed="64"/>
       <name val="&quot;Ȫrial\&quot;&quot;"/>
-    </font>
-    <font>
-      <color indexed="64"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1495,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1623,14 +1613,13 @@
     <xf fontId="19" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="27" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="28" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="27" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="29" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="24" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="29" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3298,18 +3287,19 @@
   </sheetPr>
   <sheetViews>
     <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.130000000000001"/>
+    <col customWidth="1" min="1" max="1" width="19.00390625"/>
     <col customWidth="1" min="2" max="2" width="22.129999999999999"/>
-    <col customWidth="1" min="3" max="3" width="18.5"/>
-    <col customWidth="1" min="4" max="4" width="28.28125"/>
-    <col customWidth="1" min="5" max="5" width="14.75"/>
-    <col customWidth="1" min="6" max="7" width="13.25"/>
+    <col customWidth="1" min="3" max="3" width="27.57421875"/>
+    <col customWidth="1" min="4" max="4" width="23.28125"/>
+    <col customWidth="1" min="5" max="5" width="20.140625"/>
+    <col customWidth="1" min="6" max="6" width="18.28125"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="26.00390625"/>
     <col customWidth="1" min="8" max="8" width="36.8515625"/>
     <col customWidth="1" min="9" max="9" width="39.140625"/>
     <col customWidth="1" min="10" max="10" style="17" width="43.00390625"/>
@@ -3317,7 +3307,7 @@
     <col customWidth="1" min="12" max="31" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" customHeight="1">
+    <row r="1" ht="15">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -3333,7 +3323,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" ht="69.75" customHeight="1">
+    <row r="2" ht="15">
       <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
@@ -3349,7 +3339,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" ht="95.25" customHeight="1">
+    <row r="3" ht="15">
       <c r="A3" s="18" t="s">
         <v>24</v>
       </c>
@@ -3366,7 +3356,7 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" ht="50.25" customHeight="1">
+    <row r="4" ht="15">
       <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
@@ -3382,7 +3372,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" ht="44.25" customHeight="1">
+    <row r="5" ht="15">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -3402,7 +3392,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" ht="15">
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -3412,7 +3402,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" ht="15">
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -3422,7 +3412,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" ht="156.75" customHeight="1">
+    <row r="8" ht="127.5">
       <c r="A8" s="29" t="s">
         <v>30</v>
       </c>
@@ -3477,7 +3467,7 @@
       <c r="AD8" s="29"/>
       <c r="AE8" s="29"/>
     </row>
-    <row r="9" ht="31.5" customHeight="1">
+    <row r="9" ht="25.5">
       <c r="A9" s="30" t="s">
         <v>41</v>
       </c>
@@ -3563,7 +3553,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" ht="27.75" customHeight="1">
+    <row r="11" ht="51">
       <c r="A11" s="31" t="s">
         <v>60</v>
       </c>
@@ -3594,7 +3584,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" ht="27.75" customHeight="1">
+    <row r="12" ht="89.25">
       <c r="A12" s="31" t="s">
         <v>67</v>
       </c>
@@ -3625,7 +3615,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" ht="51">
       <c r="A13" s="31" t="s">
         <v>74</v>
       </c>
@@ -3678,7 +3668,7 @@
       <c r="AD13" s="36"/>
       <c r="AE13" s="36"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" ht="51">
       <c r="A14" s="31" t="s">
         <v>81</v>
       </c>
@@ -3729,7 +3719,7 @@
       <c r="AD14" s="36"/>
       <c r="AE14" s="36"/>
     </row>
-    <row r="15" ht="17.25" customHeight="1">
+    <row r="15" ht="51">
       <c r="A15" s="31" t="s">
         <v>88</v>
       </c>
@@ -3782,7 +3772,7 @@
       <c r="AD15" s="28"/>
       <c r="AE15" s="28"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" ht="25.5">
       <c r="A16" s="38" t="s">
         <v>95</v>
       </c>
@@ -3813,7 +3803,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" ht="27.75" customHeight="1">
+    <row r="17" ht="25.5">
       <c r="A17" s="38" t="s">
         <v>102</v>
       </c>
@@ -3842,7 +3832,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" ht="27.75" customHeight="1">
+    <row r="18" ht="15">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -3853,7 +3843,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" ht="27.75" customHeight="1">
+    <row r="19" ht="15">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -3864,8 +3854,8 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" ht="15" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="20" ht="15"/>
+    <row r="21" ht="15">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -3875,7 +3865,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" ht="15">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -3885,7 +3875,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" ht="15">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -3895,7 +3885,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" ht="15">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -3905,7 +3895,7 @@
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" ht="15">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -3915,7 +3905,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" ht="15">
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
@@ -3925,7 +3915,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" ht="15">
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -3935,7 +3925,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" ht="15">
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
@@ -3945,7 +3935,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" ht="15">
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -3955,7 +3945,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" ht="15">
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -3965,7 +3955,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" ht="15">
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -3975,7 +3965,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" ht="15">
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
@@ -3985,7 +3975,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" ht="15">
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -3995,7 +3985,7 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" ht="15">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -4005,7 +3995,7 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" ht="15">
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -4015,7 +4005,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" ht="15">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -4025,7 +4015,7 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" ht="15">
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -4035,7 +4025,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" ht="15">
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -4045,7 +4035,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" ht="15">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -4055,7 +4045,7 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" ht="15">
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -4065,7 +4055,7 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" ht="15">
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
@@ -4075,7 +4065,7 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" ht="15">
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -4085,7 +4075,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" ht="15">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
@@ -4095,7 +4085,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" ht="15">
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
@@ -4105,7 +4095,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" ht="15">
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -4115,7 +4105,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" ht="15">
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
@@ -4125,7 +4115,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" ht="15">
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
@@ -4135,7 +4125,7 @@
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" ht="15">
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
@@ -4145,7 +4135,7 @@
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" ht="15">
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
@@ -4155,7 +4145,7 @@
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" ht="15">
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -4165,7 +4155,7 @@
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" ht="15">
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
@@ -4175,7 +4165,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" ht="15">
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
@@ -4185,7 +4175,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" ht="15">
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
@@ -4195,7 +4185,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" ht="15">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -4205,7 +4195,7 @@
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" ht="15">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -4215,7 +4205,7 @@
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" ht="15">
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
@@ -4225,7 +4215,7 @@
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" ht="15">
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
@@ -4235,7 +4225,7 @@
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" ht="15">
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
@@ -4245,7 +4235,7 @@
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" ht="15">
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
@@ -4255,7 +4245,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" ht="15">
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
@@ -4265,7 +4255,7 @@
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" ht="15">
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
@@ -4275,7 +4265,7 @@
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" ht="15">
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
@@ -4285,7 +4275,7 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" ht="15">
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
@@ -4295,7 +4285,7 @@
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" ht="15">
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
@@ -4305,7 +4295,7 @@
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" ht="15">
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
@@ -4315,7 +4305,7 @@
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" ht="15">
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
@@ -4325,7 +4315,7 @@
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" ht="15">
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
@@ -4335,7 +4325,7 @@
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" ht="15">
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
@@ -4345,7 +4335,7 @@
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" ht="15">
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
@@ -4355,7 +4345,7 @@
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" ht="15">
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
@@ -4365,7 +4355,7 @@
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" ht="15">
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
@@ -4375,7 +4365,7 @@
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" ht="15">
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
@@ -4385,7 +4375,7 @@
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" ht="15">
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
@@ -4395,7 +4385,7 @@
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" ht="15">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
@@ -4405,7 +4395,7 @@
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" ht="15">
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -4415,7 +4405,7 @@
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" ht="15">
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
@@ -4425,7 +4415,7 @@
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" ht="15">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -4435,7 +4425,7 @@
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" ht="15">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -4445,7 +4435,7 @@
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" ht="15">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -4455,7 +4445,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" ht="15">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -4465,7 +4455,7 @@
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" ht="15">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -4475,7 +4465,7 @@
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" ht="15">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -4485,7 +4475,7 @@
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" ht="15">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -4495,7 +4485,7 @@
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" ht="15">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -4505,7 +4495,7 @@
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" ht="15">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -4515,7 +4505,7 @@
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" ht="15">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -4525,7 +4515,7 @@
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" ht="15">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -4535,7 +4525,7 @@
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" ht="15">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -4545,7 +4535,7 @@
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" ht="15">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -4555,7 +4545,7 @@
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" ht="15">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -4565,7 +4555,7 @@
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" ht="15">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -4575,7 +4565,7 @@
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" ht="15">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -4585,7 +4575,7 @@
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" ht="15">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -4595,7 +4585,7 @@
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" ht="15">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -4605,7 +4595,7 @@
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" ht="15">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -4615,7 +4605,7 @@
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" ht="15">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -4625,7 +4615,7 @@
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" ht="15">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -4635,7 +4625,7 @@
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" ht="15">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -4645,7 +4635,7 @@
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" ht="15">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -4655,7 +4645,7 @@
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" ht="15">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -4665,7 +4655,7 @@
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" ht="15">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -4675,7 +4665,7 @@
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" ht="15">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -4685,7 +4675,7 @@
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" ht="15">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -4695,7 +4685,7 @@
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" ht="15">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -4705,7 +4695,7 @@
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" ht="15">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -4715,7 +4705,7 @@
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" ht="15">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -4725,7 +4715,7 @@
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" ht="15">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -4735,7 +4725,7 @@
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" ht="15">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -4745,7 +4735,7 @@
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" ht="15">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -4755,7 +4745,7 @@
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" ht="15">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -4765,7 +4755,7 @@
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" ht="15">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -4775,7 +4765,7 @@
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" ht="15">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -4785,7 +4775,7 @@
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" ht="15">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -4795,7 +4785,7 @@
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" ht="15">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -4805,7 +4795,7 @@
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" ht="15">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -4815,7 +4805,7 @@
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" ht="15">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -4825,7 +4815,7 @@
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" ht="15">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -4835,7 +4825,7 @@
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" ht="15">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -4845,7 +4835,7 @@
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" ht="15">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -4855,7 +4845,7 @@
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" ht="15">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -4865,7 +4855,7 @@
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" ht="15">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -4875,7 +4865,7 @@
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" ht="15">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -4885,7 +4875,7 @@
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" ht="15">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -4895,7 +4885,7 @@
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" ht="15">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -4905,7 +4895,7 @@
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" ht="15">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -4915,7 +4905,7 @@
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" ht="15">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -4925,7 +4915,7 @@
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" ht="15">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -4935,7 +4925,7 @@
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" ht="15">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -4945,7 +4935,7 @@
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" ht="15">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -4955,7 +4945,7 @@
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" ht="15">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -4965,7 +4955,7 @@
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" ht="15">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -4975,7 +4965,7 @@
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" ht="15">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -4985,7 +4975,7 @@
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" ht="15">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -4995,7 +4985,7 @@
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" ht="15">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -5005,7 +4995,7 @@
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" ht="15">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -5015,7 +5005,7 @@
       <c r="H135" s="22"/>
       <c r="I135" s="22"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" ht="15">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -5025,7 +5015,7 @@
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" ht="15">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -5035,7 +5025,7 @@
       <c r="H137" s="22"/>
       <c r="I137" s="22"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" ht="15">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -5045,7 +5035,7 @@
       <c r="H138" s="22"/>
       <c r="I138" s="22"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" ht="15">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -5055,7 +5045,7 @@
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" ht="15">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -5065,7 +5055,7 @@
       <c r="H140" s="22"/>
       <c r="I140" s="22"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" ht="15">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -5075,1224 +5065,1224 @@
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" ht="15">
       <c r="F142" s="22"/>
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
       <c r="I142" s="22"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" ht="15">
       <c r="F143" s="22"/>
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" ht="15">
       <c r="F144" s="22"/>
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" ht="15">
       <c r="F145" s="22"/>
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" ht="15">
       <c r="F146" s="22"/>
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" ht="15">
       <c r="F147" s="22"/>
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" ht="15">
       <c r="F148" s="22"/>
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" ht="15">
       <c r="F149" s="22"/>
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" ht="15">
       <c r="F150" s="22"/>
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" ht="15">
       <c r="F151" s="22"/>
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" ht="15">
       <c r="F152" s="22"/>
       <c r="G152" s="22"/>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" ht="15">
       <c r="F153" s="22"/>
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" ht="15">
       <c r="F154" s="22"/>
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" ht="15">
       <c r="F155" s="22"/>
       <c r="G155" s="22"/>
       <c r="H155" s="22"/>
       <c r="I155" s="22"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" ht="15">
       <c r="F156" s="22"/>
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
       <c r="I156" s="22"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" ht="15">
       <c r="F157" s="22"/>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
       <c r="I157" s="22"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" ht="15">
       <c r="F158" s="22"/>
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
       <c r="I158" s="22"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" ht="15">
       <c r="F159" s="22"/>
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
       <c r="I159" s="22"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" ht="15">
       <c r="F160" s="22"/>
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
       <c r="I160" s="22"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" ht="15">
       <c r="F161" s="22"/>
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
       <c r="I161" s="22"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" ht="15">
       <c r="F162" s="22"/>
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
       <c r="I162" s="22"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" ht="15">
       <c r="F163" s="22"/>
       <c r="G163" s="22"/>
       <c r="H163" s="22"/>
       <c r="I163" s="22"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" ht="15">
       <c r="F164" s="22"/>
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" ht="15">
       <c r="F165" s="22"/>
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
       <c r="I165" s="22"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" ht="15">
       <c r="F166" s="22"/>
       <c r="G166" s="22"/>
       <c r="H166" s="22"/>
       <c r="I166" s="22"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" ht="15">
       <c r="F167" s="22"/>
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" ht="15">
       <c r="F168" s="22"/>
       <c r="G168" s="22"/>
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" ht="15">
       <c r="F169" s="22"/>
       <c r="G169" s="22"/>
       <c r="H169" s="22"/>
       <c r="I169" s="22"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" ht="15">
       <c r="F170" s="22"/>
       <c r="G170" s="22"/>
       <c r="H170" s="22"/>
       <c r="I170" s="22"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" ht="15">
       <c r="F171" s="22"/>
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
       <c r="I171" s="22"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" ht="15">
       <c r="F172" s="22"/>
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
       <c r="I172" s="22"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" ht="15">
       <c r="F173" s="22"/>
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
       <c r="I173" s="22"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" ht="15">
       <c r="F174" s="22"/>
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
       <c r="I174" s="22"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" ht="15">
       <c r="F175" s="22"/>
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" ht="15">
       <c r="F176" s="22"/>
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" ht="15">
       <c r="F177" s="22"/>
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" ht="15">
       <c r="F178" s="22"/>
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" ht="15">
       <c r="F179" s="22"/>
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
       <c r="I179" s="22"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" ht="15">
       <c r="F180" s="22"/>
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
       <c r="I180" s="22"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" ht="15">
       <c r="F181" s="22"/>
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" ht="15">
       <c r="F182" s="22"/>
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" ht="15">
       <c r="F183" s="22"/>
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
       <c r="I183" s="22"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" ht="15">
       <c r="F184" s="22"/>
       <c r="G184" s="22"/>
       <c r="H184" s="22"/>
       <c r="I184" s="22"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" ht="15">
       <c r="F185" s="22"/>
       <c r="G185" s="22"/>
       <c r="H185" s="22"/>
       <c r="I185" s="22"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" ht="15">
       <c r="F186" s="22"/>
       <c r="G186" s="22"/>
       <c r="H186" s="22"/>
       <c r="I186" s="22"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" ht="15">
       <c r="F187" s="22"/>
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
       <c r="I187" s="22"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" ht="15">
       <c r="F188" s="22"/>
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
       <c r="I188" s="22"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" ht="15">
       <c r="F189" s="22"/>
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" ht="15">
       <c r="F190" s="22"/>
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
       <c r="I190" s="22"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" ht="15">
       <c r="F191" s="22"/>
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
       <c r="I191" s="22"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" ht="15">
       <c r="F192" s="22"/>
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
       <c r="I192" s="22"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" ht="15">
       <c r="F193" s="22"/>
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
       <c r="I193" s="22"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" ht="15">
       <c r="F194" s="22"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
       <c r="I194" s="22"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" ht="15">
       <c r="F195" s="22"/>
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
       <c r="I195" s="22"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" ht="15">
       <c r="F196" s="22"/>
       <c r="G196" s="22"/>
       <c r="H196" s="22"/>
       <c r="I196" s="22"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" ht="15">
       <c r="F197" s="22"/>
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
       <c r="I197" s="22"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" ht="15">
       <c r="F198" s="22"/>
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
       <c r="I198" s="22"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" ht="15">
       <c r="F199" s="22"/>
       <c r="G199" s="22"/>
       <c r="H199" s="22"/>
       <c r="I199" s="22"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" ht="15">
       <c r="F200" s="22"/>
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
       <c r="I200" s="22"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" ht="15">
       <c r="F201" s="22"/>
       <c r="G201" s="22"/>
       <c r="H201" s="22"/>
       <c r="I201" s="22"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" ht="15">
       <c r="F202" s="22"/>
       <c r="G202" s="22"/>
       <c r="H202" s="22"/>
       <c r="I202" s="22"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" ht="15">
       <c r="F203" s="22"/>
       <c r="G203" s="22"/>
       <c r="H203" s="22"/>
       <c r="I203" s="22"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" ht="15">
       <c r="F204" s="22"/>
       <c r="G204" s="22"/>
       <c r="H204" s="22"/>
       <c r="I204" s="22"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" ht="15">
       <c r="F205" s="22"/>
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
       <c r="I205" s="22"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" ht="15">
       <c r="F206" s="22"/>
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
       <c r="I206" s="22"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" ht="15">
       <c r="F207" s="22"/>
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" ht="15">
       <c r="F208" s="22"/>
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
       <c r="I208" s="22"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" ht="15">
       <c r="F209" s="22"/>
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
       <c r="I209" s="22"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" ht="15">
       <c r="F210" s="22"/>
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
       <c r="I210" s="22"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" ht="15">
       <c r="F211" s="22"/>
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
       <c r="I211" s="22"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" ht="15">
       <c r="F212" s="22"/>
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
       <c r="I212" s="22"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" ht="15">
       <c r="F213" s="22"/>
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
       <c r="I213" s="22"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" ht="15">
       <c r="F214" s="22"/>
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
       <c r="I214" s="22"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15"/>
+    <row r="216" ht="15"/>
+    <row r="217" ht="15"/>
+    <row r="218" ht="15"/>
+    <row r="219" ht="15"/>
+    <row r="220" ht="15"/>
+    <row r="221" ht="15"/>
+    <row r="222" ht="15"/>
+    <row r="223" ht="15"/>
+    <row r="224" ht="15"/>
+    <row r="225" ht="15"/>
+    <row r="226" ht="15"/>
+    <row r="227" ht="15"/>
+    <row r="228" ht="15"/>
+    <row r="229" ht="15"/>
+    <row r="230" ht="15"/>
+    <row r="231" ht="15"/>
+    <row r="232" ht="15"/>
+    <row r="233" ht="15"/>
+    <row r="234" ht="15"/>
+    <row r="235" ht="15"/>
+    <row r="236" ht="15"/>
+    <row r="237" ht="15"/>
+    <row r="238" ht="15"/>
+    <row r="239" ht="15"/>
+    <row r="240" ht="15"/>
+    <row r="241" ht="15"/>
+    <row r="242" ht="15"/>
+    <row r="243" ht="15"/>
+    <row r="244" ht="15"/>
+    <row r="245" ht="15"/>
+    <row r="246" ht="15"/>
+    <row r="247" ht="15"/>
+    <row r="248" ht="15"/>
+    <row r="249" ht="15"/>
+    <row r="250" ht="15"/>
+    <row r="251" ht="15"/>
+    <row r="252" ht="15"/>
+    <row r="253" ht="15"/>
+    <row r="254" ht="15"/>
+    <row r="255" ht="15"/>
+    <row r="256" ht="15"/>
+    <row r="257" ht="15"/>
+    <row r="258" ht="15"/>
+    <row r="259" ht="15"/>
+    <row r="260" ht="15"/>
+    <row r="261" ht="15"/>
+    <row r="262" ht="15"/>
+    <row r="263" ht="15"/>
+    <row r="264" ht="15"/>
+    <row r="265" ht="15"/>
+    <row r="266" ht="15"/>
+    <row r="267" ht="15"/>
+    <row r="268" ht="15"/>
+    <row r="269" ht="15"/>
+    <row r="270" ht="15"/>
+    <row r="271" ht="15"/>
+    <row r="272" ht="15"/>
+    <row r="273" ht="15"/>
+    <row r="274" ht="15"/>
+    <row r="275" ht="15"/>
+    <row r="276" ht="15"/>
+    <row r="277" ht="15"/>
+    <row r="278" ht="15"/>
+    <row r="279" ht="15"/>
+    <row r="280" ht="15"/>
+    <row r="281" ht="15"/>
+    <row r="282" ht="15"/>
+    <row r="283" ht="15"/>
+    <row r="284" ht="15"/>
+    <row r="285" ht="15"/>
+    <row r="286" ht="15"/>
+    <row r="287" ht="15"/>
+    <row r="288" ht="15"/>
+    <row r="289" ht="15"/>
+    <row r="290" ht="15"/>
+    <row r="291" ht="15"/>
+    <row r="292" ht="15"/>
+    <row r="293" ht="15"/>
+    <row r="294" ht="15"/>
+    <row r="295" ht="15"/>
+    <row r="296" ht="15"/>
+    <row r="297" ht="15"/>
+    <row r="298" ht="15"/>
+    <row r="299" ht="15"/>
+    <row r="300" ht="15"/>
+    <row r="301" ht="15"/>
+    <row r="302" ht="15"/>
+    <row r="303" ht="15"/>
+    <row r="304" ht="15"/>
+    <row r="305" ht="15"/>
+    <row r="306" ht="15"/>
+    <row r="307" ht="15"/>
+    <row r="308" ht="15"/>
+    <row r="309" ht="15"/>
+    <row r="310" ht="15"/>
+    <row r="311" ht="15"/>
+    <row r="312" ht="15"/>
+    <row r="313" ht="15"/>
+    <row r="314" ht="15"/>
+    <row r="315" ht="15"/>
+    <row r="316" ht="15"/>
+    <row r="317" ht="15"/>
+    <row r="318" ht="15"/>
+    <row r="319" ht="15"/>
+    <row r="320" ht="15"/>
+    <row r="321" ht="15"/>
+    <row r="322" ht="15"/>
+    <row r="323" ht="15"/>
+    <row r="324" ht="15"/>
+    <row r="325" ht="15"/>
+    <row r="326" ht="15"/>
+    <row r="327" ht="15"/>
+    <row r="328" ht="15"/>
+    <row r="329" ht="15"/>
+    <row r="330" ht="15"/>
+    <row r="331" ht="15"/>
+    <row r="332" ht="15"/>
+    <row r="333" ht="15"/>
+    <row r="334" ht="15"/>
+    <row r="335" ht="15"/>
+    <row r="336" ht="15"/>
+    <row r="337" ht="15"/>
+    <row r="338" ht="15"/>
+    <row r="339" ht="15"/>
+    <row r="340" ht="15"/>
+    <row r="341" ht="15"/>
+    <row r="342" ht="15"/>
+    <row r="343" ht="15"/>
+    <row r="344" ht="15"/>
+    <row r="345" ht="15"/>
+    <row r="346" ht="15"/>
+    <row r="347" ht="15"/>
+    <row r="348" ht="15"/>
+    <row r="349" ht="15"/>
+    <row r="350" ht="15"/>
+    <row r="351" ht="15"/>
+    <row r="352" ht="15"/>
+    <row r="353" ht="15"/>
+    <row r="354" ht="15"/>
+    <row r="355" ht="15"/>
+    <row r="356" ht="15"/>
+    <row r="357" ht="15"/>
+    <row r="358" ht="15"/>
+    <row r="359" ht="15"/>
+    <row r="360" ht="15"/>
+    <row r="361" ht="15"/>
+    <row r="362" ht="15"/>
+    <row r="363" ht="15"/>
+    <row r="364" ht="15"/>
+    <row r="365" ht="15"/>
+    <row r="366" ht="15"/>
+    <row r="367" ht="15"/>
+    <row r="368" ht="15"/>
+    <row r="369" ht="15"/>
+    <row r="370" ht="15"/>
+    <row r="371" ht="15"/>
+    <row r="372" ht="15"/>
+    <row r="373" ht="15"/>
+    <row r="374" ht="15"/>
+    <row r="375" ht="15"/>
+    <row r="376" ht="15"/>
+    <row r="377" ht="15"/>
+    <row r="378" ht="15"/>
+    <row r="379" ht="15"/>
+    <row r="380" ht="15"/>
+    <row r="381" ht="15"/>
+    <row r="382" ht="15"/>
+    <row r="383" ht="15"/>
+    <row r="384" ht="15"/>
+    <row r="385" ht="15"/>
+    <row r="386" ht="15"/>
+    <row r="387" ht="15"/>
+    <row r="388" ht="15"/>
+    <row r="389" ht="15"/>
+    <row r="390" ht="15"/>
+    <row r="391" ht="15"/>
+    <row r="392" ht="15"/>
+    <row r="393" ht="15"/>
+    <row r="394" ht="15"/>
+    <row r="395" ht="15"/>
+    <row r="396" ht="15"/>
+    <row r="397" ht="15"/>
+    <row r="398" ht="15"/>
+    <row r="399" ht="15"/>
+    <row r="400" ht="15"/>
+    <row r="401" ht="15"/>
+    <row r="402" ht="15"/>
+    <row r="403" ht="15"/>
+    <row r="404" ht="15"/>
+    <row r="405" ht="15"/>
+    <row r="406" ht="15"/>
+    <row r="407" ht="15"/>
+    <row r="408" ht="15"/>
+    <row r="409" ht="15"/>
+    <row r="410" ht="15"/>
+    <row r="411" ht="15"/>
+    <row r="412" ht="15"/>
+    <row r="413" ht="15"/>
+    <row r="414" ht="15"/>
+    <row r="415" ht="15"/>
+    <row r="416" ht="15"/>
+    <row r="417" ht="15"/>
+    <row r="418" ht="15"/>
+    <row r="419" ht="15"/>
+    <row r="420" ht="15"/>
+    <row r="421" ht="15"/>
+    <row r="422" ht="15"/>
+    <row r="423" ht="15"/>
+    <row r="424" ht="15"/>
+    <row r="425" ht="15"/>
+    <row r="426" ht="15"/>
+    <row r="427" ht="15"/>
+    <row r="428" ht="15"/>
+    <row r="429" ht="15"/>
+    <row r="430" ht="15"/>
+    <row r="431" ht="15"/>
+    <row r="432" ht="15"/>
+    <row r="433" ht="15"/>
+    <row r="434" ht="15"/>
+    <row r="435" ht="15"/>
+    <row r="436" ht="15"/>
+    <row r="437" ht="15"/>
+    <row r="438" ht="15"/>
+    <row r="439" ht="15"/>
+    <row r="440" ht="15"/>
+    <row r="441" ht="15"/>
+    <row r="442" ht="15"/>
+    <row r="443" ht="15"/>
+    <row r="444" ht="15"/>
+    <row r="445" ht="15"/>
+    <row r="446" ht="15"/>
+    <row r="447" ht="15"/>
+    <row r="448" ht="15"/>
+    <row r="449" ht="15"/>
+    <row r="450" ht="15"/>
+    <row r="451" ht="15"/>
+    <row r="452" ht="15"/>
+    <row r="453" ht="15"/>
+    <row r="454" ht="15"/>
+    <row r="455" ht="15"/>
+    <row r="456" ht="15"/>
+    <row r="457" ht="15"/>
+    <row r="458" ht="15"/>
+    <row r="459" ht="15"/>
+    <row r="460" ht="15"/>
+    <row r="461" ht="15"/>
+    <row r="462" ht="15"/>
+    <row r="463" ht="15"/>
+    <row r="464" ht="15"/>
+    <row r="465" ht="15"/>
+    <row r="466" ht="15"/>
+    <row r="467" ht="15"/>
+    <row r="468" ht="15"/>
+    <row r="469" ht="15"/>
+    <row r="470" ht="15"/>
+    <row r="471" ht="15"/>
+    <row r="472" ht="15"/>
+    <row r="473" ht="15"/>
+    <row r="474" ht="15"/>
+    <row r="475" ht="15"/>
+    <row r="476" ht="15"/>
+    <row r="477" ht="15"/>
+    <row r="478" ht="15"/>
+    <row r="479" ht="15"/>
+    <row r="480" ht="15"/>
+    <row r="481" ht="15"/>
+    <row r="482" ht="15"/>
+    <row r="483" ht="15"/>
+    <row r="484" ht="15"/>
+    <row r="485" ht="15"/>
+    <row r="486" ht="15"/>
+    <row r="487" ht="15"/>
+    <row r="488" ht="15"/>
+    <row r="489" ht="15"/>
+    <row r="490" ht="15"/>
+    <row r="491" ht="15"/>
+    <row r="492" ht="15"/>
+    <row r="493" ht="15"/>
+    <row r="494" ht="15"/>
+    <row r="495" ht="15"/>
+    <row r="496" ht="15"/>
+    <row r="497" ht="15"/>
+    <row r="498" ht="15"/>
+    <row r="499" ht="15"/>
+    <row r="500" ht="15"/>
+    <row r="501" ht="15"/>
+    <row r="502" ht="15"/>
+    <row r="503" ht="15"/>
+    <row r="504" ht="15"/>
+    <row r="505" ht="15"/>
+    <row r="506" ht="15"/>
+    <row r="507" ht="15"/>
+    <row r="508" ht="15"/>
+    <row r="509" ht="15"/>
+    <row r="510" ht="15"/>
+    <row r="511" ht="15"/>
+    <row r="512" ht="15"/>
+    <row r="513" ht="15"/>
+    <row r="514" ht="15"/>
+    <row r="515" ht="15"/>
+    <row r="516" ht="15"/>
+    <row r="517" ht="15"/>
+    <row r="518" ht="15"/>
+    <row r="519" ht="15"/>
+    <row r="520" ht="15"/>
+    <row r="521" ht="15"/>
+    <row r="522" ht="15"/>
+    <row r="523" ht="15"/>
+    <row r="524" ht="15"/>
+    <row r="525" ht="15"/>
+    <row r="526" ht="15"/>
+    <row r="527" ht="15"/>
+    <row r="528" ht="15"/>
+    <row r="529" ht="15"/>
+    <row r="530" ht="15"/>
+    <row r="531" ht="15"/>
+    <row r="532" ht="15"/>
+    <row r="533" ht="15"/>
+    <row r="534" ht="15"/>
+    <row r="535" ht="15"/>
+    <row r="536" ht="15"/>
+    <row r="537" ht="15"/>
+    <row r="538" ht="15"/>
+    <row r="539" ht="15"/>
+    <row r="540" ht="15"/>
+    <row r="541" ht="15"/>
+    <row r="542" ht="15"/>
+    <row r="543" ht="15"/>
+    <row r="544" ht="15"/>
+    <row r="545" ht="15"/>
+    <row r="546" ht="15"/>
+    <row r="547" ht="15"/>
+    <row r="548" ht="15"/>
+    <row r="549" ht="15"/>
+    <row r="550" ht="15"/>
+    <row r="551" ht="15"/>
+    <row r="552" ht="15"/>
+    <row r="553" ht="15"/>
+    <row r="554" ht="15"/>
+    <row r="555" ht="15"/>
+    <row r="556" ht="15"/>
+    <row r="557" ht="15"/>
+    <row r="558" ht="15"/>
+    <row r="559" ht="15"/>
+    <row r="560" ht="15"/>
+    <row r="561" ht="15"/>
+    <row r="562" ht="15"/>
+    <row r="563" ht="15"/>
+    <row r="564" ht="15"/>
+    <row r="565" ht="15"/>
+    <row r="566" ht="15"/>
+    <row r="567" ht="15"/>
+    <row r="568" ht="15"/>
+    <row r="569" ht="15"/>
+    <row r="570" ht="15"/>
+    <row r="571" ht="15"/>
+    <row r="572" ht="15"/>
+    <row r="573" ht="15"/>
+    <row r="574" ht="15"/>
+    <row r="575" ht="15"/>
+    <row r="576" ht="15"/>
+    <row r="577" ht="15"/>
+    <row r="578" ht="15"/>
+    <row r="579" ht="15"/>
+    <row r="580" ht="15"/>
+    <row r="581" ht="15"/>
+    <row r="582" ht="15"/>
+    <row r="583" ht="15"/>
+    <row r="584" ht="15"/>
+    <row r="585" ht="15"/>
+    <row r="586" ht="15"/>
+    <row r="587" ht="15"/>
+    <row r="588" ht="15"/>
+    <row r="589" ht="15"/>
+    <row r="590" ht="15"/>
+    <row r="591" ht="15"/>
+    <row r="592" ht="15"/>
+    <row r="593" ht="15"/>
+    <row r="594" ht="15"/>
+    <row r="595" ht="15"/>
+    <row r="596" ht="15"/>
+    <row r="597" ht="15"/>
+    <row r="598" ht="15"/>
+    <row r="599" ht="15"/>
+    <row r="600" ht="15"/>
+    <row r="601" ht="15"/>
+    <row r="602" ht="15"/>
+    <row r="603" ht="15"/>
+    <row r="604" ht="15"/>
+    <row r="605" ht="15"/>
+    <row r="606" ht="15"/>
+    <row r="607" ht="15"/>
+    <row r="608" ht="15"/>
+    <row r="609" ht="15"/>
+    <row r="610" ht="15"/>
+    <row r="611" ht="15"/>
+    <row r="612" ht="15"/>
+    <row r="613" ht="15"/>
+    <row r="614" ht="15"/>
+    <row r="615" ht="15"/>
+    <row r="616" ht="15"/>
+    <row r="617" ht="15"/>
+    <row r="618" ht="15"/>
+    <row r="619" ht="15"/>
+    <row r="620" ht="15"/>
+    <row r="621" ht="15"/>
+    <row r="622" ht="15"/>
+    <row r="623" ht="15"/>
+    <row r="624" ht="15"/>
+    <row r="625" ht="15"/>
+    <row r="626" ht="15"/>
+    <row r="627" ht="15"/>
+    <row r="628" ht="15"/>
+    <row r="629" ht="15"/>
+    <row r="630" ht="15"/>
+    <row r="631" ht="15"/>
+    <row r="632" ht="15"/>
+    <row r="633" ht="15"/>
+    <row r="634" ht="15"/>
+    <row r="635" ht="15"/>
+    <row r="636" ht="15"/>
+    <row r="637" ht="15"/>
+    <row r="638" ht="15"/>
+    <row r="639" ht="15"/>
+    <row r="640" ht="15"/>
+    <row r="641" ht="15"/>
+    <row r="642" ht="15"/>
+    <row r="643" ht="15"/>
+    <row r="644" ht="15"/>
+    <row r="645" ht="15"/>
+    <row r="646" ht="15"/>
+    <row r="647" ht="15"/>
+    <row r="648" ht="15"/>
+    <row r="649" ht="15"/>
+    <row r="650" ht="15"/>
+    <row r="651" ht="15"/>
+    <row r="652" ht="15"/>
+    <row r="653" ht="15"/>
+    <row r="654" ht="15"/>
+    <row r="655" ht="15"/>
+    <row r="656" ht="15"/>
+    <row r="657" ht="15"/>
+    <row r="658" ht="15"/>
+    <row r="659" ht="15"/>
+    <row r="660" ht="15"/>
+    <row r="661" ht="15"/>
+    <row r="662" ht="15"/>
+    <row r="663" ht="15"/>
+    <row r="664" ht="15"/>
+    <row r="665" ht="15"/>
+    <row r="666" ht="15"/>
+    <row r="667" ht="15"/>
+    <row r="668" ht="15"/>
+    <row r="669" ht="15"/>
+    <row r="670" ht="15"/>
+    <row r="671" ht="15"/>
+    <row r="672" ht="15"/>
+    <row r="673" ht="15"/>
+    <row r="674" ht="15"/>
+    <row r="675" ht="15"/>
+    <row r="676" ht="15"/>
+    <row r="677" ht="15"/>
+    <row r="678" ht="15"/>
+    <row r="679" ht="15"/>
+    <row r="680" ht="15"/>
+    <row r="681" ht="15"/>
+    <row r="682" ht="15"/>
+    <row r="683" ht="15"/>
+    <row r="684" ht="15"/>
+    <row r="685" ht="15"/>
+    <row r="686" ht="15"/>
+    <row r="687" ht="15"/>
+    <row r="688" ht="15"/>
+    <row r="689" ht="15"/>
+    <row r="690" ht="15"/>
+    <row r="691" ht="15"/>
+    <row r="692" ht="15"/>
+    <row r="693" ht="15"/>
+    <row r="694" ht="15"/>
+    <row r="695" ht="15"/>
+    <row r="696" ht="15"/>
+    <row r="697" ht="15"/>
+    <row r="698" ht="15"/>
+    <row r="699" ht="15"/>
+    <row r="700" ht="15"/>
+    <row r="701" ht="15"/>
+    <row r="702" ht="15"/>
+    <row r="703" ht="15"/>
+    <row r="704" ht="15"/>
+    <row r="705" ht="15"/>
+    <row r="706" ht="15"/>
+    <row r="707" ht="15"/>
+    <row r="708" ht="15"/>
+    <row r="709" ht="15"/>
+    <row r="710" ht="15"/>
+    <row r="711" ht="15"/>
+    <row r="712" ht="15"/>
+    <row r="713" ht="15"/>
+    <row r="714" ht="15"/>
+    <row r="715" ht="15"/>
+    <row r="716" ht="15"/>
+    <row r="717" ht="15"/>
+    <row r="718" ht="15"/>
+    <row r="719" ht="15"/>
+    <row r="720" ht="15"/>
+    <row r="721" ht="15"/>
+    <row r="722" ht="15"/>
+    <row r="723" ht="15"/>
+    <row r="724" ht="15"/>
+    <row r="725" ht="15"/>
+    <row r="726" ht="15"/>
+    <row r="727" ht="15"/>
+    <row r="728" ht="15"/>
+    <row r="729" ht="15"/>
+    <row r="730" ht="15"/>
+    <row r="731" ht="15"/>
+    <row r="732" ht="15"/>
+    <row r="733" ht="15"/>
+    <row r="734" ht="15"/>
+    <row r="735" ht="15"/>
+    <row r="736" ht="15"/>
+    <row r="737" ht="15"/>
+    <row r="738" ht="15"/>
+    <row r="739" ht="15"/>
+    <row r="740" ht="15"/>
+    <row r="741" ht="15"/>
+    <row r="742" ht="15"/>
+    <row r="743" ht="15"/>
+    <row r="744" ht="15"/>
+    <row r="745" ht="15"/>
+    <row r="746" ht="15"/>
+    <row r="747" ht="15"/>
+    <row r="748" ht="15"/>
+    <row r="749" ht="15"/>
+    <row r="750" ht="15"/>
+    <row r="751" ht="15"/>
+    <row r="752" ht="15"/>
+    <row r="753" ht="15"/>
+    <row r="754" ht="15"/>
+    <row r="755" ht="15"/>
+    <row r="756" ht="15"/>
+    <row r="757" ht="15"/>
+    <row r="758" ht="15"/>
+    <row r="759" ht="15"/>
+    <row r="760" ht="15"/>
+    <row r="761" ht="15"/>
+    <row r="762" ht="15"/>
+    <row r="763" ht="15"/>
+    <row r="764" ht="15"/>
+    <row r="765" ht="15"/>
+    <row r="766" ht="15"/>
+    <row r="767" ht="15"/>
+    <row r="768" ht="15"/>
+    <row r="769" ht="15"/>
+    <row r="770" ht="15"/>
+    <row r="771" ht="15"/>
+    <row r="772" ht="15"/>
+    <row r="773" ht="15"/>
+    <row r="774" ht="15"/>
+    <row r="775" ht="15"/>
+    <row r="776" ht="15"/>
+    <row r="777" ht="15"/>
+    <row r="778" ht="15"/>
+    <row r="779" ht="15"/>
+    <row r="780" ht="15"/>
+    <row r="781" ht="15"/>
+    <row r="782" ht="15"/>
+    <row r="783" ht="15"/>
+    <row r="784" ht="15"/>
+    <row r="785" ht="15"/>
+    <row r="786" ht="15"/>
+    <row r="787" ht="15"/>
+    <row r="788" ht="15"/>
+    <row r="789" ht="15"/>
+    <row r="790" ht="15"/>
+    <row r="791" ht="15"/>
+    <row r="792" ht="15"/>
+    <row r="793" ht="15"/>
+    <row r="794" ht="15"/>
+    <row r="795" ht="15"/>
+    <row r="796" ht="15"/>
+    <row r="797" ht="15"/>
+    <row r="798" ht="15"/>
+    <row r="799" ht="15"/>
+    <row r="800" ht="15"/>
+    <row r="801" ht="15"/>
+    <row r="802" ht="15"/>
+    <row r="803" ht="15"/>
+    <row r="804" ht="15"/>
+    <row r="805" ht="15"/>
+    <row r="806" ht="15"/>
+    <row r="807" ht="15"/>
+    <row r="808" ht="15"/>
+    <row r="809" ht="15"/>
+    <row r="810" ht="15"/>
+    <row r="811" ht="15"/>
+    <row r="812" ht="15"/>
+    <row r="813" ht="15"/>
+    <row r="814" ht="15"/>
+    <row r="815" ht="15"/>
+    <row r="816" ht="15"/>
+    <row r="817" ht="15"/>
+    <row r="818" ht="15"/>
+    <row r="819" ht="15"/>
+    <row r="820" ht="15"/>
+    <row r="821" ht="15"/>
+    <row r="822" ht="15"/>
+    <row r="823" ht="15"/>
+    <row r="824" ht="15"/>
+    <row r="825" ht="15"/>
+    <row r="826" ht="15"/>
+    <row r="827" ht="15"/>
+    <row r="828" ht="15"/>
+    <row r="829" ht="15"/>
+    <row r="830" ht="15"/>
+    <row r="831" ht="15"/>
+    <row r="832" ht="15"/>
+    <row r="833" ht="15"/>
+    <row r="834" ht="15"/>
+    <row r="835" ht="15"/>
+    <row r="836" ht="15"/>
+    <row r="837" ht="15"/>
+    <row r="838" ht="15"/>
+    <row r="839" ht="15"/>
+    <row r="840" ht="15"/>
+    <row r="841" ht="15"/>
+    <row r="842" ht="15"/>
+    <row r="843" ht="15"/>
+    <row r="844" ht="15"/>
+    <row r="845" ht="15"/>
+    <row r="846" ht="15"/>
+    <row r="847" ht="15"/>
+    <row r="848" ht="15"/>
+    <row r="849" ht="15"/>
+    <row r="850" ht="15"/>
+    <row r="851" ht="15"/>
+    <row r="852" ht="15"/>
+    <row r="853" ht="15"/>
+    <row r="854" ht="15"/>
+    <row r="855" ht="15"/>
+    <row r="856" ht="15"/>
+    <row r="857" ht="15"/>
+    <row r="858" ht="15"/>
+    <row r="859" ht="15"/>
+    <row r="860" ht="15"/>
+    <row r="861" ht="15"/>
+    <row r="862" ht="15"/>
+    <row r="863" ht="15"/>
+    <row r="864" ht="15"/>
+    <row r="865" ht="15"/>
+    <row r="866" ht="15"/>
+    <row r="867" ht="15"/>
+    <row r="868" ht="15"/>
+    <row r="869" ht="15"/>
+    <row r="870" ht="15"/>
+    <row r="871" ht="15"/>
+    <row r="872" ht="15"/>
+    <row r="873" ht="15"/>
+    <row r="874" ht="15"/>
+    <row r="875" ht="15"/>
+    <row r="876" ht="15"/>
+    <row r="877" ht="15"/>
+    <row r="878" ht="15"/>
+    <row r="879" ht="15"/>
+    <row r="880" ht="15"/>
+    <row r="881" ht="15"/>
+    <row r="882" ht="15"/>
+    <row r="883" ht="15"/>
+    <row r="884" ht="15"/>
+    <row r="885" ht="15"/>
+    <row r="886" ht="15"/>
+    <row r="887" ht="15"/>
+    <row r="888" ht="15"/>
+    <row r="889" ht="15"/>
+    <row r="890" ht="15"/>
+    <row r="891" ht="15"/>
+    <row r="892" ht="15"/>
+    <row r="893" ht="15"/>
+    <row r="894" ht="15"/>
+    <row r="895" ht="15"/>
+    <row r="896" ht="15"/>
+    <row r="897" ht="15"/>
+    <row r="898" ht="15"/>
+    <row r="899" ht="15"/>
+    <row r="900" ht="15"/>
+    <row r="901" ht="15"/>
+    <row r="902" ht="15"/>
+    <row r="903" ht="15"/>
+    <row r="904" ht="15"/>
+    <row r="905" ht="15"/>
+    <row r="906" ht="15"/>
+    <row r="907" ht="15"/>
+    <row r="908" ht="15"/>
+    <row r="909" ht="15"/>
+    <row r="910" ht="15"/>
+    <row r="911" ht="15"/>
+    <row r="912" ht="15"/>
+    <row r="913" ht="15"/>
+    <row r="914" ht="15"/>
+    <row r="915" ht="15"/>
+    <row r="916" ht="15"/>
+    <row r="917" ht="15"/>
+    <row r="918" ht="15"/>
+    <row r="919" ht="15"/>
+    <row r="920" ht="15"/>
+    <row r="921" ht="15"/>
+    <row r="922" ht="15"/>
+    <row r="923" ht="15"/>
+    <row r="924" ht="15"/>
+    <row r="925" ht="15"/>
+    <row r="926" ht="15"/>
+    <row r="927" ht="15"/>
+    <row r="928" ht="15"/>
+    <row r="929" ht="15"/>
+    <row r="930" ht="15"/>
+    <row r="931" ht="15"/>
+    <row r="932" ht="15"/>
+    <row r="933" ht="15"/>
+    <row r="934" ht="15"/>
+    <row r="935" ht="15"/>
+    <row r="936" ht="15"/>
+    <row r="937" ht="15"/>
+    <row r="938" ht="15"/>
+    <row r="939" ht="15"/>
+    <row r="940" ht="15"/>
+    <row r="941" ht="15"/>
+    <row r="942" ht="15"/>
+    <row r="943" ht="15"/>
+    <row r="944" ht="15"/>
+    <row r="945" ht="15"/>
+    <row r="946" ht="15"/>
+    <row r="947" ht="15"/>
+    <row r="948" ht="15"/>
+    <row r="949" ht="15"/>
+    <row r="950" ht="15"/>
+    <row r="951" ht="15"/>
+    <row r="952" ht="15"/>
+    <row r="953" ht="15"/>
+    <row r="954" ht="15"/>
+    <row r="955" ht="15"/>
+    <row r="956" ht="15"/>
+    <row r="957" ht="15"/>
+    <row r="958" ht="15"/>
+    <row r="959" ht="15"/>
+    <row r="960" ht="15"/>
+    <row r="961" ht="15"/>
+    <row r="962" ht="15"/>
+    <row r="963" ht="15"/>
+    <row r="964" ht="15"/>
+    <row r="965" ht="15"/>
+    <row r="966" ht="15"/>
+    <row r="967" ht="15"/>
+    <row r="968" ht="15"/>
+    <row r="969" ht="15"/>
+    <row r="970" ht="15"/>
+    <row r="971" ht="15"/>
+    <row r="972" ht="15"/>
+    <row r="973" ht="15"/>
+    <row r="974" ht="15"/>
+    <row r="975" ht="15"/>
+    <row r="976" ht="15"/>
+    <row r="977" ht="15"/>
+    <row r="978" ht="15"/>
+    <row r="979" ht="15"/>
+    <row r="980" ht="15"/>
+    <row r="981" ht="15"/>
+    <row r="982" ht="15"/>
+    <row r="983" ht="15"/>
+    <row r="984" ht="15"/>
+    <row r="985" ht="15"/>
+    <row r="986" ht="15"/>
+    <row r="987" ht="15"/>
+    <row r="988" ht="15"/>
+    <row r="989" ht="15"/>
+    <row r="990" ht="15"/>
+    <row r="991" ht="15"/>
+    <row r="992" ht="15"/>
+    <row r="993" ht="15"/>
+    <row r="994" ht="15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:F1"/>
@@ -6328,17 +6318,19 @@
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.379999999999999"/>
     <col customWidth="1" min="2" max="2" width="18.25"/>
     <col customWidth="1" min="3" max="3" width="27.28125"/>
-    <col customWidth="1" min="4" max="6" width="14.25"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="13.28125"/>
+    <col customWidth="1" min="5" max="5" width="14.25"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="14.25"/>
     <col customWidth="1" min="7" max="7" width="45.130000000000003"/>
-    <col customWidth="1" min="8" max="8" width="40.880000000000003"/>
-    <col customWidth="1" min="9" max="12" width="14.25"/>
+    <col customWidth="1" hidden="1" min="8" max="8" width="40.880000000000003"/>
+    <col customWidth="1" hidden="1" min="9" max="12" width="14.25"/>
     <col customWidth="1" min="13" max="13" width="22.421875"/>
-    <col customWidth="1" min="14" max="14" width="14.25"/>
+    <col customWidth="1" hidden="1" min="14" max="14" width="14.25"/>
     <col customWidth="1" min="15" max="15" width="35.5"/>
     <col customWidth="1" min="16" max="16" width="14.25"/>
     <col customWidth="1" min="17" max="17" width="28.00390625"/>
@@ -6352,7 +6344,7 @@
     <col customWidth="1" min="25" max="28" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" ht="15">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
@@ -6375,7 +6367,7 @@
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" ht="15">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="22"/>
@@ -6391,7 +6383,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" ht="15">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="22"/>
@@ -6407,7 +6399,7 @@
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" ht="15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="22"/>
@@ -6423,7 +6415,7 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" ht="5.25" customHeight="1">
+    <row r="5" ht="15">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="22"/>
@@ -6436,7 +6428,7 @@
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
-    <row r="6" ht="217.5" customHeight="1">
+    <row r="6" ht="165.75">
       <c r="A6" s="29" t="s">
         <v>109</v>
       </c>
@@ -6514,7 +6506,7 @@
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
     </row>
-    <row r="7" ht="26.25" customHeight="1">
+    <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
         <v>41</v>
       </c>
@@ -6592,7 +6584,7 @@
       <c r="AA7" s="46"/>
       <c r="AB7" s="46"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75">
       <c r="A8" s="47" t="s">
         <v>56</v>
       </c>
@@ -6625,7 +6617,7 @@
       <c r="AB8" s="48"/>
       <c r="AC8" s="48"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" ht="25.5">
       <c r="A9" s="38" t="str">
         <f>CONCATENATE("this:",RIGHT(C9,LEN(C9)-SEARCH(":",C9)),"_",RIGHT(B9,LEN(B9)-SEARCH(":",B9)))</f>
         <v>this:Vehicle_VIN</v>
@@ -6686,7 +6678,7 @@
       <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" ht="15">
       <c r="A10" s="38" t="str">
         <f>CONCATENATE("this:",RIGHT(C10,LEN(C10)-SEARCH(":",C10)),"_",RIGHT(B10,LEN(B10)-SEARCH(":",B10)))</f>
         <v>this:Vehicle_hasManufacturer</v>
@@ -6746,7 +6738,7 @@
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
     </row>
-    <row r="11" ht="45" customHeight="1">
+    <row r="11" ht="38.25">
       <c r="A11" s="38" t="s">
         <v>169</v>
       </c>
@@ -6801,7 +6793,7 @@
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" ht="15">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE("this:",RIGHT(C12,LEN(C12)-SEARCH(":",C12)),"_",RIGHT(B12,LEN(B12)-SEARCH(":",B12)))</f>
         <v>this:Vehicle_weightInKg</v>
@@ -6857,7 +6849,7 @@
       <c r="AB12" s="35"/>
       <c r="AC12" s="35"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75">
       <c r="A13" s="47" t="s">
         <v>63</v>
       </c>
@@ -6890,7 +6882,7 @@
       <c r="AB13" s="48"/>
       <c r="AC13" s="48"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" ht="15">
       <c r="A14" s="38" t="str">
         <f>CONCATENATE("this:",RIGHT(C14,LEN(C14)-SEARCH(":",C14)),"_",RIGHT(B14,LEN(B14)-SEARCH(":",B14)))</f>
         <v>this:Manufacturer_name</v>
@@ -6950,7 +6942,7 @@
       <c r="AB14" s="35"/>
       <c r="AC14" s="35"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75">
       <c r="A15" s="47" t="s">
         <v>70</v>
       </c>
@@ -6983,7 +6975,7 @@
       <c r="AB15" s="48"/>
       <c r="AC15" s="48"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" ht="15">
       <c r="A16" s="38" t="str">
         <f t="shared" ref="A16:A33" si="0">CONCATENATE("this:",RIGHT(C16,LEN(C16)-SEARCH(":",C16)),"_",RIGHT(B16,LEN(B16)-SEARCH(":",B16)))</f>
         <v>this:Diagnostic_diagnosticDate</v>
@@ -7043,7 +7035,7 @@
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" ht="25.5">
       <c r="A17" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_analysedVehicle</v>
@@ -7102,7 +7094,7 @@
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" ht="15">
       <c r="A18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_hasResults</v>
@@ -7155,7 +7147,7 @@
       <c r="AB18" s="35"/>
       <c r="AC18" s="35"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" ht="15">
       <c r="A19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_diagnosticPlace</v>
@@ -7213,7 +7205,7 @@
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
     </row>
-    <row r="20" ht="45" customHeight="1">
+    <row r="20" ht="25.5">
       <c r="A20" s="38" t="s">
         <v>211</v>
       </c>
@@ -7266,7 +7258,7 @@
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75">
       <c r="A21" s="47" t="s">
         <v>77</v>
       </c>
@@ -7299,7 +7291,7 @@
       <c r="AB21" s="48"/>
       <c r="AC21" s="48"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" ht="25.5">
       <c r="A22" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Error_alreadyRaised</v>
@@ -7359,7 +7351,7 @@
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" ht="25.5">
       <c r="A23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Error_hasErrorCode</v>
@@ -7419,7 +7411,7 @@
       <c r="AB23" s="35"/>
       <c r="AC23" s="35"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75">
       <c r="A24" s="47" t="s">
         <v>229</v>
       </c>
@@ -7452,7 +7444,7 @@
       <c r="AB24" s="48"/>
       <c r="AC24" s="48"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" ht="15">
       <c r="A25" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_errorCode</v>
@@ -7506,7 +7498,7 @@
       <c r="AB25" s="31"/>
       <c r="AC25" s="31"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" ht="25.5">
       <c r="A26" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_hasSymptom</v>
@@ -7562,7 +7554,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" ht="25.5">
       <c r="A27" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_hasComponent</v>
@@ -7620,7 +7612,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" ht="25.5">
       <c r="A28" s="38" t="s">
         <v>242</v>
       </c>
@@ -7679,7 +7671,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75">
       <c r="A29" s="47" t="s">
         <v>91</v>
       </c>
@@ -7712,7 +7704,7 @@
       <c r="AB29" s="48"/>
       <c r="AC29" s="48"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" ht="15">
       <c r="A30" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Symptom_label</v>
@@ -7772,7 +7764,7 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75">
       <c r="A31" s="47" t="s">
         <v>98</v>
       </c>
@@ -7805,7 +7797,7 @@
       <c r="AB31" s="48"/>
       <c r="AC31" s="48"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" ht="15">
       <c r="A32" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Component_componentCode</v>
@@ -7865,7 +7857,7 @@
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" ht="15">
       <c r="A33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Component_label</v>
@@ -7927,7 +7919,7 @@
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" ht="39" customHeight="1">
+    <row r="34" ht="38.25">
       <c r="A34" s="38" t="s">
         <v>261</v>
       </c>
@@ -7980,1596 +7972,1596 @@
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" ht="15">
       <c r="C35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" ht="15">
       <c r="C36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" ht="15">
       <c r="C37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" ht="15">
       <c r="C38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" ht="15">
       <c r="C39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" ht="15">
       <c r="C40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" ht="15">
       <c r="C41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" ht="15">
       <c r="C42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" ht="15">
       <c r="C43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" ht="15">
       <c r="C44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="O44" s="7"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" ht="15">
       <c r="C45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" ht="15">
       <c r="C46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" ht="15">
       <c r="C47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" ht="15">
       <c r="C48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" ht="15">
       <c r="C49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" ht="15">
       <c r="C50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" ht="15">
       <c r="C51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" ht="15">
       <c r="C52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="O52" s="7"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" ht="15">
       <c r="C53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="O53" s="7"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" ht="15">
       <c r="C54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="O54" s="7"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" ht="15">
       <c r="C55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" ht="15">
       <c r="C56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="O56" s="7"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" ht="15">
       <c r="C57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="O57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" ht="15">
       <c r="C58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="O58" s="7"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" ht="15">
       <c r="C59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" ht="15">
       <c r="C60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" ht="15">
       <c r="C61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" ht="15">
       <c r="C62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" ht="15">
       <c r="C63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" ht="15">
       <c r="C64" s="22"/>
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" ht="15">
       <c r="C65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" ht="15">
       <c r="C66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" ht="15">
       <c r="C67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" ht="15">
       <c r="C68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" ht="15">
       <c r="C69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" ht="15">
       <c r="C70" s="22"/>
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" ht="15">
       <c r="C71" s="22"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" ht="15">
       <c r="C72" s="22"/>
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" ht="15">
       <c r="C73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" ht="15">
       <c r="C74" s="22"/>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" ht="15">
       <c r="C75" s="22"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" ht="15">
       <c r="C76" s="22"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" ht="15">
       <c r="C77" s="22"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" ht="15">
       <c r="C78" s="22"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" ht="15">
       <c r="C79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" ht="15">
       <c r="C80" s="22"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" ht="15">
       <c r="C81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" ht="15">
       <c r="C82" s="22"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" ht="15">
       <c r="C83" s="22"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" ht="15">
       <c r="C84" s="22"/>
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" ht="15">
       <c r="C85" s="22"/>
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" ht="15">
       <c r="C86" s="22"/>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" ht="15">
       <c r="C87" s="22"/>
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" ht="15">
       <c r="C88" s="22"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" ht="15">
       <c r="C89" s="22"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" ht="15">
       <c r="C90" s="22"/>
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" ht="15">
       <c r="C91" s="22"/>
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" ht="15">
       <c r="C92" s="22"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" ht="15">
       <c r="C93" s="22"/>
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" ht="15">
       <c r="C94" s="22"/>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" ht="15">
       <c r="C95" s="22"/>
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" ht="15">
       <c r="C96" s="22"/>
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" ht="15">
       <c r="C97" s="22"/>
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" ht="15">
       <c r="C98" s="22"/>
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" ht="15">
       <c r="C99" s="22"/>
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" ht="15">
       <c r="C100" s="22"/>
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" ht="15">
       <c r="C101" s="22"/>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" ht="15">
       <c r="C102" s="22"/>
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" ht="15">
       <c r="C103" s="22"/>
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" ht="15">
       <c r="C104" s="22"/>
       <c r="G104" s="22"/>
       <c r="H104" s="22"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" ht="15">
       <c r="C105" s="22"/>
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" ht="15">
       <c r="C106" s="22"/>
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" ht="15">
       <c r="C107" s="22"/>
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" ht="15">
       <c r="C108" s="22"/>
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" ht="15">
       <c r="C109" s="22"/>
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" ht="15">
       <c r="C110" s="22"/>
       <c r="G110" s="22"/>
       <c r="H110" s="22"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" ht="15">
       <c r="C111" s="22"/>
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" ht="15">
       <c r="C112" s="22"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" ht="15">
       <c r="C113" s="22"/>
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" ht="15">
       <c r="C114" s="22"/>
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" ht="15">
       <c r="C115" s="22"/>
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" ht="15">
       <c r="C116" s="22"/>
       <c r="G116" s="22"/>
       <c r="H116" s="22"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" ht="15">
       <c r="C117" s="22"/>
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" ht="15">
       <c r="C118" s="22"/>
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" ht="15">
       <c r="C119" s="22"/>
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" ht="15">
       <c r="C120" s="22"/>
       <c r="G120" s="22"/>
       <c r="H120" s="22"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" ht="15">
       <c r="C121" s="22"/>
       <c r="G121" s="22"/>
       <c r="H121" s="22"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" ht="15">
       <c r="C122" s="22"/>
       <c r="G122" s="22"/>
       <c r="H122" s="22"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" ht="15">
       <c r="C123" s="22"/>
       <c r="G123" s="22"/>
       <c r="H123" s="22"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" ht="15">
       <c r="C124" s="22"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" ht="15">
       <c r="C125" s="22"/>
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" ht="15">
       <c r="C126" s="22"/>
       <c r="G126" s="22"/>
       <c r="H126" s="22"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" ht="15">
       <c r="C127" s="22"/>
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" ht="15">
       <c r="C128" s="22"/>
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" ht="15">
       <c r="C129" s="22"/>
       <c r="G129" s="22"/>
       <c r="H129" s="22"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" ht="15">
       <c r="C130" s="22"/>
       <c r="G130" s="22"/>
       <c r="H130" s="22"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" ht="15">
       <c r="C131" s="22"/>
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" ht="15">
       <c r="C132" s="22"/>
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" ht="15">
       <c r="C133" s="22"/>
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" ht="15">
       <c r="C134" s="22"/>
       <c r="G134" s="22"/>
       <c r="H134" s="22"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" ht="15">
       <c r="C135" s="22"/>
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" ht="15">
       <c r="C136" s="22"/>
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" ht="15">
       <c r="C137" s="22"/>
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" ht="15">
       <c r="C138" s="22"/>
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" ht="15">
       <c r="C139" s="22"/>
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" ht="15">
       <c r="C140" s="22"/>
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" ht="15">
       <c r="C141" s="22"/>
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" ht="15">
       <c r="C142" s="22"/>
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" ht="15">
       <c r="C143" s="22"/>
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" ht="15">
       <c r="C144" s="22"/>
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" ht="15">
       <c r="C145" s="22"/>
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" ht="15">
       <c r="C146" s="22"/>
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" ht="15">
       <c r="C147" s="22"/>
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" ht="15">
       <c r="C148" s="22"/>
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" ht="15">
       <c r="C149" s="22"/>
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" ht="15">
       <c r="C150" s="22"/>
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" ht="15">
       <c r="C151" s="22"/>
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" ht="15">
       <c r="C152" s="22"/>
       <c r="G152" s="22"/>
       <c r="H152" s="22"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" ht="15">
       <c r="C153" s="22"/>
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" ht="15">
       <c r="C154" s="22"/>
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" ht="15">
       <c r="C155" s="22"/>
       <c r="G155" s="22"/>
       <c r="H155" s="22"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" ht="15">
       <c r="C156" s="22"/>
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" ht="15">
       <c r="C157" s="22"/>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" ht="15">
       <c r="C158" s="22"/>
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" ht="15">
       <c r="C159" s="22"/>
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" ht="15">
       <c r="C160" s="22"/>
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" ht="15">
       <c r="C161" s="22"/>
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" ht="15">
       <c r="C162" s="22"/>
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" ht="15">
       <c r="C163" s="22"/>
       <c r="G163" s="22"/>
       <c r="H163" s="22"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" ht="15">
       <c r="C164" s="22"/>
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" ht="15">
       <c r="C165" s="22"/>
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" ht="15">
       <c r="C166" s="22"/>
       <c r="G166" s="22"/>
       <c r="H166" s="22"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" ht="15">
       <c r="C167" s="22"/>
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" ht="15">
       <c r="C168" s="22"/>
       <c r="G168" s="22"/>
       <c r="H168" s="22"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" ht="15">
       <c r="C169" s="22"/>
       <c r="G169" s="22"/>
       <c r="H169" s="22"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" ht="15">
       <c r="C170" s="22"/>
       <c r="G170" s="22"/>
       <c r="H170" s="22"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" ht="15">
       <c r="C171" s="22"/>
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" ht="15">
       <c r="C172" s="22"/>
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" ht="15">
       <c r="C173" s="22"/>
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" ht="15">
       <c r="C174" s="22"/>
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" ht="15">
       <c r="C175" s="22"/>
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" ht="15">
       <c r="C176" s="22"/>
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" ht="15">
       <c r="C177" s="22"/>
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" ht="15">
       <c r="C178" s="22"/>
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" ht="15">
       <c r="C179" s="22"/>
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" ht="15">
       <c r="C180" s="22"/>
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" ht="15">
       <c r="C181" s="22"/>
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" ht="15">
       <c r="C182" s="22"/>
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" ht="15">
       <c r="C183" s="22"/>
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" ht="15">
       <c r="C184" s="22"/>
       <c r="G184" s="22"/>
       <c r="H184" s="22"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" ht="15">
       <c r="C185" s="22"/>
       <c r="G185" s="22"/>
       <c r="H185" s="22"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" ht="15">
       <c r="C186" s="22"/>
       <c r="G186" s="22"/>
       <c r="H186" s="22"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" ht="15">
       <c r="C187" s="22"/>
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" ht="15">
       <c r="C188" s="22"/>
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" ht="15">
       <c r="C189" s="22"/>
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" ht="15">
       <c r="C190" s="22"/>
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" ht="15">
       <c r="C191" s="22"/>
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" ht="15">
       <c r="C192" s="22"/>
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" ht="15">
       <c r="C193" s="22"/>
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" ht="15">
       <c r="C194" s="22"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15"/>
+    <row r="196" ht="15"/>
+    <row r="197" ht="15"/>
+    <row r="198" ht="15"/>
+    <row r="199" ht="15"/>
+    <row r="200" ht="15"/>
+    <row r="201" ht="15"/>
+    <row r="202" ht="15"/>
+    <row r="203" ht="15"/>
+    <row r="204" ht="15"/>
+    <row r="205" ht="15"/>
+    <row r="206" ht="15"/>
+    <row r="207" ht="15"/>
+    <row r="208" ht="15"/>
+    <row r="209" ht="15"/>
+    <row r="210" ht="15"/>
+    <row r="211" ht="15"/>
+    <row r="212" ht="15"/>
+    <row r="213" ht="15"/>
+    <row r="214" ht="15"/>
+    <row r="215" ht="15"/>
+    <row r="216" ht="15"/>
+    <row r="217" ht="15"/>
+    <row r="218" ht="15"/>
+    <row r="219" ht="15"/>
+    <row r="220" ht="15"/>
+    <row r="221" ht="15"/>
+    <row r="222" ht="15"/>
+    <row r="223" ht="15"/>
+    <row r="224" ht="15"/>
+    <row r="225" ht="15"/>
+    <row r="226" ht="15"/>
+    <row r="227" ht="15"/>
+    <row r="228" ht="15"/>
+    <row r="229" ht="15"/>
+    <row r="230" ht="15"/>
+    <row r="231" ht="15"/>
+    <row r="232" ht="15"/>
+    <row r="233" ht="15"/>
+    <row r="234" ht="15"/>
+    <row r="235" ht="15"/>
+    <row r="236" ht="15"/>
+    <row r="237" ht="15"/>
+    <row r="238" ht="15"/>
+    <row r="239" ht="15"/>
+    <row r="240" ht="15"/>
+    <row r="241" ht="15"/>
+    <row r="242" ht="15"/>
+    <row r="243" ht="15"/>
+    <row r="244" ht="15"/>
+    <row r="245" ht="15"/>
+    <row r="246" ht="15"/>
+    <row r="247" ht="15"/>
+    <row r="248" ht="15"/>
+    <row r="249" ht="15"/>
+    <row r="250" ht="15"/>
+    <row r="251" ht="15"/>
+    <row r="252" ht="15"/>
+    <row r="253" ht="15"/>
+    <row r="254" ht="15"/>
+    <row r="255" ht="15"/>
+    <row r="256" ht="15"/>
+    <row r="257" ht="15"/>
+    <row r="258" ht="15"/>
+    <row r="259" ht="15"/>
+    <row r="260" ht="15"/>
+    <row r="261" ht="15"/>
+    <row r="262" ht="15"/>
+    <row r="263" ht="15"/>
+    <row r="264" ht="15"/>
+    <row r="265" ht="15"/>
+    <row r="266" ht="15"/>
+    <row r="267" ht="15"/>
+    <row r="268" ht="15"/>
+    <row r="269" ht="15"/>
+    <row r="270" ht="15"/>
+    <row r="271" ht="15"/>
+    <row r="272" ht="15"/>
+    <row r="273" ht="15"/>
+    <row r="274" ht="15"/>
+    <row r="275" ht="15"/>
+    <row r="276" ht="15"/>
+    <row r="277" ht="15"/>
+    <row r="278" ht="15"/>
+    <row r="279" ht="15"/>
+    <row r="280" ht="15"/>
+    <row r="281" ht="15"/>
+    <row r="282" ht="15"/>
+    <row r="283" ht="15"/>
+    <row r="284" ht="15"/>
+    <row r="285" ht="15"/>
+    <row r="286" ht="15"/>
+    <row r="287" ht="15"/>
+    <row r="288" ht="15"/>
+    <row r="289" ht="15"/>
+    <row r="290" ht="15"/>
+    <row r="291" ht="15"/>
+    <row r="292" ht="15"/>
+    <row r="293" ht="15"/>
+    <row r="294" ht="15"/>
+    <row r="295" ht="15"/>
+    <row r="296" ht="15"/>
+    <row r="297" ht="15"/>
+    <row r="298" ht="15"/>
+    <row r="299" ht="15"/>
+    <row r="300" ht="15"/>
+    <row r="301" ht="15"/>
+    <row r="302" ht="15"/>
+    <row r="303" ht="15"/>
+    <row r="304" ht="15"/>
+    <row r="305" ht="15"/>
+    <row r="306" ht="15"/>
+    <row r="307" ht="15"/>
+    <row r="308" ht="15"/>
+    <row r="309" ht="15"/>
+    <row r="310" ht="15"/>
+    <row r="311" ht="15"/>
+    <row r="312" ht="15"/>
+    <row r="313" ht="15"/>
+    <row r="314" ht="15"/>
+    <row r="315" ht="15"/>
+    <row r="316" ht="15"/>
+    <row r="317" ht="15"/>
+    <row r="318" ht="15"/>
+    <row r="319" ht="15"/>
+    <row r="320" ht="15"/>
+    <row r="321" ht="15"/>
+    <row r="322" ht="15"/>
+    <row r="323" ht="15"/>
+    <row r="324" ht="15"/>
+    <row r="325" ht="15"/>
+    <row r="326" ht="15"/>
+    <row r="327" ht="15"/>
+    <row r="328" ht="15"/>
+    <row r="329" ht="15"/>
+    <row r="330" ht="15"/>
+    <row r="331" ht="15"/>
+    <row r="332" ht="15"/>
+    <row r="333" ht="15"/>
+    <row r="334" ht="15"/>
+    <row r="335" ht="15"/>
+    <row r="336" ht="15"/>
+    <row r="337" ht="15"/>
+    <row r="338" ht="15"/>
+    <row r="339" ht="15"/>
+    <row r="340" ht="15"/>
+    <row r="341" ht="15"/>
+    <row r="342" ht="15"/>
+    <row r="343" ht="15"/>
+    <row r="344" ht="15"/>
+    <row r="345" ht="15"/>
+    <row r="346" ht="15"/>
+    <row r="347" ht="15"/>
+    <row r="348" ht="15"/>
+    <row r="349" ht="15"/>
+    <row r="350" ht="15"/>
+    <row r="351" ht="15"/>
+    <row r="352" ht="15"/>
+    <row r="353" ht="15"/>
+    <row r="354" ht="15"/>
+    <row r="355" ht="15"/>
+    <row r="356" ht="15"/>
+    <row r="357" ht="15"/>
+    <row r="358" ht="15"/>
+    <row r="359" ht="15"/>
+    <row r="360" ht="15"/>
+    <row r="361" ht="15"/>
+    <row r="362" ht="15"/>
+    <row r="363" ht="15"/>
+    <row r="364" ht="15"/>
+    <row r="365" ht="15"/>
+    <row r="366" ht="15"/>
+    <row r="367" ht="15"/>
+    <row r="368" ht="15"/>
+    <row r="369" ht="15"/>
+    <row r="370" ht="15"/>
+    <row r="371" ht="15"/>
+    <row r="372" ht="15"/>
+    <row r="373" ht="15"/>
+    <row r="374" ht="15"/>
+    <row r="375" ht="15"/>
+    <row r="376" ht="15"/>
+    <row r="377" ht="15"/>
+    <row r="378" ht="15"/>
+    <row r="379" ht="15"/>
+    <row r="380" ht="15"/>
+    <row r="381" ht="15"/>
+    <row r="382" ht="15"/>
+    <row r="383" ht="15"/>
+    <row r="384" ht="15"/>
+    <row r="385" ht="15"/>
+    <row r="386" ht="15"/>
+    <row r="387" ht="15"/>
+    <row r="388" ht="15"/>
+    <row r="389" ht="15"/>
+    <row r="390" ht="15"/>
+    <row r="391" ht="15"/>
+    <row r="392" ht="15"/>
+    <row r="393" ht="15"/>
+    <row r="394" ht="15"/>
+    <row r="395" ht="15"/>
+    <row r="396" ht="15"/>
+    <row r="397" ht="15"/>
+    <row r="398" ht="15"/>
+    <row r="399" ht="15"/>
+    <row r="400" ht="15"/>
+    <row r="401" ht="15"/>
+    <row r="402" ht="15"/>
+    <row r="403" ht="15"/>
+    <row r="404" ht="15"/>
+    <row r="405" ht="15"/>
+    <row r="406" ht="15"/>
+    <row r="407" ht="15"/>
+    <row r="408" ht="15"/>
+    <row r="409" ht="15"/>
+    <row r="410" ht="15"/>
+    <row r="411" ht="15"/>
+    <row r="412" ht="15"/>
+    <row r="413" ht="15"/>
+    <row r="414" ht="15"/>
+    <row r="415" ht="15"/>
+    <row r="416" ht="15"/>
+    <row r="417" ht="15"/>
+    <row r="418" ht="15"/>
+    <row r="419" ht="15"/>
+    <row r="420" ht="15"/>
+    <row r="421" ht="15"/>
+    <row r="422" ht="15"/>
+    <row r="423" ht="15"/>
+    <row r="424" ht="15"/>
+    <row r="425" ht="15"/>
+    <row r="426" ht="15"/>
+    <row r="427" ht="15"/>
+    <row r="428" ht="15"/>
+    <row r="429" ht="15"/>
+    <row r="430" ht="15"/>
+    <row r="431" ht="15"/>
+    <row r="432" ht="15"/>
+    <row r="433" ht="15"/>
+    <row r="434" ht="15"/>
+    <row r="435" ht="15"/>
+    <row r="436" ht="15"/>
+    <row r="437" ht="15"/>
+    <row r="438" ht="15"/>
+    <row r="439" ht="15"/>
+    <row r="440" ht="15"/>
+    <row r="441" ht="15"/>
+    <row r="442" ht="15"/>
+    <row r="443" ht="15"/>
+    <row r="444" ht="15"/>
+    <row r="445" ht="15"/>
+    <row r="446" ht="15"/>
+    <row r="447" ht="15"/>
+    <row r="448" ht="15"/>
+    <row r="449" ht="15"/>
+    <row r="450" ht="15"/>
+    <row r="451" ht="15"/>
+    <row r="452" ht="15"/>
+    <row r="453" ht="15"/>
+    <row r="454" ht="15"/>
+    <row r="455" ht="15"/>
+    <row r="456" ht="15"/>
+    <row r="457" ht="15"/>
+    <row r="458" ht="15"/>
+    <row r="459" ht="15"/>
+    <row r="460" ht="15"/>
+    <row r="461" ht="15"/>
+    <row r="462" ht="15"/>
+    <row r="463" ht="15"/>
+    <row r="464" ht="15"/>
+    <row r="465" ht="15"/>
+    <row r="466" ht="15"/>
+    <row r="467" ht="15"/>
+    <row r="468" ht="15"/>
+    <row r="469" ht="15"/>
+    <row r="470" ht="15"/>
+    <row r="471" ht="15"/>
+    <row r="472" ht="15"/>
+    <row r="473" ht="15"/>
+    <row r="474" ht="15"/>
+    <row r="475" ht="15"/>
+    <row r="476" ht="15"/>
+    <row r="477" ht="15"/>
+    <row r="478" ht="15"/>
+    <row r="479" ht="15"/>
+    <row r="480" ht="15"/>
+    <row r="481" ht="15"/>
+    <row r="482" ht="15"/>
+    <row r="483" ht="15"/>
+    <row r="484" ht="15"/>
+    <row r="485" ht="15"/>
+    <row r="486" ht="15"/>
+    <row r="487" ht="15"/>
+    <row r="488" ht="15"/>
+    <row r="489" ht="15"/>
+    <row r="490" ht="15"/>
+    <row r="491" ht="15"/>
+    <row r="492" ht="15"/>
+    <row r="493" ht="15"/>
+    <row r="494" ht="15"/>
+    <row r="495" ht="15"/>
+    <row r="496" ht="15"/>
+    <row r="497" ht="15"/>
+    <row r="498" ht="15"/>
+    <row r="499" ht="15"/>
+    <row r="500" ht="15"/>
+    <row r="501" ht="15"/>
+    <row r="502" ht="15"/>
+    <row r="503" ht="15"/>
+    <row r="504" ht="15"/>
+    <row r="505" ht="15"/>
+    <row r="506" ht="15"/>
+    <row r="507" ht="15"/>
+    <row r="508" ht="15"/>
+    <row r="509" ht="15"/>
+    <row r="510" ht="15"/>
+    <row r="511" ht="15"/>
+    <row r="512" ht="15"/>
+    <row r="513" ht="15"/>
+    <row r="514" ht="15"/>
+    <row r="515" ht="15"/>
+    <row r="516" ht="15"/>
+    <row r="517" ht="15"/>
+    <row r="518" ht="15"/>
+    <row r="519" ht="15"/>
+    <row r="520" ht="15"/>
+    <row r="521" ht="15"/>
+    <row r="522" ht="15"/>
+    <row r="523" ht="15"/>
+    <row r="524" ht="15"/>
+    <row r="525" ht="15"/>
+    <row r="526" ht="15"/>
+    <row r="527" ht="15"/>
+    <row r="528" ht="15"/>
+    <row r="529" ht="15"/>
+    <row r="530" ht="15"/>
+    <row r="531" ht="15"/>
+    <row r="532" ht="15"/>
+    <row r="533" ht="15"/>
+    <row r="534" ht="15"/>
+    <row r="535" ht="15"/>
+    <row r="536" ht="15"/>
+    <row r="537" ht="15"/>
+    <row r="538" ht="15"/>
+    <row r="539" ht="15"/>
+    <row r="540" ht="15"/>
+    <row r="541" ht="15"/>
+    <row r="542" ht="15"/>
+    <row r="543" ht="15"/>
+    <row r="544" ht="15"/>
+    <row r="545" ht="15"/>
+    <row r="546" ht="15"/>
+    <row r="547" ht="15"/>
+    <row r="548" ht="15"/>
+    <row r="549" ht="15"/>
+    <row r="550" ht="15"/>
+    <row r="551" ht="15"/>
+    <row r="552" ht="15"/>
+    <row r="553" ht="15"/>
+    <row r="554" ht="15"/>
+    <row r="555" ht="15"/>
+    <row r="556" ht="15"/>
+    <row r="557" ht="15"/>
+    <row r="558" ht="15"/>
+    <row r="559" ht="15"/>
+    <row r="560" ht="15"/>
+    <row r="561" ht="15"/>
+    <row r="562" ht="15"/>
+    <row r="563" ht="15"/>
+    <row r="564" ht="15"/>
+    <row r="565" ht="15"/>
+    <row r="566" ht="15"/>
+    <row r="567" ht="15"/>
+    <row r="568" ht="15"/>
+    <row r="569" ht="15"/>
+    <row r="570" ht="15"/>
+    <row r="571" ht="15"/>
+    <row r="572" ht="15"/>
+    <row r="573" ht="15"/>
+    <row r="574" ht="15"/>
+    <row r="575" ht="15"/>
+    <row r="576" ht="15"/>
+    <row r="577" ht="15"/>
+    <row r="578" ht="15"/>
+    <row r="579" ht="15"/>
+    <row r="580" ht="15"/>
+    <row r="581" ht="15"/>
+    <row r="582" ht="15"/>
+    <row r="583" ht="15"/>
+    <row r="584" ht="15"/>
+    <row r="585" ht="15"/>
+    <row r="586" ht="15"/>
+    <row r="587" ht="15"/>
+    <row r="588" ht="15"/>
+    <row r="589" ht="15"/>
+    <row r="590" ht="15"/>
+    <row r="591" ht="15"/>
+    <row r="592" ht="15"/>
+    <row r="593" ht="15"/>
+    <row r="594" ht="15"/>
+    <row r="595" ht="15"/>
+    <row r="596" ht="15"/>
+    <row r="597" ht="15"/>
+    <row r="598" ht="15"/>
+    <row r="599" ht="15"/>
+    <row r="600" ht="15"/>
+    <row r="601" ht="15"/>
+    <row r="602" ht="15"/>
+    <row r="603" ht="15"/>
+    <row r="604" ht="15"/>
+    <row r="605" ht="15"/>
+    <row r="606" ht="15"/>
+    <row r="607" ht="15"/>
+    <row r="608" ht="15"/>
+    <row r="609" ht="15"/>
+    <row r="610" ht="15"/>
+    <row r="611" ht="15"/>
+    <row r="612" ht="15"/>
+    <row r="613" ht="15"/>
+    <row r="614" ht="15"/>
+    <row r="615" ht="15"/>
+    <row r="616" ht="15"/>
+    <row r="617" ht="15"/>
+    <row r="618" ht="15"/>
+    <row r="619" ht="15"/>
+    <row r="620" ht="15"/>
+    <row r="621" ht="15"/>
+    <row r="622" ht="15"/>
+    <row r="623" ht="15"/>
+    <row r="624" ht="15"/>
+    <row r="625" ht="15"/>
+    <row r="626" ht="15"/>
+    <row r="627" ht="15"/>
+    <row r="628" ht="15"/>
+    <row r="629" ht="15"/>
+    <row r="630" ht="15"/>
+    <row r="631" ht="15"/>
+    <row r="632" ht="15"/>
+    <row r="633" ht="15"/>
+    <row r="634" ht="15"/>
+    <row r="635" ht="15"/>
+    <row r="636" ht="15"/>
+    <row r="637" ht="15"/>
+    <row r="638" ht="15"/>
+    <row r="639" ht="15"/>
+    <row r="640" ht="15"/>
+    <row r="641" ht="15"/>
+    <row r="642" ht="15"/>
+    <row r="643" ht="15"/>
+    <row r="644" ht="15"/>
+    <row r="645" ht="15"/>
+    <row r="646" ht="15"/>
+    <row r="647" ht="15"/>
+    <row r="648" ht="15"/>
+    <row r="649" ht="15"/>
+    <row r="650" ht="15"/>
+    <row r="651" ht="15"/>
+    <row r="652" ht="15"/>
+    <row r="653" ht="15"/>
+    <row r="654" ht="15"/>
+    <row r="655" ht="15"/>
+    <row r="656" ht="15"/>
+    <row r="657" ht="15"/>
+    <row r="658" ht="15"/>
+    <row r="659" ht="15"/>
+    <row r="660" ht="15"/>
+    <row r="661" ht="15"/>
+    <row r="662" ht="15"/>
+    <row r="663" ht="15"/>
+    <row r="664" ht="15"/>
+    <row r="665" ht="15"/>
+    <row r="666" ht="15"/>
+    <row r="667" ht="15"/>
+    <row r="668" ht="15"/>
+    <row r="669" ht="15"/>
+    <row r="670" ht="15"/>
+    <row r="671" ht="15"/>
+    <row r="672" ht="15"/>
+    <row r="673" ht="15"/>
+    <row r="674" ht="15"/>
+    <row r="675" ht="15"/>
+    <row r="676" ht="15"/>
+    <row r="677" ht="15"/>
+    <row r="678" ht="15"/>
+    <row r="679" ht="15"/>
+    <row r="680" ht="15"/>
+    <row r="681" ht="15"/>
+    <row r="682" ht="15"/>
+    <row r="683" ht="15"/>
+    <row r="684" ht="15"/>
+    <row r="685" ht="15"/>
+    <row r="686" ht="15"/>
+    <row r="687" ht="15"/>
+    <row r="688" ht="15"/>
+    <row r="689" ht="15"/>
+    <row r="690" ht="15"/>
+    <row r="691" ht="15"/>
+    <row r="692" ht="15"/>
+    <row r="693" ht="15"/>
+    <row r="694" ht="15"/>
+    <row r="695" ht="15"/>
+    <row r="696" ht="15"/>
+    <row r="697" ht="15"/>
+    <row r="698" ht="15"/>
+    <row r="699" ht="15"/>
+    <row r="700" ht="15"/>
+    <row r="701" ht="15"/>
+    <row r="702" ht="15"/>
+    <row r="703" ht="15"/>
+    <row r="704" ht="15"/>
+    <row r="705" ht="15"/>
+    <row r="706" ht="15"/>
+    <row r="707" ht="15"/>
+    <row r="708" ht="15"/>
+    <row r="709" ht="15"/>
+    <row r="710" ht="15"/>
+    <row r="711" ht="15"/>
+    <row r="712" ht="15"/>
+    <row r="713" ht="15"/>
+    <row r="714" ht="15"/>
+    <row r="715" ht="15"/>
+    <row r="716" ht="15"/>
+    <row r="717" ht="15"/>
+    <row r="718" ht="15"/>
+    <row r="719" ht="15"/>
+    <row r="720" ht="15"/>
+    <row r="721" ht="15"/>
+    <row r="722" ht="15"/>
+    <row r="723" ht="15"/>
+    <row r="724" ht="15"/>
+    <row r="725" ht="15"/>
+    <row r="726" ht="15"/>
+    <row r="727" ht="15"/>
+    <row r="728" ht="15"/>
+    <row r="729" ht="15"/>
+    <row r="730" ht="15"/>
+    <row r="731" ht="15"/>
+    <row r="732" ht="15"/>
+    <row r="733" ht="15"/>
+    <row r="734" ht="15"/>
+    <row r="735" ht="15"/>
+    <row r="736" ht="15"/>
+    <row r="737" ht="15"/>
+    <row r="738" ht="15"/>
+    <row r="739" ht="15"/>
+    <row r="740" ht="15"/>
+    <row r="741" ht="15"/>
+    <row r="742" ht="15"/>
+    <row r="743" ht="15"/>
+    <row r="744" ht="15"/>
+    <row r="745" ht="15"/>
+    <row r="746" ht="15"/>
+    <row r="747" ht="15"/>
+    <row r="748" ht="15"/>
+    <row r="749" ht="15"/>
+    <row r="750" ht="15"/>
+    <row r="751" ht="15"/>
+    <row r="752" ht="15"/>
+    <row r="753" ht="15"/>
+    <row r="754" ht="15"/>
+    <row r="755" ht="15"/>
+    <row r="756" ht="15"/>
+    <row r="757" ht="15"/>
+    <row r="758" ht="15"/>
+    <row r="759" ht="15"/>
+    <row r="760" ht="15"/>
+    <row r="761" ht="15"/>
+    <row r="762" ht="15"/>
+    <row r="763" ht="15"/>
+    <row r="764" ht="15"/>
+    <row r="765" ht="15"/>
+    <row r="766" ht="15"/>
+    <row r="767" ht="15"/>
+    <row r="768" ht="15"/>
+    <row r="769" ht="15"/>
+    <row r="770" ht="15"/>
+    <row r="771" ht="15"/>
+    <row r="772" ht="15"/>
+    <row r="773" ht="15"/>
+    <row r="774" ht="15"/>
+    <row r="775" ht="15"/>
+    <row r="776" ht="15"/>
+    <row r="777" ht="15"/>
+    <row r="778" ht="15"/>
+    <row r="779" ht="15"/>
+    <row r="780" ht="15"/>
+    <row r="781" ht="15"/>
+    <row r="782" ht="15"/>
+    <row r="783" ht="15"/>
+    <row r="784" ht="15"/>
+    <row r="785" ht="15"/>
+    <row r="786" ht="15"/>
+    <row r="787" ht="15"/>
+    <row r="788" ht="15"/>
+    <row r="789" ht="15"/>
+    <row r="790" ht="15"/>
+    <row r="791" ht="15"/>
+    <row r="792" ht="15"/>
+    <row r="793" ht="15"/>
+    <row r="794" ht="15"/>
+    <row r="795" ht="15"/>
+    <row r="796" ht="15"/>
+    <row r="797" ht="15"/>
+    <row r="798" ht="15"/>
+    <row r="799" ht="15"/>
+    <row r="800" ht="15"/>
+    <row r="801" ht="15"/>
+    <row r="802" ht="15"/>
+    <row r="803" ht="15"/>
+    <row r="804" ht="15"/>
+    <row r="805" ht="15"/>
+    <row r="806" ht="15"/>
+    <row r="807" ht="15"/>
+    <row r="808" ht="15"/>
+    <row r="809" ht="15"/>
+    <row r="810" ht="15"/>
+    <row r="811" ht="15"/>
+    <row r="812" ht="15"/>
+    <row r="813" ht="15"/>
+    <row r="814" ht="15"/>
+    <row r="815" ht="15"/>
+    <row r="816" ht="15"/>
+    <row r="817" ht="15"/>
+    <row r="818" ht="15"/>
+    <row r="819" ht="15"/>
+    <row r="820" ht="15"/>
+    <row r="821" ht="15"/>
+    <row r="822" ht="15"/>
+    <row r="823" ht="15"/>
+    <row r="824" ht="15"/>
+    <row r="825" ht="15"/>
+    <row r="826" ht="15"/>
+    <row r="827" ht="15"/>
+    <row r="828" ht="15"/>
+    <row r="829" ht="15"/>
+    <row r="830" ht="15"/>
+    <row r="831" ht="15"/>
+    <row r="832" ht="15"/>
+    <row r="833" ht="15"/>
+    <row r="834" ht="15"/>
+    <row r="835" ht="15"/>
+    <row r="836" ht="15"/>
+    <row r="837" ht="15"/>
+    <row r="838" ht="15"/>
+    <row r="839" ht="15"/>
+    <row r="840" ht="15"/>
+    <row r="841" ht="15"/>
+    <row r="842" ht="15"/>
+    <row r="843" ht="15"/>
+    <row r="844" ht="15"/>
+    <row r="845" ht="15"/>
+    <row r="846" ht="15"/>
+    <row r="847" ht="15"/>
+    <row r="848" ht="15"/>
+    <row r="849" ht="15"/>
+    <row r="850" ht="15"/>
+    <row r="851" ht="15"/>
+    <row r="852" ht="15"/>
+    <row r="853" ht="15"/>
+    <row r="854" ht="15"/>
+    <row r="855" ht="15"/>
+    <row r="856" ht="15"/>
+    <row r="857" ht="15"/>
+    <row r="858" ht="15"/>
+    <row r="859" ht="15"/>
+    <row r="860" ht="15"/>
+    <row r="861" ht="15"/>
+    <row r="862" ht="15"/>
+    <row r="863" ht="15"/>
+    <row r="864" ht="15"/>
+    <row r="865" ht="15"/>
+    <row r="866" ht="15"/>
+    <row r="867" ht="15"/>
+    <row r="868" ht="15"/>
+    <row r="869" ht="15"/>
+    <row r="870" ht="15"/>
+    <row r="871" ht="15"/>
+    <row r="872" ht="15"/>
+    <row r="873" ht="15"/>
+    <row r="874" ht="15"/>
+    <row r="875" ht="15"/>
+    <row r="876" ht="15"/>
+    <row r="877" ht="15"/>
+    <row r="878" ht="15"/>
+    <row r="879" ht="15"/>
+    <row r="880" ht="15"/>
+    <row r="881" ht="15"/>
+    <row r="882" ht="15"/>
+    <row r="883" ht="15"/>
+    <row r="884" ht="15"/>
+    <row r="885" ht="15"/>
+    <row r="886" ht="15"/>
+    <row r="887" ht="15"/>
+    <row r="888" ht="15"/>
+    <row r="889" ht="15"/>
+    <row r="890" ht="15"/>
+    <row r="891" ht="15"/>
+    <row r="892" ht="15"/>
+    <row r="893" ht="15"/>
+    <row r="894" ht="15"/>
+    <row r="895" ht="15"/>
+    <row r="896" ht="15"/>
+    <row r="897" ht="15"/>
+    <row r="898" ht="15"/>
+    <row r="899" ht="15"/>
+    <row r="900" ht="15"/>
+    <row r="901" ht="15"/>
+    <row r="902" ht="15"/>
+    <row r="903" ht="15"/>
+    <row r="904" ht="15"/>
+    <row r="905" ht="15"/>
+    <row r="906" ht="15"/>
+    <row r="907" ht="15"/>
+    <row r="908" ht="15"/>
+    <row r="909" ht="15"/>
+    <row r="910" ht="15"/>
+    <row r="911" ht="15"/>
+    <row r="912" ht="15"/>
+    <row r="913" ht="15"/>
+    <row r="914" ht="15"/>
+    <row r="915" ht="15"/>
+    <row r="916" ht="15"/>
+    <row r="917" ht="15"/>
+    <row r="918" ht="15"/>
+    <row r="919" ht="15"/>
+    <row r="920" ht="15"/>
+    <row r="921" ht="15"/>
+    <row r="922" ht="15"/>
+    <row r="923" ht="15"/>
+    <row r="924" ht="15"/>
+    <row r="925" ht="15"/>
+    <row r="926" ht="15"/>
+    <row r="927" ht="15"/>
+    <row r="928" ht="15"/>
+    <row r="929" ht="15"/>
+    <row r="930" ht="15"/>
+    <row r="931" ht="15"/>
+    <row r="932" ht="15"/>
+    <row r="933" ht="15"/>
+    <row r="934" ht="15"/>
+    <row r="935" ht="15"/>
+    <row r="936" ht="15"/>
+    <row r="937" ht="15"/>
+    <row r="938" ht="15"/>
+    <row r="939" ht="15"/>
+    <row r="940" ht="15"/>
+    <row r="941" ht="15"/>
+    <row r="942" ht="15"/>
+    <row r="943" ht="15"/>
+    <row r="944" ht="15"/>
+    <row r="945" ht="15"/>
+    <row r="946" ht="15"/>
+    <row r="947" ht="15"/>
+    <row r="948" ht="15"/>
+    <row r="949" ht="15"/>
+    <row r="950" ht="15"/>
+    <row r="951" ht="15"/>
+    <row r="952" ht="15"/>
+    <row r="953" ht="15"/>
+    <row r="954" ht="15"/>
+    <row r="955" ht="15"/>
+    <row r="956" ht="15"/>
+    <row r="957" ht="15"/>
+    <row r="958" ht="15"/>
+    <row r="959" ht="15"/>
+    <row r="960" ht="15"/>
   </sheetData>
   <dataValidations count="16" disablePrompts="0">
     <dataValidation sqref="O35:O58" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -9732,7 +9724,7 @@
       <c r="I4" s="60"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="31" t="s">
         <v>198</v>
       </c>
       <c r="B5" s="56" t="s">
@@ -9751,13 +9743,13 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" ht="276" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>279</v>
       </c>
       <c r="D6" s="28"/>
@@ -9768,10 +9760,10 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" ht="315" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>277</v>
       </c>
       <c r="C7" s="45" t="s">
@@ -9785,10 +9777,10 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" ht="333.75" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>277</v>
       </c>
       <c r="C8" s="45" t="s">
@@ -10990,7 +10982,7 @@
       <c r="C1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="66"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -13339,13 +13331,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>292</v>
       </c>
     </row>

--- a/docs/how-to-configure/sparnatural-car-configuration.xlsx
+++ b/docs/how-to-configure/sparnatural-car-configuration.xlsx
@@ -784,6 +784,9 @@
     <t xml:space="preserve">Spécifie le symptôme associé à un code erreur.</t>
   </si>
   <si>
+    <t>datasources:list_rdfslabel_count</t>
+  </si>
+  <si>
     <t>odb:hasComponent</t>
   </si>
   <si>
@@ -1092,9 +1095,6 @@
   </si>
   <si>
     <t>core:LiteralListProperty</t>
-  </si>
-  <si>
-    <t>datasources:list_rdfslabel_count</t>
   </si>
   <si>
     <t>datasources:query_list_URI_count</t>
@@ -1485,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1566,7 +1566,9 @@
     <xf fontId="12" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="7" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1600,6 +1602,7 @@
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="13" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3291,7 +3294,7 @@
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.00390625"/>
     <col customWidth="1" min="2" max="2" width="22.129999999999999"/>
@@ -6314,26 +6317,27 @@
   </sheetPr>
   <sheetViews>
     <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.379999999999999"/>
-    <col customWidth="1" min="2" max="2" width="18.25"/>
-    <col customWidth="1" min="3" max="3" width="27.28125"/>
+    <col customWidth="1" min="1" max="1" width="33.421875"/>
+    <col customWidth="1" min="2" max="2" width="30.140625"/>
+    <col customWidth="1" min="3" max="3" width="20.7109375"/>
     <col customWidth="1" hidden="1" min="4" max="4" width="13.28125"/>
-    <col customWidth="1" min="5" max="5" width="14.25"/>
+    <col customWidth="1" min="5" max="5" width="20.140625"/>
     <col customWidth="1" hidden="1" min="6" max="6" width="14.25"/>
-    <col customWidth="1" min="7" max="7" width="45.130000000000003"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="45.130000000000003"/>
     <col customWidth="1" hidden="1" min="8" max="8" width="40.880000000000003"/>
-    <col customWidth="1" hidden="1" min="9" max="12" width="14.25"/>
-    <col customWidth="1" min="13" max="13" width="22.421875"/>
+    <col customWidth="1" hidden="1" min="9" max="10" width="14.25"/>
+    <col customWidth="1" min="11" max="12" width="14.25"/>
+    <col customWidth="1" min="13" max="13" width="16.57421875"/>
     <col customWidth="1" hidden="1" min="14" max="14" width="14.25"/>
-    <col customWidth="1" min="15" max="15" width="35.5"/>
+    <col customWidth="1" min="15" max="15" width="27.7109375"/>
     <col customWidth="1" min="16" max="16" width="14.25"/>
-    <col customWidth="1" min="17" max="17" width="28.00390625"/>
+    <col customWidth="1" min="17" max="17" width="30.57421875"/>
     <col customWidth="1" min="18" max="18" width="20.8515625"/>
     <col customWidth="1" min="19" max="19" width="20.7109375"/>
     <col customWidth="1" min="20" max="20" width="20.57421875"/>
@@ -6344,7 +6348,7 @@
     <col customWidth="1" min="25" max="28" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" ht="25.5">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
@@ -6428,7 +6432,7 @@
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
-    <row r="6" ht="165.75">
+    <row r="6" ht="191.25">
       <c r="A6" s="29" t="s">
         <v>109</v>
       </c>
@@ -6678,7 +6682,7 @@
       <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
     </row>
-    <row r="10" ht="15">
+    <row r="10" ht="14.25">
       <c r="A10" s="38" t="str">
         <f>CONCATENATE("this:",RIGHT(C10,LEN(C10)-SEARCH(":",C10)),"_",RIGHT(B10,LEN(B10)-SEARCH(":",B10)))</f>
         <v>this:Vehicle_hasManufacturer</v>
@@ -6738,7 +6742,7 @@
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
     </row>
-    <row r="11" ht="38.25">
+    <row r="11" ht="25.5">
       <c r="A11" s="38" t="s">
         <v>169</v>
       </c>
@@ -6793,7 +6797,7 @@
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
     </row>
-    <row r="12" ht="15">
+    <row r="12" ht="14.25">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE("this:",RIGHT(C12,LEN(C12)-SEARCH(":",C12)),"_",RIGHT(B12,LEN(B12)-SEARCH(":",B12)))</f>
         <v>this:Vehicle_weightInKg</v>
@@ -6882,7 +6886,7 @@
       <c r="AB13" s="48"/>
       <c r="AC13" s="48"/>
     </row>
-    <row r="14" ht="15">
+    <row r="14" ht="14.25">
       <c r="A14" s="38" t="str">
         <f>CONCATENATE("this:",RIGHT(C14,LEN(C14)-SEARCH(":",C14)),"_",RIGHT(B14,LEN(B14)-SEARCH(":",B14)))</f>
         <v>this:Manufacturer_name</v>
@@ -6975,7 +6979,7 @@
       <c r="AB15" s="48"/>
       <c r="AC15" s="48"/>
     </row>
-    <row r="16" ht="15">
+    <row r="16" ht="14.25">
       <c r="A16" s="38" t="str">
         <f t="shared" ref="A16:A33" si="0">CONCATENATE("this:",RIGHT(C16,LEN(C16)-SEARCH(":",C16)),"_",RIGHT(B16,LEN(B16)-SEARCH(":",B16)))</f>
         <v>this:Diagnostic_diagnosticDate</v>
@@ -7094,7 +7098,7 @@
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
     </row>
-    <row r="18" ht="15">
+    <row r="18" ht="14.25">
       <c r="A18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_hasResults</v>
@@ -7147,7 +7151,7 @@
       <c r="AB18" s="35"/>
       <c r="AC18" s="35"/>
     </row>
-    <row r="19" ht="15">
+    <row r="19" ht="14.25">
       <c r="A19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_diagnosticPlace</v>
@@ -7444,7 +7448,7 @@
       <c r="AB24" s="48"/>
       <c r="AC24" s="48"/>
     </row>
-    <row r="25" ht="15">
+    <row r="25" ht="14.25">
       <c r="A25" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_errorCode</v>
@@ -7538,7 +7542,9 @@
         <v>168</v>
       </c>
       <c r="P26" s="35"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="53" t="s">
+        <v>236</v>
+      </c>
       <c r="R26" s="3"/>
       <c r="S26" s="35"/>
       <c r="T26" s="3" t="b">
@@ -7560,7 +7566,7 @@
         <v>this:ErrorCode_hasComponent</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>81</v>
@@ -7569,16 +7575,16 @@
         <v>2</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -7595,7 +7601,7 @@
       </c>
       <c r="P27" s="35"/>
       <c r="Q27" s="53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R27" s="53"/>
       <c r="S27" s="35"/>
@@ -7614,10 +7620,10 @@
     </row>
     <row r="28" ht="25.5">
       <c r="A28" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>81</v>
@@ -7626,16 +7632,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -7648,7 +7654,7 @@
       </c>
       <c r="N28" s="32"/>
       <c r="O28" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
@@ -7659,10 +7665,10 @@
       </c>
       <c r="U28" s="35"/>
       <c r="V28" s="54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="W28" s="54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -7704,13 +7710,13 @@
       <c r="AB29" s="48"/>
       <c r="AC29" s="48"/>
     </row>
-    <row r="30" ht="15">
+    <row r="30" ht="14.25">
       <c r="A30" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Symptom_label</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>88</v>
@@ -7719,16 +7725,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I30" s="35">
         <v>1</v>
@@ -7740,12 +7746,12 @@
         <v>158</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P30" s="35" t="s">
         <v>161</v>
@@ -7797,13 +7803,13 @@
       <c r="AB31" s="48"/>
       <c r="AC31" s="48"/>
     </row>
-    <row r="32" ht="15">
+    <row r="32" ht="14.25">
       <c r="A32" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Component_componentCode</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>95</v>
@@ -7812,16 +7818,16 @@
         <v>1</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I32" s="35">
         <v>1</v>
@@ -7838,7 +7844,7 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
@@ -7857,13 +7863,13 @@
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" ht="15">
+    <row r="33" ht="14.25">
       <c r="A33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>this:Component_label</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>95</v>
@@ -7872,16 +7878,16 @@
         <v>2</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I33" s="35">
         <v>1</v>
@@ -7891,12 +7897,12 @@
         <v>158</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P33" s="35" t="s">
         <v>161</v>
@@ -7919,12 +7925,12 @@
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" ht="38.25">
+    <row r="34" ht="25.5">
       <c r="A34" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C34" s="52" t="s">
         <v>95</v>
@@ -7933,16 +7939,16 @@
         <v>3</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
@@ -7955,7 +7961,7 @@
         <v>102</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
@@ -9650,15 +9656,15 @@
       <c r="A1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="56" t="str">
         <f>Entities!B1</f>
         <v>https://data.mydomain.com/ontologies/sparnatural-config</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>108</v>
       </c>
       <c r="D1" s="28"/>
-      <c r="E1" s="56"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -9676,63 +9682,63 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" ht="91.5" customHeight="1">
-      <c r="A3" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="58" t="s">
         <v>272</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>273</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>277</v>
+      <c r="B5" s="57" t="s">
+        <v>278</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>153</v>
@@ -9743,14 +9749,14 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" ht="276" customHeight="1">
-      <c r="A6" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>279</v>
+      <c r="A6" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>280</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="35"/>
@@ -9760,14 +9766,14 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" ht="315" customHeight="1">
-      <c r="A7" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>277</v>
+      <c r="A7" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>278</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -9777,14 +9783,14 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" ht="333.75" customHeight="1">
-      <c r="A8" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>277</v>
+      <c r="A8" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>278</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -9795,7 +9801,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -9806,7 +9812,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -9817,7 +9823,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -9828,7 +9834,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -9839,7 +9845,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -9850,7 +9856,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -9861,7 +9867,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -9872,7 +9878,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -9883,7 +9889,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -9894,7 +9900,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -9905,7 +9911,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -9916,7 +9922,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -9927,7 +9933,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="28"/>
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -9938,7 +9944,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="28"/>
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -9949,7 +9955,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="28"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -9960,7 +9966,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="28"/>
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -10975,14 +10981,14 @@
       <c r="A1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="56" t="str">
         <f>Entities!B1</f>
         <v>https://data.mydomain.com/ontologies/sparnatural-config</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="65"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -11000,144 +11006,144 @@
       <c r="E3" s="28"/>
     </row>
     <row r="4" ht="58.5" customHeight="1">
-      <c r="A4" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>284</v>
       </c>
+      <c r="C4" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>285</v>
+      </c>
       <c r="E4" s="28"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="60"/>
+      <c r="C5" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" ht="160.5" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="56" t="s">
         <v>287</v>
       </c>
+      <c r="B6" s="57" t="s">
+        <v>288</v>
+      </c>
       <c r="C6" s="45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E6" s="28"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="28"/>
       <c r="D7" s="45"/>
       <c r="E7" s="28"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="28"/>
       <c r="D8" s="45"/>
       <c r="E8" s="28"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="28"/>
       <c r="D9" s="45"/>
       <c r="E9" s="28"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="28"/>
       <c r="D10" s="45"/>
       <c r="E10" s="28"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="28"/>
       <c r="D11" s="45"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="28"/>
       <c r="D12" s="45"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="28"/>
       <c r="D13" s="45"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="28"/>
       <c r="D14" s="45"/>
       <c r="E14" s="28"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="28"/>
       <c r="D15" s="45"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28"/>
       <c r="D16" s="45"/>
       <c r="E16" s="28"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="28"/>
       <c r="D17" s="45"/>
       <c r="E17" s="28"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="28"/>
       <c r="D18" s="45"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="28"/>
       <c r="D19" s="45"/>
       <c r="E19" s="28"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="28"/>
       <c r="D20" s="45"/>
       <c r="E20" s="28"/>
@@ -13331,14 +13337,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>292</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="2">
@@ -13346,10 +13352,10 @@
         <v>160</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
@@ -13357,10 +13363,10 @@
         <v>168</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
@@ -13368,43 +13374,43 @@
         <v>192</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8">
@@ -13412,18 +13418,18 @@
         <v>175</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>311</v>
@@ -13453,7 +13459,7 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>317</v>
@@ -13515,7 +13521,7 @@
         <v>329</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19">

--- a/docs/how-to-configure/sparnatural-car-configuration.xlsx
+++ b/docs/how-to-configure/sparnatural-car-configuration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,11 +14,14 @@
     <sheet name="sparnatural-config-core" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <r>
       <rPr>
@@ -91,16 +94,13 @@
     <t xml:space="preserve">Shapes IRI</t>
   </si>
   <si>
-    <t>https://data.mydomain.com/ontologies/sparnatural-config</t>
+    <t>http://data.mydomain.com/sparnatural-page/sparnatural-config</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;--- Set cell B1 to the URI of your configuration SHACL configuration</t>
   </si>
   <si>
     <t>dct:source</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1lduSARo-zyL8qxObwPVD4Z2m8iKQpye-</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;--- If you are working on a Google spreadsheet, set cell B2 to the URL of your spreadsheet, this looks like https://docs.google.com/spreadsheets/d/xxxxxxxxxx.
@@ -211,6 +211,9 @@
     <t>sh:targetClass</t>
   </si>
   <si>
+    <t>sh:nodeKind</t>
+  </si>
+  <si>
     <t>rdfs:label@en</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t>odb:Vehicle</t>
   </si>
   <si>
+    <t>sh:IRI</t>
+  </si>
+  <si>
     <t>Vehicle</t>
   </si>
   <si>
@@ -377,6 +383,21 @@
   </si>
   <si>
     <t xml:space="preserve">Une classe représentant un composant d'un véhicule.</t>
+  </si>
+  <si>
+    <t>this:TrueFalse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa-solid fa-yin-yang</t>
+  </si>
+  <si>
+    <t>sh:Literal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True / False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrai / Faux</t>
   </si>
   <si>
     <t>this:Search</t>
@@ -496,9 +517,6 @@
     <t>sh:maxCount^^xsd:integer</t>
   </si>
   <si>
-    <t>sh:nodeKind</t>
-  </si>
-  <si>
     <t>sh:datatype</t>
   </si>
   <si>
@@ -550,9 +568,6 @@
     <t xml:space="preserve">Spécifie le numéro d'identification du véhicule (VIN).</t>
   </si>
   <si>
-    <t>sh:Literal</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
@@ -575,9 +590,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spécifie le constructeur d'un véhicule.</t>
-  </si>
-  <si>
-    <t>sh:IRI</t>
   </si>
   <si>
     <t>core:ListProperty</t>
@@ -1485,7 +1497,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1557,6 +1569,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3289,8 +3305,8 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3300,14 +3316,14 @@
     <col customWidth="1" min="2" max="2" width="22.129999999999999"/>
     <col customWidth="1" min="3" max="3" width="27.57421875"/>
     <col customWidth="1" min="4" max="4" width="23.28125"/>
-    <col customWidth="1" min="5" max="5" width="20.140625"/>
-    <col customWidth="1" min="6" max="6" width="18.28125"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="26.00390625"/>
-    <col customWidth="1" min="8" max="8" width="36.8515625"/>
-    <col customWidth="1" min="9" max="9" width="39.140625"/>
-    <col customWidth="1" min="10" max="10" style="17" width="43.00390625"/>
-    <col customWidth="1" min="11" max="11" width="35.5"/>
-    <col customWidth="1" min="12" max="31" width="11.5"/>
+    <col customWidth="1" min="5" max="6" width="20.140625"/>
+    <col customWidth="1" min="7" max="7" width="18.28125"/>
+    <col customWidth="1" min="8" max="8" width="26.00390625"/>
+    <col customWidth="1" min="9" max="9" width="36.8515625"/>
+    <col customWidth="1" min="10" max="10" width="39.140625"/>
+    <col customWidth="1" min="11" max="11" style="17" width="43.00390625"/>
+    <col customWidth="1" min="12" max="12" width="35.5"/>
+    <col customWidth="1" min="13" max="32" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -3322,60 +3338,59 @@
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
-    </row>
-    <row r="2" ht="15">
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" ht="38.25">
       <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="23"/>
+      <c r="D2" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-    </row>
-    <row r="3" ht="15">
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" ht="63.75">
       <c r="A3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="D3" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="24" t="str">
-        <f>CONCATENATE("https://xls2rdf.sparna.fr/rest/convert?url=",ENCODEURL(CONCATENATE(B2,"/export?format=xlsx")),"&amp;noPostProcessings=true")</f>
-        <v>https://xls2rdf.sparna.fr/rest/convert?url=https%3A%2F%2Fdocs.google.com%2Fspreadsheets%2Fd%2F1lduSARo-zyL8qxObwPVD4Z2m8iKQpye-%2Fexport%3Fformat%3Dxlsx&amp;noPostProcessings=true</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-    </row>
-    <row r="4" ht="15">
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" ht="25.5">
       <c r="A4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="D4" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
-    </row>
-    <row r="5" ht="15">
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" ht="25.5">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -3384,72 +3399,75 @@
       </c>
       <c r="C5" s="27" t="str">
         <f>CONCAT($B$1, "/")</f>
-        <v>https://data.mydomain.com/ontologies/sparnatural-config/</v>
+        <v>http://data.mydomain.com/sparnatural-page/sparnatural-config/</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" ht="15">
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" ht="15">
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" ht="127.5">
       <c r="A8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="C8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="D8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="H8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="I8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="K8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="L8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
@@ -3469,42 +3487,45 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
     </row>
     <row r="9" ht="25.5">
       <c r="A9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="H9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="I9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="J9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="K9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="L9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -3524,6 +3545,7 @@
       <c r="AC9" s="30"/>
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
     </row>
     <row r="10" ht="25.5">
       <c r="A10" s="31" t="s">
@@ -3541,39 +3563,42 @@
       <c r="E10" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="34"/>
+      <c r="J10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" ht="51">
       <c r="A11" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="31">
         <v>2</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="33" t="s">
         <v>63</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>64</v>
@@ -3584,27 +3609,30 @@
       <c r="I11" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" ht="89.25">
       <c r="A12" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="31">
         <v>3</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="33" t="s">
         <v>70</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>71</v>
@@ -3615,27 +3643,30 @@
       <c r="I12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" ht="51">
       <c r="A13" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="31">
         <v>4</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="33" t="s">
         <v>77</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>56</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>78</v>
@@ -3646,100 +3677,106 @@
       <c r="I13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="31" t="b">
+      <c r="J13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
     </row>
     <row r="14" ht="51">
       <c r="A14" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="31">
         <v>5</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="33" t="s">
         <v>84</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
+      <c r="J14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
     </row>
     <row r="15" ht="51">
       <c r="A15" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="31">
         <v>6</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="33" t="s">
         <v>91</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>56</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>92</v>
@@ -3750,11 +3787,13 @@
       <c r="I15" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="7" t="b">
+      <c r="J15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="28"/>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
@@ -3774,77 +3813,101 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
     </row>
     <row r="16" ht="25.5">
-      <c r="A16" s="38" t="s">
-        <v>95</v>
+      <c r="A16" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="B16" s="7">
         <v>7</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="33" t="s">
         <v>98</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" ht="25.5">
-      <c r="A17" s="38" t="s">
-        <v>102</v>
+      <c r="A17" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="B17" s="7">
         <v>8</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="33" t="s">
-        <v>104</v>
+      <c r="F17" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="G17" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" ht="25.5">
+      <c r="A18" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" ht="15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="G18" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" ht="15">
       <c r="A19" s="28"/>
@@ -3852,1661 +3915,1794 @@
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-    </row>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-    </row>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" ht="15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" ht="15"/>
     <row r="22" ht="15">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" ht="15">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" ht="15">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" ht="15">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" ht="15">
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" ht="15">
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" ht="15">
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" ht="15">
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" ht="15">
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" ht="15">
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
-      <c r="F31" s="22"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" ht="15">
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" ht="15">
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" ht="15">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" ht="15">
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" ht="15">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" ht="15">
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
-      <c r="F37" s="22"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" ht="15">
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" ht="15">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" ht="15">
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="22"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" ht="15">
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="22"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" ht="15">
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
-      <c r="F42" s="22"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" ht="15">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
-      <c r="F43" s="22"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" ht="15">
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="22"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" ht="15">
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
-      <c r="F45" s="22"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" ht="15">
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
-      <c r="F46" s="22"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" ht="15">
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
-      <c r="F47" s="22"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" ht="15">
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
-      <c r="F48" s="22"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" ht="15">
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
-      <c r="F49" s="22"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" ht="15">
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
-      <c r="F50" s="22"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
     </row>
     <row r="51" ht="15">
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
-      <c r="F51" s="22"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
     </row>
     <row r="52" ht="15">
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
-      <c r="F52" s="22"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
     </row>
     <row r="53" ht="15">
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
-      <c r="F53" s="22"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" ht="15">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
-      <c r="F54" s="22"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
     </row>
     <row r="55" ht="15">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
-      <c r="F55" s="22"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" ht="15">
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
-      <c r="F56" s="22"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
     </row>
     <row r="57" ht="15">
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
-      <c r="F57" s="22"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" ht="15">
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
-      <c r="F58" s="22"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
     </row>
     <row r="59" ht="15">
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
-      <c r="F59" s="22"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="60" ht="15">
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
-      <c r="F60" s="22"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" ht="15">
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
-      <c r="F61" s="22"/>
+      <c r="F61" s="28"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
     </row>
     <row r="62" ht="15">
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
-      <c r="F62" s="22"/>
+      <c r="F62" s="28"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" ht="15">
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
-      <c r="F63" s="22"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" ht="15">
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
-      <c r="F64" s="22"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" ht="15">
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
-      <c r="F65" s="22"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" ht="15">
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
-      <c r="F66" s="22"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
     </row>
     <row r="67" ht="15">
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
-      <c r="F67" s="22"/>
+      <c r="F67" s="28"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" ht="15">
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
-      <c r="F68" s="22"/>
+      <c r="F68" s="28"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
     </row>
     <row r="69" ht="15">
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
-      <c r="F69" s="22"/>
+      <c r="F69" s="28"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
     </row>
     <row r="70" ht="15">
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
-      <c r="F70" s="22"/>
+      <c r="F70" s="28"/>
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" ht="15">
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
-      <c r="F71" s="22"/>
+      <c r="F71" s="28"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
     </row>
     <row r="72" ht="15">
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
-      <c r="F72" s="22"/>
+      <c r="F72" s="28"/>
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
     </row>
     <row r="73" ht="15">
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
-      <c r="F73" s="22"/>
+      <c r="F73" s="28"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
     </row>
     <row r="74" ht="15">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
-      <c r="F74" s="22"/>
+      <c r="F74" s="28"/>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
     </row>
     <row r="75" ht="15">
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
-      <c r="F75" s="22"/>
+      <c r="F75" s="28"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
     </row>
     <row r="76" ht="15">
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
-      <c r="F76" s="22"/>
+      <c r="F76" s="28"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
     </row>
     <row r="77" ht="15">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="22"/>
+      <c r="F77" s="28"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
     </row>
     <row r="78" ht="15">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="22"/>
+      <c r="F78" s="28"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
     </row>
     <row r="79" ht="15">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
-      <c r="F79" s="22"/>
+      <c r="F79" s="28"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
     </row>
     <row r="80" ht="15">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="22"/>
+      <c r="F80" s="28"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
     </row>
     <row r="81" ht="15">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="22"/>
+      <c r="F81" s="28"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
     </row>
     <row r="82" ht="15">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
-      <c r="F82" s="22"/>
+      <c r="F82" s="28"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
     </row>
     <row r="83" ht="15">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="22"/>
+      <c r="F83" s="28"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
     </row>
     <row r="84" ht="15">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="22"/>
+      <c r="F84" s="28"/>
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
     </row>
     <row r="85" ht="15">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="22"/>
+      <c r="F85" s="28"/>
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
     </row>
     <row r="86" ht="15">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="22"/>
+      <c r="F86" s="28"/>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
     </row>
     <row r="87" ht="15">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="22"/>
+      <c r="F87" s="28"/>
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
     </row>
     <row r="88" ht="15">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="22"/>
+      <c r="F88" s="28"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
     </row>
     <row r="89" ht="15">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="22"/>
+      <c r="F89" s="28"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
     </row>
     <row r="90" ht="15">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="22"/>
+      <c r="F90" s="28"/>
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
     </row>
     <row r="91" ht="15">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="22"/>
+      <c r="F91" s="28"/>
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
     </row>
     <row r="92" ht="15">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="22"/>
+      <c r="F92" s="28"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
     </row>
     <row r="93" ht="15">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
-      <c r="F93" s="22"/>
+      <c r="F93" s="28"/>
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
     </row>
     <row r="94" ht="15">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="22"/>
+      <c r="F94" s="28"/>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
     </row>
     <row r="95" ht="15">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="22"/>
+      <c r="F95" s="28"/>
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
     </row>
     <row r="96" ht="15">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="22"/>
+      <c r="F96" s="28"/>
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
     </row>
     <row r="97" ht="15">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
-      <c r="F97" s="22"/>
+      <c r="F97" s="28"/>
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
     </row>
     <row r="98" ht="15">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
-      <c r="F98" s="22"/>
+      <c r="F98" s="28"/>
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
     </row>
     <row r="99" ht="15">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
-      <c r="F99" s="22"/>
+      <c r="F99" s="28"/>
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
     </row>
     <row r="100" ht="15">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
       <c r="E100" s="28"/>
-      <c r="F100" s="22"/>
+      <c r="F100" s="28"/>
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
     </row>
     <row r="101" ht="15">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
       <c r="E101" s="28"/>
-      <c r="F101" s="22"/>
+      <c r="F101" s="28"/>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
     </row>
     <row r="102" ht="15">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
-      <c r="F102" s="22"/>
+      <c r="F102" s="28"/>
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
     </row>
     <row r="103" ht="15">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
-      <c r="F103" s="22"/>
+      <c r="F103" s="28"/>
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
     </row>
     <row r="104" ht="15">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
       <c r="E104" s="28"/>
-      <c r="F104" s="22"/>
+      <c r="F104" s="28"/>
       <c r="G104" s="22"/>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
     </row>
     <row r="105" ht="15">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
-      <c r="F105" s="22"/>
+      <c r="F105" s="28"/>
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
     </row>
     <row r="106" ht="15">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
-      <c r="F106" s="22"/>
+      <c r="F106" s="28"/>
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
     </row>
     <row r="107" ht="15">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
       <c r="E107" s="28"/>
-      <c r="F107" s="22"/>
+      <c r="F107" s="28"/>
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
     </row>
     <row r="108" ht="15">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
       <c r="E108" s="28"/>
-      <c r="F108" s="22"/>
+      <c r="F108" s="28"/>
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
     </row>
     <row r="109" ht="15">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
       <c r="E109" s="28"/>
-      <c r="F109" s="22"/>
+      <c r="F109" s="28"/>
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
     </row>
     <row r="110" ht="15">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
       <c r="E110" s="28"/>
-      <c r="F110" s="22"/>
+      <c r="F110" s="28"/>
       <c r="G110" s="22"/>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
     </row>
     <row r="111" ht="15">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
       <c r="E111" s="28"/>
-      <c r="F111" s="22"/>
+      <c r="F111" s="28"/>
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
     </row>
     <row r="112" ht="15">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
       <c r="E112" s="28"/>
-      <c r="F112" s="22"/>
+      <c r="F112" s="28"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
     </row>
     <row r="113" ht="15">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
       <c r="E113" s="28"/>
-      <c r="F113" s="22"/>
+      <c r="F113" s="28"/>
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
     </row>
     <row r="114" ht="15">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
-      <c r="F114" s="22"/>
+      <c r="F114" s="28"/>
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
     </row>
     <row r="115" ht="15">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
       <c r="E115" s="28"/>
-      <c r="F115" s="22"/>
+      <c r="F115" s="28"/>
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
     </row>
     <row r="116" ht="15">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
       <c r="E116" s="28"/>
-      <c r="F116" s="22"/>
+      <c r="F116" s="28"/>
       <c r="G116" s="22"/>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
     </row>
     <row r="117" ht="15">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
       <c r="E117" s="28"/>
-      <c r="F117" s="22"/>
+      <c r="F117" s="28"/>
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
     </row>
     <row r="118" ht="15">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
       <c r="E118" s="28"/>
-      <c r="F118" s="22"/>
+      <c r="F118" s="28"/>
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
     </row>
     <row r="119" ht="15">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
       <c r="E119" s="28"/>
-      <c r="F119" s="22"/>
+      <c r="F119" s="28"/>
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
     </row>
     <row r="120" ht="15">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
       <c r="E120" s="28"/>
-      <c r="F120" s="22"/>
+      <c r="F120" s="28"/>
       <c r="G120" s="22"/>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
+      <c r="J120" s="22"/>
     </row>
     <row r="121" ht="15">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
       <c r="E121" s="28"/>
-      <c r="F121" s="22"/>
+      <c r="F121" s="28"/>
       <c r="G121" s="22"/>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
     </row>
     <row r="122" ht="15">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
       <c r="E122" s="28"/>
-      <c r="F122" s="22"/>
+      <c r="F122" s="28"/>
       <c r="G122" s="22"/>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
     </row>
     <row r="123" ht="15">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
       <c r="E123" s="28"/>
-      <c r="F123" s="22"/>
+      <c r="F123" s="28"/>
       <c r="G123" s="22"/>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
     </row>
     <row r="124" ht="15">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
       <c r="E124" s="28"/>
-      <c r="F124" s="22"/>
+      <c r="F124" s="28"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
     </row>
     <row r="125" ht="15">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
       <c r="E125" s="28"/>
-      <c r="F125" s="22"/>
+      <c r="F125" s="28"/>
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
     </row>
     <row r="126" ht="15">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
       <c r="E126" s="28"/>
-      <c r="F126" s="22"/>
+      <c r="F126" s="28"/>
       <c r="G126" s="22"/>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
     </row>
     <row r="127" ht="15">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
       <c r="E127" s="28"/>
-      <c r="F127" s="22"/>
+      <c r="F127" s="28"/>
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
     </row>
     <row r="128" ht="15">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
       <c r="E128" s="28"/>
-      <c r="F128" s="22"/>
+      <c r="F128" s="28"/>
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
     </row>
     <row r="129" ht="15">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
-      <c r="F129" s="22"/>
+      <c r="F129" s="28"/>
       <c r="G129" s="22"/>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
+      <c r="J129" s="22"/>
     </row>
     <row r="130" ht="15">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
       <c r="E130" s="28"/>
-      <c r="F130" s="22"/>
+      <c r="F130" s="28"/>
       <c r="G130" s="22"/>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
     </row>
     <row r="131" ht="15">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
       <c r="E131" s="28"/>
-      <c r="F131" s="22"/>
+      <c r="F131" s="28"/>
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
+      <c r="J131" s="22"/>
     </row>
     <row r="132" ht="15">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
-      <c r="F132" s="22"/>
+      <c r="F132" s="28"/>
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
+      <c r="J132" s="22"/>
     </row>
     <row r="133" ht="15">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
-      <c r="F133" s="22"/>
+      <c r="F133" s="28"/>
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
     </row>
     <row r="134" ht="15">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
       <c r="E134" s="28"/>
-      <c r="F134" s="22"/>
+      <c r="F134" s="28"/>
       <c r="G134" s="22"/>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
     </row>
     <row r="135" ht="15">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
       <c r="E135" s="28"/>
-      <c r="F135" s="22"/>
+      <c r="F135" s="28"/>
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
       <c r="I135" s="22"/>
+      <c r="J135" s="22"/>
     </row>
     <row r="136" ht="15">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
       <c r="E136" s="28"/>
-      <c r="F136" s="22"/>
+      <c r="F136" s="28"/>
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
+      <c r="J136" s="22"/>
     </row>
     <row r="137" ht="15">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
       <c r="E137" s="28"/>
-      <c r="F137" s="22"/>
+      <c r="F137" s="28"/>
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
       <c r="I137" s="22"/>
+      <c r="J137" s="22"/>
     </row>
     <row r="138" ht="15">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
       <c r="E138" s="28"/>
-      <c r="F138" s="22"/>
+      <c r="F138" s="28"/>
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
       <c r="I138" s="22"/>
+      <c r="J138" s="22"/>
     </row>
     <row r="139" ht="15">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
       <c r="E139" s="28"/>
-      <c r="F139" s="22"/>
+      <c r="F139" s="28"/>
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
+      <c r="J139" s="22"/>
     </row>
     <row r="140" ht="15">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
       <c r="E140" s="28"/>
-      <c r="F140" s="22"/>
+      <c r="F140" s="28"/>
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="22"/>
+      <c r="J140" s="22"/>
     </row>
     <row r="141" ht="15">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
       <c r="E141" s="28"/>
-      <c r="F141" s="22"/>
+      <c r="F141" s="28"/>
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
+      <c r="J141" s="22"/>
     </row>
     <row r="142" ht="15">
-      <c r="F142" s="22"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
       <c r="I142" s="22"/>
+      <c r="J142" s="22"/>
     </row>
     <row r="143" ht="15">
-      <c r="F143" s="22"/>
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
+      <c r="J143" s="22"/>
     </row>
     <row r="144" ht="15">
-      <c r="F144" s="22"/>
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
+      <c r="J144" s="22"/>
     </row>
     <row r="145" ht="15">
-      <c r="F145" s="22"/>
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
+      <c r="J145" s="22"/>
     </row>
     <row r="146" ht="15">
-      <c r="F146" s="22"/>
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
+      <c r="J146" s="22"/>
     </row>
     <row r="147" ht="15">
-      <c r="F147" s="22"/>
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
+      <c r="J147" s="22"/>
     </row>
     <row r="148" ht="15">
-      <c r="F148" s="22"/>
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
+      <c r="J148" s="22"/>
     </row>
     <row r="149" ht="15">
-      <c r="F149" s="22"/>
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
+      <c r="J149" s="22"/>
     </row>
     <row r="150" ht="15">
-      <c r="F150" s="22"/>
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
+      <c r="J150" s="22"/>
     </row>
     <row r="151" ht="15">
-      <c r="F151" s="22"/>
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
+      <c r="J151" s="22"/>
     </row>
     <row r="152" ht="15">
-      <c r="F152" s="22"/>
       <c r="G152" s="22"/>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
+      <c r="J152" s="22"/>
     </row>
     <row r="153" ht="15">
-      <c r="F153" s="22"/>
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
+      <c r="J153" s="22"/>
     </row>
     <row r="154" ht="15">
-      <c r="F154" s="22"/>
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
+      <c r="J154" s="22"/>
     </row>
     <row r="155" ht="15">
-      <c r="F155" s="22"/>
       <c r="G155" s="22"/>
       <c r="H155" s="22"/>
       <c r="I155" s="22"/>
+      <c r="J155" s="22"/>
     </row>
     <row r="156" ht="15">
-      <c r="F156" s="22"/>
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
       <c r="I156" s="22"/>
+      <c r="J156" s="22"/>
     </row>
     <row r="157" ht="15">
-      <c r="F157" s="22"/>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
       <c r="I157" s="22"/>
+      <c r="J157" s="22"/>
     </row>
     <row r="158" ht="15">
-      <c r="F158" s="22"/>
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
       <c r="I158" s="22"/>
+      <c r="J158" s="22"/>
     </row>
     <row r="159" ht="15">
-      <c r="F159" s="22"/>
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
       <c r="I159" s="22"/>
+      <c r="J159" s="22"/>
     </row>
     <row r="160" ht="15">
-      <c r="F160" s="22"/>
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
       <c r="I160" s="22"/>
+      <c r="J160" s="22"/>
     </row>
     <row r="161" ht="15">
-      <c r="F161" s="22"/>
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
       <c r="I161" s="22"/>
+      <c r="J161" s="22"/>
     </row>
     <row r="162" ht="15">
-      <c r="F162" s="22"/>
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
       <c r="I162" s="22"/>
+      <c r="J162" s="22"/>
     </row>
     <row r="163" ht="15">
-      <c r="F163" s="22"/>
       <c r="G163" s="22"/>
       <c r="H163" s="22"/>
       <c r="I163" s="22"/>
+      <c r="J163" s="22"/>
     </row>
     <row r="164" ht="15">
-      <c r="F164" s="22"/>
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
+      <c r="J164" s="22"/>
     </row>
     <row r="165" ht="15">
-      <c r="F165" s="22"/>
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
       <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
     </row>
     <row r="166" ht="15">
-      <c r="F166" s="22"/>
       <c r="G166" s="22"/>
       <c r="H166" s="22"/>
       <c r="I166" s="22"/>
+      <c r="J166" s="22"/>
     </row>
     <row r="167" ht="15">
-      <c r="F167" s="22"/>
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
+      <c r="J167" s="22"/>
     </row>
     <row r="168" ht="15">
-      <c r="F168" s="22"/>
       <c r="G168" s="22"/>
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
+      <c r="J168" s="22"/>
     </row>
     <row r="169" ht="15">
-      <c r="F169" s="22"/>
       <c r="G169" s="22"/>
       <c r="H169" s="22"/>
       <c r="I169" s="22"/>
+      <c r="J169" s="22"/>
     </row>
     <row r="170" ht="15">
-      <c r="F170" s="22"/>
       <c r="G170" s="22"/>
       <c r="H170" s="22"/>
       <c r="I170" s="22"/>
+      <c r="J170" s="22"/>
     </row>
     <row r="171" ht="15">
-      <c r="F171" s="22"/>
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
       <c r="I171" s="22"/>
+      <c r="J171" s="22"/>
     </row>
     <row r="172" ht="15">
-      <c r="F172" s="22"/>
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
       <c r="I172" s="22"/>
+      <c r="J172" s="22"/>
     </row>
     <row r="173" ht="15">
-      <c r="F173" s="22"/>
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
       <c r="I173" s="22"/>
+      <c r="J173" s="22"/>
     </row>
     <row r="174" ht="15">
-      <c r="F174" s="22"/>
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
       <c r="I174" s="22"/>
+      <c r="J174" s="22"/>
     </row>
     <row r="175" ht="15">
-      <c r="F175" s="22"/>
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
+      <c r="J175" s="22"/>
     </row>
     <row r="176" ht="15">
-      <c r="F176" s="22"/>
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
+      <c r="J176" s="22"/>
     </row>
     <row r="177" ht="15">
-      <c r="F177" s="22"/>
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
+      <c r="J177" s="22"/>
     </row>
     <row r="178" ht="15">
-      <c r="F178" s="22"/>
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
+      <c r="J178" s="22"/>
     </row>
     <row r="179" ht="15">
-      <c r="F179" s="22"/>
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
       <c r="I179" s="22"/>
+      <c r="J179" s="22"/>
     </row>
     <row r="180" ht="15">
-      <c r="F180" s="22"/>
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
       <c r="I180" s="22"/>
+      <c r="J180" s="22"/>
     </row>
     <row r="181" ht="15">
-      <c r="F181" s="22"/>
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
+      <c r="J181" s="22"/>
     </row>
     <row r="182" ht="15">
-      <c r="F182" s="22"/>
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
+      <c r="J182" s="22"/>
     </row>
     <row r="183" ht="15">
-      <c r="F183" s="22"/>
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
       <c r="I183" s="22"/>
+      <c r="J183" s="22"/>
     </row>
     <row r="184" ht="15">
-      <c r="F184" s="22"/>
       <c r="G184" s="22"/>
       <c r="H184" s="22"/>
       <c r="I184" s="22"/>
+      <c r="J184" s="22"/>
     </row>
     <row r="185" ht="15">
-      <c r="F185" s="22"/>
       <c r="G185" s="22"/>
       <c r="H185" s="22"/>
       <c r="I185" s="22"/>
+      <c r="J185" s="22"/>
     </row>
     <row r="186" ht="15">
-      <c r="F186" s="22"/>
       <c r="G186" s="22"/>
       <c r="H186" s="22"/>
       <c r="I186" s="22"/>
+      <c r="J186" s="22"/>
     </row>
     <row r="187" ht="15">
-      <c r="F187" s="22"/>
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
       <c r="I187" s="22"/>
+      <c r="J187" s="22"/>
     </row>
     <row r="188" ht="15">
-      <c r="F188" s="22"/>
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
       <c r="I188" s="22"/>
+      <c r="J188" s="22"/>
     </row>
     <row r="189" ht="15">
-      <c r="F189" s="22"/>
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
+      <c r="J189" s="22"/>
     </row>
     <row r="190" ht="15">
-      <c r="F190" s="22"/>
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
       <c r="I190" s="22"/>
+      <c r="J190" s="22"/>
     </row>
     <row r="191" ht="15">
-      <c r="F191" s="22"/>
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
       <c r="I191" s="22"/>
+      <c r="J191" s="22"/>
     </row>
     <row r="192" ht="15">
-      <c r="F192" s="22"/>
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
       <c r="I192" s="22"/>
+      <c r="J192" s="22"/>
     </row>
     <row r="193" ht="15">
-      <c r="F193" s="22"/>
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
       <c r="I193" s="22"/>
+      <c r="J193" s="22"/>
     </row>
     <row r="194" ht="15">
-      <c r="F194" s="22"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
       <c r="I194" s="22"/>
+      <c r="J194" s="22"/>
     </row>
     <row r="195" ht="15">
-      <c r="F195" s="22"/>
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
       <c r="I195" s="22"/>
+      <c r="J195" s="22"/>
     </row>
     <row r="196" ht="15">
-      <c r="F196" s="22"/>
       <c r="G196" s="22"/>
       <c r="H196" s="22"/>
       <c r="I196" s="22"/>
+      <c r="J196" s="22"/>
     </row>
     <row r="197" ht="15">
-      <c r="F197" s="22"/>
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
       <c r="I197" s="22"/>
+      <c r="J197" s="22"/>
     </row>
     <row r="198" ht="15">
-      <c r="F198" s="22"/>
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
       <c r="I198" s="22"/>
+      <c r="J198" s="22"/>
     </row>
     <row r="199" ht="15">
-      <c r="F199" s="22"/>
       <c r="G199" s="22"/>
       <c r="H199" s="22"/>
       <c r="I199" s="22"/>
+      <c r="J199" s="22"/>
     </row>
     <row r="200" ht="15">
-      <c r="F200" s="22"/>
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
       <c r="I200" s="22"/>
+      <c r="J200" s="22"/>
     </row>
     <row r="201" ht="15">
-      <c r="F201" s="22"/>
       <c r="G201" s="22"/>
       <c r="H201" s="22"/>
       <c r="I201" s="22"/>
+      <c r="J201" s="22"/>
     </row>
     <row r="202" ht="15">
-      <c r="F202" s="22"/>
       <c r="G202" s="22"/>
       <c r="H202" s="22"/>
       <c r="I202" s="22"/>
+      <c r="J202" s="22"/>
     </row>
     <row r="203" ht="15">
-      <c r="F203" s="22"/>
       <c r="G203" s="22"/>
       <c r="H203" s="22"/>
       <c r="I203" s="22"/>
+      <c r="J203" s="22"/>
     </row>
     <row r="204" ht="15">
-      <c r="F204" s="22"/>
       <c r="G204" s="22"/>
       <c r="H204" s="22"/>
       <c r="I204" s="22"/>
+      <c r="J204" s="22"/>
     </row>
     <row r="205" ht="15">
-      <c r="F205" s="22"/>
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
       <c r="I205" s="22"/>
+      <c r="J205" s="22"/>
     </row>
     <row r="206" ht="15">
-      <c r="F206" s="22"/>
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
       <c r="I206" s="22"/>
+      <c r="J206" s="22"/>
     </row>
     <row r="207" ht="15">
-      <c r="F207" s="22"/>
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
+      <c r="J207" s="22"/>
     </row>
     <row r="208" ht="15">
-      <c r="F208" s="22"/>
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
       <c r="I208" s="22"/>
+      <c r="J208" s="22"/>
     </row>
     <row r="209" ht="15">
-      <c r="F209" s="22"/>
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
       <c r="I209" s="22"/>
+      <c r="J209" s="22"/>
     </row>
     <row r="210" ht="15">
-      <c r="F210" s="22"/>
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
       <c r="I210" s="22"/>
+      <c r="J210" s="22"/>
     </row>
     <row r="211" ht="15">
-      <c r="F211" s="22"/>
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
       <c r="I211" s="22"/>
+      <c r="J211" s="22"/>
     </row>
     <row r="212" ht="15">
-      <c r="F212" s="22"/>
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
       <c r="I212" s="22"/>
+      <c r="J212" s="22"/>
     </row>
     <row r="213" ht="15">
-      <c r="F213" s="22"/>
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
       <c r="I213" s="22"/>
+      <c r="J213" s="22"/>
     </row>
     <row r="214" ht="15">
-      <c r="F214" s="22"/>
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
       <c r="I214" s="22"/>
-    </row>
-    <row r="215" ht="15"/>
+      <c r="J214" s="22"/>
+    </row>
+    <row r="215" ht="15">
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
+      <c r="I215" s="22"/>
+      <c r="J215" s="22"/>
+    </row>
     <row r="216" ht="15"/>
     <row r="217" ht="15"/>
     <row r="218" ht="15"/>
@@ -6286,18 +6482,18 @@
     <row r="992" ht="15"/>
     <row r="993" ht="15"/>
     <row r="994" ht="15"/>
+    <row r="995" ht="15"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B1"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId2" ref="D4"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
@@ -6334,7 +6530,7 @@
     <col customWidth="1" hidden="1" min="9" max="10" width="14.25"/>
     <col customWidth="1" min="11" max="12" width="14.25"/>
     <col customWidth="1" min="13" max="13" width="16.57421875"/>
-    <col customWidth="1" hidden="1" min="14" max="14" width="14.25"/>
+    <col customWidth="1" min="14" max="14" width="14.25"/>
     <col customWidth="1" min="15" max="15" width="27.7109375"/>
     <col customWidth="1" min="16" max="16" width="14.25"/>
     <col customWidth="1" min="17" max="17" width="30.57421875"/>
@@ -6349,21 +6545,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="42" t="str">
         <f>Entities!B1</f>
-        <v>https://data.mydomain.com/ontologies/sparnatural-config</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+        <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
@@ -6375,11 +6571,11 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
@@ -6391,11 +6587,11 @@
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
@@ -6407,11 +6603,11 @@
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -6424,7 +6620,7 @@
       <c r="B5" s="28"/>
       <c r="C5" s="22"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="45"/>
+      <c r="H5" s="47"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -6434,76 +6630,76 @@
     </row>
     <row r="6" ht="191.25">
       <c r="A6" s="29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="W6" s="29" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="X6" s="29" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="29"/>
@@ -6512,22 +6708,22 @@
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>48</v>
@@ -6536,100 +6732,100 @@
         <v>49</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="R7" s="30" t="s">
         <v>51</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="U7" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="X7" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
+        <v>157</v>
+      </c>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
     </row>
     <row r="8" ht="15.75">
-      <c r="A8" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
+      <c r="A8" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
     </row>
     <row r="9" ht="25.5">
-      <c r="A9" s="38" t="str">
+      <c r="A9" s="40" t="str">
         <f>CONCATENATE("this:",RIGHT(C9,LEN(C9)-SEARCH(":",C9)),"_",RIGHT(B9,LEN(B9)-SEARCH(":",B9)))</f>
         <v>this:Vehicle_VIN</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="7">
@@ -6637,36 +6833,36 @@
         <v>1</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="38">
+        <v>160</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="40">
         <v>1</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="40">
         <v>1</v>
       </c>
-      <c r="K9" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="K9" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
@@ -6683,47 +6879,47 @@
       <c r="AC9" s="35"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="38" t="str">
+      <c r="A10" s="40" t="str">
         <f>CONCATENATE("this:",RIGHT(C10,LEN(C10)-SEARCH(":",C10)),"_",RIGHT(B10,LEN(B10)-SEARCH(":",B10)))</f>
         <v>this:Vehicle_hasManufacturer</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="35">
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="38">
+        <v>168</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="40">
         <v>1</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="40">
         <v>1</v>
       </c>
-      <c r="K10" s="38" t="s">
-        <v>167</v>
+      <c r="K10" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
@@ -6743,42 +6939,42 @@
       <c r="AC10" s="35"/>
     </row>
     <row r="11" ht="25.5">
-      <c r="A11" s="38" t="s">
-        <v>169</v>
+      <c r="A11" s="40" t="s">
+        <v>172</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="35">
         <v>3</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>177</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="38" t="s">
-        <v>167</v>
+      <c r="K11" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="35"/>
@@ -6798,43 +6994,43 @@
       <c r="AC11" s="35"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="38" t="str">
+      <c r="A12" s="40" t="str">
         <f>CONCATENATE("this:",RIGHT(C12,LEN(C12)-SEARCH(":",C12)),"_",RIGHT(B12,LEN(B12)-SEARCH(":",B12)))</f>
         <v>this:Vehicle_weightInKg</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="35">
         <v>4</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="52"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="35">
         <v>1</v>
       </c>
       <c r="J12" s="35">
         <v>1</v>
       </c>
-      <c r="K12" s="38" t="s">
-        <v>158</v>
+      <c r="K12" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="35"/>
@@ -6854,63 +7050,63 @@
       <c r="AC12" s="35"/>
     </row>
     <row r="13" ht="15.75">
-      <c r="A13" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
+      <c r="A13" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="38" t="str">
+      <c r="A14" s="40" t="str">
         <f>CONCATENATE("this:",RIGHT(C14,LEN(C14)-SEARCH(":",C14)),"_",RIGHT(B14,LEN(B14)-SEARCH(":",B14)))</f>
         <v>this:Manufacturer_name</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>60</v>
+        <v>184</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="35">
         <v>1</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>188</v>
       </c>
       <c r="I14" s="35">
         <v>1</v>
@@ -6919,18 +7115,18 @@
         <v>1</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>159</v>
+        <v>105</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
@@ -6947,63 +7143,63 @@
       <c r="AC14" s="35"/>
     </row>
     <row r="15" ht="15.75">
-      <c r="A15" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
+      <c r="A15" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="38" t="str">
+      <c r="A16" s="40" t="str">
         <f t="shared" ref="A16:A33" si="0">CONCATENATE("this:",RIGHT(C16,LEN(C16)-SEARCH(":",C16)),"_",RIGHT(B16,LEN(B16)-SEARCH(":",B16)))</f>
         <v>this:Diagnostic_diagnosticDate</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>67</v>
+        <v>189</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D16" s="35">
         <v>1</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>193</v>
       </c>
       <c r="I16" s="35">
         <v>1</v>
@@ -7012,15 +7208,15 @@
         <v>1</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -7040,30 +7236,30 @@
       <c r="AC16" s="35"/>
     </row>
     <row r="17" ht="25.5">
-      <c r="A17" s="38" t="str">
+      <c r="A17" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_analysedVehicle</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>67</v>
+        <v>196</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="35">
         <v>2</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>200</v>
       </c>
       <c r="I17" s="35">
         <v>1</v>
@@ -7072,18 +7268,18 @@
         <v>1</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35" t="s">
         <v>55</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="32" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -7099,42 +7295,42 @@
       <c r="AC17" s="35"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="38" t="str">
+      <c r="A18" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_hasResults</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>67</v>
+        <v>202</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D18" s="35">
         <v>3</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>206</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
@@ -7152,30 +7348,30 @@
       <c r="AC18" s="35"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="38" t="str">
+      <c r="A19" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_diagnosticPlace</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>67</v>
+        <v>207</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D19" s="35">
         <v>4</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>211</v>
       </c>
       <c r="I19" s="35">
         <v>1</v>
@@ -7184,15 +7380,15 @@
         <v>1</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
@@ -7210,42 +7406,42 @@
       <c r="AC19" s="35"/>
     </row>
     <row r="20" ht="25.5">
-      <c r="A20" s="38" t="s">
-        <v>211</v>
+      <c r="A20" s="40" t="s">
+        <v>214</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>67</v>
+        <v>215</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="D20" s="35">
         <v>5</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>219</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="L20" s="35"/>
       <c r="M20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N20" s="32"/>
       <c r="O20" s="32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -7263,78 +7459,80 @@
       <c r="AC20" s="35"/>
     </row>
     <row r="21" ht="15.75">
-      <c r="A21" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
+      <c r="A21" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
     </row>
     <row r="22" ht="25.5">
-      <c r="A22" s="38" t="str">
+      <c r="A22" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:Error_alreadyRaised</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="35">
         <v>1</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35">
         <v>1</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="N22" s="40" t="s">
+        <v>103</v>
+      </c>
       <c r="O22" s="35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -7356,30 +7554,30 @@
       <c r="AC22" s="35"/>
     </row>
     <row r="23" ht="25.5">
-      <c r="A23" s="38" t="str">
+      <c r="A23" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:Error_hasErrorCode</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="35">
         <v>2</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I23" s="35">
         <v>1</v>
@@ -7388,15 +7586,15 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N23" s="32"/>
       <c r="O23" s="32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -7416,48 +7614,48 @@
       <c r="AC23" s="35"/>
     </row>
     <row r="24" ht="15.75">
-      <c r="A24" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
+      <c r="A24" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_errorCode</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>81</v>
+        <v>233</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="D25" s="35">
         <v>1</v>
@@ -7473,18 +7671,18 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3" t="b">
@@ -7503,47 +7701,47 @@
       <c r="AC25" s="31"/>
     </row>
     <row r="26" ht="25.5">
-      <c r="A26" s="38" t="str">
+      <c r="A26" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_hasSymptom</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>81</v>
+        <v>234</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="D26" s="35">
         <v>1</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P26" s="35"/>
-      <c r="Q26" s="53" t="s">
-        <v>236</v>
+      <c r="Q26" s="55" t="s">
+        <v>239</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="35"/>
@@ -7561,49 +7759,49 @@
       <c r="AC26" s="35"/>
     </row>
     <row r="27" ht="25.5">
-      <c r="A27" s="38" t="str">
+      <c r="A27" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_hasComponent</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>81</v>
+        <v>240</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="D27" s="35">
         <v>2</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="L27" s="35"/>
       <c r="M27" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P27" s="35"/>
-      <c r="Q27" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="R27" s="53"/>
+      <c r="Q27" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="R27" s="55"/>
       <c r="S27" s="35"/>
       <c r="T27" s="3" t="b">
         <v>1</v>
@@ -7619,42 +7817,42 @@
       <c r="AC27" s="35"/>
     </row>
     <row r="28" ht="25.5">
-      <c r="A28" s="38" t="s">
-        <v>243</v>
+      <c r="A28" s="40" t="s">
+        <v>246</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>81</v>
+        <v>240</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="D28" s="35">
         <v>3</v>
       </c>
       <c r="E28" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>241</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N28" s="32"/>
       <c r="O28" s="32" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
@@ -7664,11 +7862,11 @@
         <v>1</v>
       </c>
       <c r="U28" s="35"/>
-      <c r="V28" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="W28" s="54" t="s">
-        <v>248</v>
+      <c r="V28" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="W28" s="56" t="s">
+        <v>251</v>
       </c>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -7678,63 +7876,63 @@
       <c r="AC28" s="35"/>
     </row>
     <row r="29" ht="15.75">
-      <c r="A29" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
+      <c r="A29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="38" t="str">
+      <c r="A30" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:Symptom_label</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>88</v>
+        <v>252</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="35">
         <v>1</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I30" s="35">
         <v>1</v>
@@ -7743,18 +7941,18 @@
         <v>1</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="32" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P30" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
@@ -7771,63 +7969,63 @@
       <c r="AC30" s="35"/>
     </row>
     <row r="31" ht="15.75">
-      <c r="A31" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
+      <c r="A31" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="38" t="str">
+      <c r="A32" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:Component_componentCode</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>95</v>
+        <v>259</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="D32" s="35">
         <v>1</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I32" s="35">
         <v>1</v>
@@ -7836,15 +8034,15 @@
         <v>1</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="32" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
@@ -7864,48 +8062,48 @@
       <c r="AC32" s="35"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="38" t="str">
+      <c r="A33" s="40" t="str">
         <f t="shared" si="0"/>
         <v>this:Component_label</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>95</v>
+        <v>252</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="D33" s="35">
         <v>2</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I33" s="35">
         <v>1</v>
       </c>
       <c r="J33" s="35"/>
       <c r="K33" s="35" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="32" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="3" t="b">
@@ -7926,42 +8124,42 @@
       <c r="AC33" s="35"/>
     </row>
     <row r="34" ht="25.5">
-      <c r="A34" s="38" t="s">
-        <v>262</v>
+      <c r="A34" s="40" t="s">
+        <v>265</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>95</v>
+        <v>266</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="D34" s="35">
         <v>3</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
       <c r="K34" s="35" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
       <c r="N34" s="35" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
@@ -9636,7 +9834,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9653,18 +9851,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="56" t="str">
+      <c r="B1" s="58" t="str">
         <f>Entities!B1</f>
-        <v>https://data.mydomain.com/ontologies/sparnatural-config</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>108</v>
+        <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>114</v>
       </c>
       <c r="D1" s="28"/>
-      <c r="E1" s="57"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -9682,66 +9880,66 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" ht="91.5" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="C3" s="61" t="s">
         <v>273</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>276</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="60" t="s">
+      <c r="A4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="G4" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>278</v>
+        <v>201</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>281</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -9749,14 +9947,14 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" ht="276" customHeight="1">
-      <c r="A6" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>280</v>
+      <c r="A6" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>283</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="35"/>
@@ -9766,14 +9964,14 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" ht="315" customHeight="1">
-      <c r="A7" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="A7" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="65" t="s">
         <v>281</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>284</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -9783,14 +9981,14 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" ht="333.75" customHeight="1">
-      <c r="A8" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>282</v>
+      <c r="A8" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -9801,7 +9999,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="57"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -9812,7 +10010,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="57"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -9823,7 +10021,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="57"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -9834,7 +10032,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="57"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -9845,7 +10043,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="57"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -9856,7 +10054,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -9867,7 +10065,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="57"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -9878,7 +10076,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="57"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -9889,7 +10087,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="57"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -9900,7 +10098,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -9911,7 +10109,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -9922,7 +10120,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="57"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -9933,7 +10131,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="28"/>
-      <c r="B21" s="57"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -9944,7 +10142,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="28"/>
-      <c r="B22" s="57"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -9955,7 +10153,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="28"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -9966,7 +10164,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="28"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -10978,1553 +11176,1553 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="56" t="str">
+      <c r="B1" s="58" t="str">
         <f>Entities!B1</f>
-        <v>https://data.mydomain.com/ontologies/sparnatural-config</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="66"/>
+        <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="68"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="45"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="45"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" ht="58.5" customHeight="1">
-      <c r="A4" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>285</v>
+      <c r="A4" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>288</v>
       </c>
       <c r="E4" s="28"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="61"/>
+      <c r="A5" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" ht="160.5" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="45" t="s">
         <v>290</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>293</v>
       </c>
       <c r="E6" s="28"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="57"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="45"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="28"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="45"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="28"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="57"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="45"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="28"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="57"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="45"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="28"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="57"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="57"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="45"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="57"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="28"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="57"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="57"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="45"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="28"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="57"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="45"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="28"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="45"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="28"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="57"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="28"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="45"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="28"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="45"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="28"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
-      <c r="D23" s="45"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="28"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="45"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="28"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="45"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="28"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="45"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="28"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="45"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="28"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="45"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="28"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="45"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="28"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="45"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="28"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
-      <c r="D31" s="45"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="28"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
-      <c r="D32" s="45"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="28"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
-      <c r="D33" s="45"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="28"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
-      <c r="D34" s="45"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="28"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
-      <c r="D35" s="45"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="28"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
-      <c r="D36" s="45"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="28"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
-      <c r="D37" s="45"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="28"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="45"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="28"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="45"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="28"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="28"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="45"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="28"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="45"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="28"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="45"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="28"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="45"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="28"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="45"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="28"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="45"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="28"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="45"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="28"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="45"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="28"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
-      <c r="D49" s="45"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="28"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="28"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="45"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="28"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="45"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="28"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="45"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="28"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="45"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="28"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="45"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="28"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="45"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="28"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
-      <c r="D57" s="45"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="28"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
-      <c r="D58" s="45"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="28"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="45"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="28"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
-      <c r="D60" s="45"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="28"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="45"/>
+      <c r="D61" s="47"/>
       <c r="E61" s="28"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="45"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="28"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="45"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="28"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="45"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="28"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="45"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="28"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="45"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="28"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="45"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="28"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="45"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="28"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="45"/>
+      <c r="D69" s="47"/>
       <c r="E69" s="28"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="45"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="28"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
-      <c r="D71" s="45"/>
+      <c r="D71" s="47"/>
       <c r="E71" s="28"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
-      <c r="D72" s="45"/>
+      <c r="D72" s="47"/>
       <c r="E72" s="28"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="45"/>
+      <c r="D73" s="47"/>
       <c r="E73" s="28"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="45"/>
+      <c r="D74" s="47"/>
       <c r="E74" s="28"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="45"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="28"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="45"/>
+      <c r="D76" s="47"/>
       <c r="E76" s="28"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="45"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="28"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="45"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="28"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
-      <c r="D79" s="45"/>
+      <c r="D79" s="47"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
-      <c r="D80" s="45"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="28"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
-      <c r="D81" s="45"/>
+      <c r="D81" s="47"/>
       <c r="E81" s="28"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
-      <c r="D82" s="45"/>
+      <c r="D82" s="47"/>
       <c r="E82" s="28"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
-      <c r="D83" s="45"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="28"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
-      <c r="D84" s="45"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="28"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
-      <c r="D85" s="45"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="28"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
-      <c r="D86" s="45"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="28"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
-      <c r="D87" s="45"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="28"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
-      <c r="D88" s="45"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="28"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
-      <c r="D89" s="45"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="28"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
-      <c r="D90" s="45"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="28"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
-      <c r="D91" s="45"/>
+      <c r="D91" s="47"/>
       <c r="E91" s="28"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
-      <c r="D92" s="45"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="28"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
-      <c r="D93" s="45"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="28"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
-      <c r="D94" s="45"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="28"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
-      <c r="D95" s="45"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="28"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
-      <c r="D96" s="45"/>
+      <c r="D96" s="47"/>
       <c r="E96" s="28"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
-      <c r="D97" s="45"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="28"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
-      <c r="D98" s="45"/>
+      <c r="D98" s="47"/>
       <c r="E98" s="28"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
-      <c r="D99" s="45"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="28"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
-      <c r="D100" s="45"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="28"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
-      <c r="D101" s="45"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="28"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
-      <c r="D102" s="45"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="28"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="28"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
-      <c r="D103" s="45"/>
+      <c r="D103" s="47"/>
       <c r="E103" s="28"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="28"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
-      <c r="D104" s="45"/>
+      <c r="D104" s="47"/>
       <c r="E104" s="28"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="28"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
-      <c r="D105" s="45"/>
+      <c r="D105" s="47"/>
       <c r="E105" s="28"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
-      <c r="D106" s="45"/>
+      <c r="D106" s="47"/>
       <c r="E106" s="28"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
-      <c r="D107" s="45"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="28"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="28"/>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
-      <c r="D108" s="45"/>
+      <c r="D108" s="47"/>
       <c r="E108" s="28"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="28"/>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
-      <c r="D109" s="45"/>
+      <c r="D109" s="47"/>
       <c r="E109" s="28"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="28"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
-      <c r="D110" s="45"/>
+      <c r="D110" s="47"/>
       <c r="E110" s="28"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="28"/>
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
-      <c r="D111" s="45"/>
+      <c r="D111" s="47"/>
       <c r="E111" s="28"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="28"/>
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
-      <c r="D112" s="45"/>
+      <c r="D112" s="47"/>
       <c r="E112" s="28"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="28"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
-      <c r="D113" s="45"/>
+      <c r="D113" s="47"/>
       <c r="E113" s="28"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="28"/>
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
-      <c r="D114" s="45"/>
+      <c r="D114" s="47"/>
       <c r="E114" s="28"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="28"/>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
-      <c r="D115" s="45"/>
+      <c r="D115" s="47"/>
       <c r="E115" s="28"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="28"/>
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
-      <c r="D116" s="45"/>
+      <c r="D116" s="47"/>
       <c r="E116" s="28"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
-      <c r="D117" s="45"/>
+      <c r="D117" s="47"/>
       <c r="E117" s="28"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="28"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
-      <c r="D118" s="45"/>
+      <c r="D118" s="47"/>
       <c r="E118" s="28"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="28"/>
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
-      <c r="D119" s="45"/>
+      <c r="D119" s="47"/>
       <c r="E119" s="28"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
-      <c r="D120" s="45"/>
+      <c r="D120" s="47"/>
       <c r="E120" s="28"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
-      <c r="D121" s="45"/>
+      <c r="D121" s="47"/>
       <c r="E121" s="28"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="28"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
-      <c r="D122" s="45"/>
+      <c r="D122" s="47"/>
       <c r="E122" s="28"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="28"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
-      <c r="D123" s="45"/>
+      <c r="D123" s="47"/>
       <c r="E123" s="28"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
-      <c r="D124" s="45"/>
+      <c r="D124" s="47"/>
       <c r="E124" s="28"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="28"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
-      <c r="D125" s="45"/>
+      <c r="D125" s="47"/>
       <c r="E125" s="28"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
-      <c r="D126" s="45"/>
+      <c r="D126" s="47"/>
       <c r="E126" s="28"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="28"/>
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
-      <c r="D127" s="45"/>
+      <c r="D127" s="47"/>
       <c r="E127" s="28"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
-      <c r="D128" s="45"/>
+      <c r="D128" s="47"/>
       <c r="E128" s="28"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
-      <c r="D129" s="45"/>
+      <c r="D129" s="47"/>
       <c r="E129" s="28"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
-      <c r="D130" s="45"/>
+      <c r="D130" s="47"/>
       <c r="E130" s="28"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
-      <c r="D131" s="45"/>
+      <c r="D131" s="47"/>
       <c r="E131" s="28"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="28"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
-      <c r="D132" s="45"/>
+      <c r="D132" s="47"/>
       <c r="E132" s="28"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
-      <c r="D133" s="45"/>
+      <c r="D133" s="47"/>
       <c r="E133" s="28"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="28"/>
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
-      <c r="D134" s="45"/>
+      <c r="D134" s="47"/>
       <c r="E134" s="28"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
-      <c r="D135" s="45"/>
+      <c r="D135" s="47"/>
       <c r="E135" s="28"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
-      <c r="D136" s="45"/>
+      <c r="D136" s="47"/>
       <c r="E136" s="28"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
-      <c r="D137" s="45"/>
+      <c r="D137" s="47"/>
       <c r="E137" s="28"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
-      <c r="D138" s="45"/>
+      <c r="D138" s="47"/>
       <c r="E138" s="28"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
-      <c r="D139" s="45"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="28"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
-      <c r="D140" s="45"/>
+      <c r="D140" s="47"/>
       <c r="E140" s="28"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
-      <c r="D141" s="45"/>
+      <c r="D141" s="47"/>
       <c r="E141" s="28"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
-      <c r="D142" s="45"/>
+      <c r="D142" s="47"/>
       <c r="E142" s="28"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
-      <c r="D143" s="45"/>
+      <c r="D143" s="47"/>
       <c r="E143" s="28"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
-      <c r="D144" s="45"/>
+      <c r="D144" s="47"/>
       <c r="E144" s="28"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
-      <c r="D145" s="45"/>
+      <c r="D145" s="47"/>
       <c r="E145" s="28"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
-      <c r="D146" s="45"/>
+      <c r="D146" s="47"/>
       <c r="E146" s="28"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
-      <c r="D147" s="45"/>
+      <c r="D147" s="47"/>
       <c r="E147" s="28"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
-      <c r="D148" s="45"/>
+      <c r="D148" s="47"/>
       <c r="E148" s="28"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
-      <c r="D149" s="45"/>
+      <c r="D149" s="47"/>
       <c r="E149" s="28"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
-      <c r="D150" s="45"/>
+      <c r="D150" s="47"/>
       <c r="E150" s="28"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
-      <c r="D151" s="45"/>
+      <c r="D151" s="47"/>
       <c r="E151" s="28"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
-      <c r="D152" s="45"/>
+      <c r="D152" s="47"/>
       <c r="E152" s="28"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
-      <c r="D153" s="45"/>
+      <c r="D153" s="47"/>
       <c r="E153" s="28"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
-      <c r="D154" s="45"/>
+      <c r="D154" s="47"/>
       <c r="E154" s="28"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
-      <c r="D155" s="45"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="28"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
-      <c r="D156" s="45"/>
+      <c r="D156" s="47"/>
       <c r="E156" s="28"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
-      <c r="D157" s="45"/>
+      <c r="D157" s="47"/>
       <c r="E157" s="28"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
-      <c r="D158" s="45"/>
+      <c r="D158" s="47"/>
       <c r="E158" s="28"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
-      <c r="D159" s="45"/>
+      <c r="D159" s="47"/>
       <c r="E159" s="28"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
-      <c r="D160" s="45"/>
+      <c r="D160" s="47"/>
       <c r="E160" s="28"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
-      <c r="D161" s="45"/>
+      <c r="D161" s="47"/>
       <c r="E161" s="28"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
-      <c r="D162" s="45"/>
+      <c r="D162" s="47"/>
       <c r="E162" s="28"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
-      <c r="D163" s="45"/>
+      <c r="D163" s="47"/>
       <c r="E163" s="28"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
-      <c r="D164" s="45"/>
+      <c r="D164" s="47"/>
       <c r="E164" s="28"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
-      <c r="D165" s="45"/>
+      <c r="D165" s="47"/>
       <c r="E165" s="28"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
-      <c r="D166" s="45"/>
+      <c r="D166" s="47"/>
       <c r="E166" s="28"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
-      <c r="D167" s="45"/>
+      <c r="D167" s="47"/>
       <c r="E167" s="28"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
-      <c r="D168" s="45"/>
+      <c r="D168" s="47"/>
       <c r="E168" s="28"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
-      <c r="D169" s="45"/>
+      <c r="D169" s="47"/>
       <c r="E169" s="28"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
-      <c r="D170" s="45"/>
+      <c r="D170" s="47"/>
       <c r="E170" s="28"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
-      <c r="D171" s="45"/>
+      <c r="D171" s="47"/>
       <c r="E171" s="28"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
-      <c r="D172" s="45"/>
+      <c r="D172" s="47"/>
       <c r="E172" s="28"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
-      <c r="D173" s="45"/>
+      <c r="D173" s="47"/>
       <c r="E173" s="28"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
-      <c r="D174" s="45"/>
+      <c r="D174" s="47"/>
       <c r="E174" s="28"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
-      <c r="D175" s="45"/>
+      <c r="D175" s="47"/>
       <c r="E175" s="28"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
-      <c r="D176" s="45"/>
+      <c r="D176" s="47"/>
       <c r="E176" s="28"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
-      <c r="D177" s="45"/>
+      <c r="D177" s="47"/>
       <c r="E177" s="28"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
-      <c r="D178" s="45"/>
+      <c r="D178" s="47"/>
       <c r="E178" s="28"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
-      <c r="D179" s="45"/>
+      <c r="D179" s="47"/>
       <c r="E179" s="28"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
-      <c r="D180" s="45"/>
+      <c r="D180" s="47"/>
       <c r="E180" s="28"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
-      <c r="D181" s="45"/>
+      <c r="D181" s="47"/>
       <c r="E181" s="28"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
-      <c r="D182" s="45"/>
+      <c r="D182" s="47"/>
       <c r="E182" s="28"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
-      <c r="D183" s="45"/>
+      <c r="D183" s="47"/>
       <c r="E183" s="28"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="28"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
-      <c r="D184" s="45"/>
+      <c r="D184" s="47"/>
       <c r="E184" s="28"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="28"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
-      <c r="D185" s="45"/>
+      <c r="D185" s="47"/>
       <c r="E185" s="28"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="28"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
-      <c r="D186" s="45"/>
+      <c r="D186" s="47"/>
       <c r="E186" s="28"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="28"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
-      <c r="D187" s="45"/>
+      <c r="D187" s="47"/>
       <c r="E187" s="28"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="28"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
-      <c r="D188" s="45"/>
+      <c r="D188" s="47"/>
       <c r="E188" s="28"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="28"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
-      <c r="D189" s="45"/>
+      <c r="D189" s="47"/>
       <c r="E189" s="28"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="28"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
-      <c r="D190" s="45"/>
+      <c r="D190" s="47"/>
       <c r="E190" s="28"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="28"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
-      <c r="D191" s="45"/>
+      <c r="D191" s="47"/>
       <c r="E191" s="28"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
-      <c r="D192" s="45"/>
+      <c r="D192" s="47"/>
       <c r="E192" s="28"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="28"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
-      <c r="D193" s="45"/>
+      <c r="D193" s="47"/>
       <c r="E193" s="28"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="28"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
-      <c r="D194" s="45"/>
+      <c r="D194" s="47"/>
       <c r="E194" s="28"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="28"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
-      <c r="D195" s="45"/>
+      <c r="D195" s="47"/>
       <c r="E195" s="28"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="28"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
-      <c r="D196" s="45"/>
+      <c r="D196" s="47"/>
       <c r="E196" s="28"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="28"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
-      <c r="D197" s="45"/>
+      <c r="D197" s="47"/>
       <c r="E197" s="28"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="28"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
-      <c r="D198" s="45"/>
+      <c r="D198" s="47"/>
       <c r="E198" s="28"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="28"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
-      <c r="D199" s="45"/>
+      <c r="D199" s="47"/>
       <c r="E199" s="28"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="28"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
-      <c r="D200" s="45"/>
+      <c r="D200" s="47"/>
       <c r="E200" s="28"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="28"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
-      <c r="D201" s="45"/>
+      <c r="D201" s="47"/>
       <c r="E201" s="28"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="28"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
-      <c r="D202" s="45"/>
+      <c r="D202" s="47"/>
       <c r="E202" s="28"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="28"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
-      <c r="D203" s="45"/>
+      <c r="D203" s="47"/>
       <c r="E203" s="28"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="28"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
-      <c r="D204" s="45"/>
+      <c r="D204" s="47"/>
       <c r="E204" s="28"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="28"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
-      <c r="D205" s="45"/>
+      <c r="D205" s="47"/>
       <c r="E205" s="28"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="28"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
-      <c r="D206" s="45"/>
+      <c r="D206" s="47"/>
       <c r="E206" s="28"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="28"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
-      <c r="D207" s="45"/>
+      <c r="D207" s="47"/>
       <c r="E207" s="28"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="28"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
-      <c r="D208" s="45"/>
+      <c r="D208" s="47"/>
       <c r="E208" s="28"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="28"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
-      <c r="D209" s="45"/>
+      <c r="D209" s="47"/>
       <c r="E209" s="28"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="28"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
-      <c r="D210" s="45"/>
+      <c r="D210" s="47"/>
       <c r="E210" s="28"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="28"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
-      <c r="D211" s="45"/>
+      <c r="D211" s="47"/>
       <c r="E211" s="28"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="28"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
-      <c r="D212" s="45"/>
+      <c r="D212" s="47"/>
       <c r="E212" s="28"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="28"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
-      <c r="D213" s="45"/>
+      <c r="D213" s="47"/>
       <c r="E213" s="28"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="28"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
-      <c r="D214" s="45"/>
+      <c r="D214" s="47"/>
       <c r="E214" s="28"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="28"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
-      <c r="D215" s="45"/>
+      <c r="D215" s="47"/>
       <c r="E215" s="28"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="28"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
-      <c r="D216" s="45"/>
+      <c r="D216" s="47"/>
       <c r="E216" s="28"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="28"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
-      <c r="D217" s="45"/>
+      <c r="D217" s="47"/>
       <c r="E217" s="28"/>
     </row>
     <row r="218" ht="12.75" customHeight="1"/>
@@ -13337,404 +13535,404 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>293</v>
+      <c r="A1" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>295</v>
+      <c r="A2" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>297</v>
+      <c r="A3" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>299</v>
+      <c r="A4" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>302</v>
+      <c r="A5" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>304</v>
+      <c r="A6" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>307</v>
+      <c r="A7" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>309</v>
+      <c r="A8" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>311</v>
+      <c r="A9" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>313</v>
+      <c r="A10" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>316</v>
+      <c r="A11" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>318</v>
+      <c r="A12" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>320</v>
+      <c r="A13" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>322</v>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>324</v>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>326</v>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>328</v>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>279</v>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>331</v>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>333</v>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>335</v>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>337</v>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>339</v>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>341</v>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>343</v>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>345</v>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="C27" s="36"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" s="38"/>
     </row>
     <row r="28">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="C28" s="36"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28" s="38"/>
     </row>
     <row r="29">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="C29" s="36"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="38"/>
     </row>
     <row r="30">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="C30" s="36"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="38"/>
     </row>
     <row r="31">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="C31" s="36"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="38"/>
     </row>
     <row r="32">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C32" s="36"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="38"/>
     </row>
     <row r="33">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="C33" s="36"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="38"/>
     </row>
     <row r="34">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="C34" s="36"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="38"/>
     </row>
     <row r="35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="C35" s="36"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="38"/>
     </row>
     <row r="36">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="C36" s="36"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="38"/>
     </row>
     <row r="37">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="C37" s="36"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="38"/>
     </row>
     <row r="38">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="C38" s="36"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" s="38"/>
     </row>
     <row r="39">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="C39" s="36"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="38"/>
     </row>
     <row r="40">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="C40" s="36"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="38"/>
     </row>
     <row r="41">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="36"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" s="38"/>
     </row>
     <row r="42">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="C42" s="36"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="38"/>
     </row>
     <row r="43">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="C43" s="36"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C43" s="38"/>
     </row>
     <row r="44">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="C44" s="36"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" s="38"/>
     </row>
     <row r="45">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="C45" s="36"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="C45" s="38"/>
     </row>
     <row r="46">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C46" s="36"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/docs/how-to-configure/sparnatural-car-configuration.xlsx
+++ b/docs/how-to-configure/sparnatural-car-configuration.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <r>
       <rPr>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">This is the identifier of the class in the OWL ontology to which the entity in the configuration corresponds. This column will use the prefix of your ontology declared in the "prefixes" tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always set sh:IRI unless the NodeShape you declare is actually used to represent literal nodes, in which case use sh:Literal</t>
   </si>
   <si>
     <t xml:space="preserve">English label that will be displayed in Sparnatural.</t>
@@ -1497,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1609,6 +1612,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3449,24 +3455,26 @@
       <c r="E8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="G8" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -3491,40 +3499,40 @@
     </row>
     <row r="9" ht="25.5">
       <c r="A9" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
@@ -3549,136 +3557,136 @@
     </row>
     <row r="10" ht="25.5">
       <c r="A10" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="31">
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="34"/>
     </row>
     <row r="11" ht="51">
       <c r="A11" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="31">
         <v>2</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" ht="89.25">
       <c r="A12" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="31">
         <v>3</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" ht="51">
       <c r="A13" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="31">
         <v>4</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="31" t="b">
@@ -3707,34 +3715,34 @@
     </row>
     <row r="14" ht="51">
       <c r="A14" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="31">
         <v>5</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="7"/>
@@ -3761,34 +3769,34 @@
     </row>
     <row r="15" ht="51">
       <c r="A15" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="31">
         <v>6</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="7" t="b">
@@ -3817,60 +3825,60 @@
     </row>
     <row r="16" ht="25.5">
       <c r="A16" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="7">
         <v>7</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" ht="25.5">
       <c r="A17" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" s="7">
         <v>8</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -3879,32 +3887,32 @@
     </row>
     <row r="18" ht="25.5">
       <c r="A18" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" s="7">
         <v>9</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="7"/>
@@ -6527,14 +6535,13 @@
     <col customWidth="1" hidden="1" min="6" max="6" width="14.25"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="45.130000000000003"/>
     <col customWidth="1" hidden="1" min="8" max="8" width="40.880000000000003"/>
-    <col customWidth="1" hidden="1" min="9" max="10" width="14.25"/>
-    <col customWidth="1" min="11" max="12" width="14.25"/>
+    <col customWidth="1" hidden="1" min="9" max="12" width="14.25"/>
     <col customWidth="1" min="13" max="13" width="16.57421875"/>
-    <col customWidth="1" min="14" max="14" width="14.25"/>
-    <col customWidth="1" min="15" max="15" width="27.7109375"/>
-    <col customWidth="1" min="16" max="16" width="14.25"/>
-    <col customWidth="1" min="17" max="17" width="30.57421875"/>
-    <col customWidth="1" min="18" max="18" width="20.8515625"/>
+    <col customWidth="1" hidden="1" min="14" max="14" width="14.25"/>
+    <col customWidth="1" hidden="1" min="15" max="15" width="27.7109375"/>
+    <col customWidth="1" hidden="1" min="16" max="16" width="14.25"/>
+    <col customWidth="1" hidden="1" min="17" max="17" width="30.57421875"/>
+    <col customWidth="1" hidden="1" min="18" max="18" width="20.8515625"/>
     <col customWidth="1" min="19" max="19" width="20.7109375"/>
     <col customWidth="1" min="20" max="20" width="20.57421875"/>
     <col customWidth="1" min="21" max="21" width="23.8515625"/>
@@ -6553,7 +6560,7 @@
         <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -6630,76 +6637,76 @@
     </row>
     <row r="6" ht="191.25">
       <c r="A6" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W6" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X6" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="29"/>
@@ -6708,76 +6715,76 @@
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U7" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X7" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
@@ -6786,7 +6793,7 @@
     </row>
     <row r="8" ht="15.75">
       <c r="A8" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="51"/>
@@ -6823,26 +6830,26 @@
         <v>this:Vehicle_VIN</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
         <f>D8+1</f>
         <v>1</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I9" s="40">
         <v>1</v>
@@ -6851,18 +6858,18 @@
         <v>1</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
       <c r="O9" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
@@ -6884,25 +6891,25 @@
         <v>this:Vehicle_hasManufacturer</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="35">
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I10" s="40">
         <v>1</v>
@@ -6911,15 +6918,15 @@
         <v>1</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
@@ -6940,41 +6947,41 @@
     </row>
     <row r="11" ht="25.5">
       <c r="A11" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="17" t="s">
         <v>173</v>
       </c>
+      <c r="B11" s="55" t="s">
+        <v>174</v>
+      </c>
       <c r="C11" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="35">
         <v>3</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="35"/>
@@ -6999,19 +7006,19 @@
         <v>this:Vehicle_weightInKg</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="35">
         <v>4</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="54"/>
@@ -7022,15 +7029,15 @@
         <v>1</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="35"/>
@@ -7051,7 +7058,7 @@
     </row>
     <row r="13" ht="15.75">
       <c r="A13" s="49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -7088,25 +7095,25 @@
         <v>this:Manufacturer_name</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="35">
         <v>1</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I14" s="35">
         <v>1</v>
@@ -7115,18 +7122,18 @@
         <v>1</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
@@ -7144,7 +7151,7 @@
     </row>
     <row r="15" ht="15.75">
       <c r="A15" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7181,25 +7188,25 @@
         <v>this:Diagnostic_diagnosticDate</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="35">
         <v>1</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I16" s="35">
         <v>1</v>
@@ -7208,15 +7215,15 @@
         <v>1</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -7241,25 +7248,25 @@
         <v>this:Diagnostic_analysedVehicle</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="35">
         <v>2</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I17" s="35">
         <v>1</v>
@@ -7268,18 +7275,18 @@
         <v>1</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -7300,37 +7307,37 @@
         <v>this:Diagnostic_hasResults</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="35">
         <v>3</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
@@ -7353,25 +7360,25 @@
         <v>this:Diagnostic_diagnosticPlace</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="35">
         <v>4</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I19" s="35">
         <v>1</v>
@@ -7380,15 +7387,15 @@
         <v>1</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
@@ -7407,41 +7414,41 @@
     </row>
     <row r="20" ht="25.5">
       <c r="A20" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="35">
         <v>5</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L20" s="35"/>
       <c r="M20" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N20" s="32"/>
       <c r="O20" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -7460,7 +7467,7 @@
     </row>
     <row r="21" ht="15.75">
       <c r="A21" s="49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -7497,42 +7504,42 @@
         <v>this:Error_alreadyRaised</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="35">
         <v>1</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35">
         <v>1</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -7559,25 +7566,25 @@
         <v>this:Error_hasErrorCode</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="35">
         <v>2</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I23" s="35">
         <v>1</v>
@@ -7586,15 +7593,15 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N23" s="32"/>
       <c r="O23" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -7615,7 +7622,7 @@
     </row>
     <row r="24" ht="15.75">
       <c r="A24" s="49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -7652,10 +7659,10 @@
         <v>this:ErrorCode_errorCode</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="35">
         <v>1</v>
@@ -7671,18 +7678,18 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3" t="b">
@@ -7706,42 +7713,42 @@
         <v>this:ErrorCode_hasSymptom</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="35">
         <v>1</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P26" s="35"/>
-      <c r="Q26" s="55" t="s">
-        <v>239</v>
+      <c r="Q26" s="56" t="s">
+        <v>240</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="35"/>
@@ -7764,44 +7771,44 @@
         <v>this:ErrorCode_hasComponent</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="35">
         <v>2</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="35"/>
       <c r="M27" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P27" s="35"/>
-      <c r="Q27" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="R27" s="55"/>
+      <c r="Q27" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="R27" s="56"/>
       <c r="S27" s="35"/>
       <c r="T27" s="3" t="b">
         <v>1</v>
@@ -7818,41 +7825,41 @@
     </row>
     <row r="28" ht="25.5">
       <c r="A28" s="40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="35">
         <v>3</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N28" s="32"/>
       <c r="O28" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
@@ -7862,11 +7869,11 @@
         <v>1</v>
       </c>
       <c r="U28" s="35"/>
-      <c r="V28" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="W28" s="56" t="s">
+      <c r="V28" s="57" t="s">
         <v>251</v>
+      </c>
+      <c r="W28" s="57" t="s">
+        <v>252</v>
       </c>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -7877,7 +7884,7 @@
     </row>
     <row r="29" ht="15.75">
       <c r="A29" s="49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -7914,25 +7921,25 @@
         <v>this:Symptom_label</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="35">
         <v>1</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I30" s="35">
         <v>1</v>
@@ -7941,18 +7948,18 @@
         <v>1</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P30" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
@@ -7970,7 +7977,7 @@
     </row>
     <row r="31" ht="15.75">
       <c r="A31" s="49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -8007,25 +8014,25 @@
         <v>this:Component_componentCode</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="35">
         <v>1</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I32" s="35">
         <v>1</v>
@@ -8034,15 +8041,15 @@
         <v>1</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
@@ -8067,43 +8074,43 @@
         <v>this:Component_label</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="35">
         <v>2</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I33" s="35">
         <v>1</v>
       </c>
       <c r="J33" s="35"/>
       <c r="K33" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="3" t="b">
@@ -8125,41 +8132,41 @@
     </row>
     <row r="34" ht="25.5">
       <c r="A34" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" s="17" t="s">
         <v>266</v>
       </c>
+      <c r="B34" s="55" t="s">
+        <v>267</v>
+      </c>
       <c r="C34" s="54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="35">
         <v>3</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
       <c r="K34" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
       <c r="N34" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
@@ -9851,18 +9858,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58" t="str">
+      <c r="B1" s="59" t="str">
         <f>Entities!B1</f>
         <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>114</v>
+      <c r="C1" s="60" t="s">
+        <v>115</v>
       </c>
       <c r="D1" s="28"/>
-      <c r="E1" s="59"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -9880,66 +9887,66 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" ht="91.5" customHeight="1">
-      <c r="A3" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>276</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>277</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="F4" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>281</v>
+        <v>202</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>282</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -9947,14 +9954,14 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" ht="276" customHeight="1">
-      <c r="A6" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>283</v>
+      <c r="A6" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>284</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="35"/>
@@ -9964,14 +9971,14 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" ht="315" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>281</v>
+      <c r="A7" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>282</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -9981,14 +9988,14 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" ht="333.75" customHeight="1">
-      <c r="A8" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>281</v>
+      <c r="A8" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>282</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -9999,7 +10006,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -10010,7 +10017,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -10021,7 +10028,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="59"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -10032,7 +10039,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -10043,7 +10050,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -10054,7 +10061,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="59"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -10065,7 +10072,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="59"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -10076,7 +10083,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="59"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -10087,7 +10094,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="59"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -10098,7 +10105,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="59"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -10109,7 +10116,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -10120,7 +10127,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -10131,7 +10138,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="28"/>
-      <c r="B21" s="59"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -10142,7 +10149,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="28"/>
-      <c r="B22" s="59"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -10153,7 +10160,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="28"/>
-      <c r="B23" s="59"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -10164,7 +10171,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="28"/>
-      <c r="B24" s="59"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -11176,17 +11183,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58" t="str">
+      <c r="B1" s="59" t="str">
         <f>Entities!B1</f>
         <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="68"/>
+      <c r="C1" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="69"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -11204,144 +11211,144 @@
       <c r="E3" s="28"/>
     </row>
     <row r="4" ht="58.5" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>288</v>
       </c>
+      <c r="C4" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>289</v>
+      </c>
       <c r="E4" s="28"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="E5" s="63"/>
+      <c r="C5" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" ht="160.5" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="59" t="s">
         <v>291</v>
       </c>
+      <c r="B6" s="60" t="s">
+        <v>292</v>
+      </c>
       <c r="C6" s="47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E6" s="28"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="59"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="28"/>
       <c r="D7" s="47"/>
       <c r="E7" s="28"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="59"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="28"/>
       <c r="D8" s="47"/>
       <c r="E8" s="28"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="28"/>
       <c r="D9" s="47"/>
       <c r="E9" s="28"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="28"/>
       <c r="D10" s="47"/>
       <c r="E10" s="28"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="59"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="28"/>
       <c r="D11" s="47"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="28"/>
       <c r="D12" s="47"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="28"/>
       <c r="D13" s="47"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="59"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="28"/>
       <c r="D14" s="47"/>
       <c r="E14" s="28"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="59"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="28"/>
       <c r="D15" s="47"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="59"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="28"/>
       <c r="D16" s="47"/>
       <c r="E16" s="28"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="59"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="28"/>
       <c r="D17" s="47"/>
       <c r="E17" s="28"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="59"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="28"/>
       <c r="D18" s="47"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="28"/>
       <c r="D19" s="47"/>
       <c r="E19" s="28"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="28"/>
       <c r="D20" s="47"/>
       <c r="E20" s="28"/>
@@ -13535,402 +13542,402 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>296</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="38"/>
       <c r="B14" s="38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38"/>
       <c r="B15" s="38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38"/>
       <c r="B16" s="38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38"/>
       <c r="B17" s="38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38"/>
       <c r="B18" s="38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="38"/>
       <c r="B19" s="38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="38"/>
       <c r="B20" s="38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="38"/>
       <c r="B21" s="38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="38"/>
       <c r="B22" s="38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38"/>
       <c r="B23" s="38" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38"/>
       <c r="B24" s="38" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="38"/>
       <c r="B25" s="38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38"/>
       <c r="B26" s="38" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="38"/>
       <c r="B27" s="38" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C27" s="38"/>
     </row>
     <row r="28">
       <c r="A28" s="38"/>
       <c r="B28" s="38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C28" s="38"/>
     </row>
     <row r="29">
       <c r="A29" s="38"/>
       <c r="B29" s="38" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C29" s="38"/>
     </row>
     <row r="30">
       <c r="A30" s="38"/>
       <c r="B30" s="38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C30" s="38"/>
     </row>
     <row r="31">
       <c r="A31" s="38"/>
       <c r="B31" s="38" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C31" s="38"/>
     </row>
     <row r="32">
       <c r="A32" s="38"/>
       <c r="B32" s="38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C32" s="38"/>
     </row>
     <row r="33">
       <c r="A33" s="38"/>
       <c r="B33" s="38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C33" s="38"/>
     </row>
     <row r="34">
       <c r="A34" s="38"/>
       <c r="B34" s="38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C34" s="38"/>
     </row>
     <row r="35">
       <c r="A35" s="38"/>
       <c r="B35" s="38" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C35" s="38"/>
     </row>
     <row r="36">
       <c r="A36" s="38"/>
       <c r="B36" s="38" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C36" s="38"/>
     </row>
     <row r="37">
       <c r="A37" s="38"/>
       <c r="B37" s="38" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C37" s="38"/>
     </row>
     <row r="38">
       <c r="A38" s="38"/>
       <c r="B38" s="38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C38" s="38"/>
     </row>
     <row r="39">
       <c r="A39" s="38"/>
       <c r="B39" s="38" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C39" s="38"/>
     </row>
     <row r="40">
       <c r="A40" s="38"/>
       <c r="B40" s="38" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="38"/>
     </row>
     <row r="41">
       <c r="A41" s="38"/>
       <c r="B41" s="38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C41" s="38"/>
     </row>
     <row r="42">
       <c r="A42" s="38"/>
       <c r="B42" s="38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C42" s="38"/>
     </row>
     <row r="43">
       <c r="A43" s="38"/>
       <c r="B43" s="38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C43" s="38"/>
     </row>
     <row r="44">
       <c r="A44" s="38"/>
       <c r="B44" s="38" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C44" s="38"/>
     </row>
     <row r="45">
       <c r="A45" s="38"/>
       <c r="B45" s="38" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C45" s="38"/>
     </row>
     <row r="46">
       <c r="A46" s="38"/>
       <c r="B46" s="38" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C46" s="38"/>
     </row>

--- a/docs/how-to-configure/sparnatural-car-configuration.xlsx
+++ b/docs/how-to-configure/sparnatural-car-configuration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <r>
       <rPr>
@@ -199,6 +199,12 @@
     <t xml:space="preserve">Set this column to TRUE if you want to hide the entity from the very first list in the Sparnatural interface.</t>
   </si>
   <si>
+    <t xml:space="preserve">Advanced use-case : iIndicate a target identifier only if you need to map the NodeShape with a SPARQL target in the sh:select column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the entity is mapped to a selection of entities using a SPARQL query, write the SPARQL in this column. The SPARQL query must NOT use prefixes and must return the ressources in the $this variable</t>
+  </si>
+  <si>
     <t>URI</t>
   </si>
   <si>
@@ -235,6 +241,12 @@
     <t>sh:deactivated^^xsd:boolean</t>
   </si>
   <si>
+    <t>sh:target</t>
+  </si>
+  <si>
+    <t>sh:select(subjectColumn="sh:target")</t>
+  </si>
+  <si>
     <t>this:Vehicle</t>
   </si>
   <si>
@@ -419,6 +431,27 @@
   </si>
   <si>
     <t xml:space="preserve">Sélectionnez cette entrée pour rechercher sur les libellés et les descriptions</t>
+  </si>
+  <si>
+    <t>this:RootComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Components at the top of components tree</t>
+  </si>
+  <si>
+    <t>this:RootComponent-target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT $this
+WHERE {
+  $this a &lt;http://example.com/ontology/odb#Component&gt; .
+  FILTER NOT EXISTS {
+    $this &lt;http://example.com/ontology/odb#parentComponent&gt; ?parent
+  }
+}</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;--- Don't touch this cell</t>
@@ -893,6 +926,27 @@
   </si>
   <si>
     <t xml:space="preserve">Permet de rechercher un libellé ou un code.</t>
+  </si>
+  <si>
+    <t>this:RootComponent_criticity</t>
+  </si>
+  <si>
+    <t>odb:criticity</t>
+  </si>
+  <si>
+    <t>criticity</t>
+  </si>
+  <si>
+    <t>criticité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cricity of the component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticité du composant</t>
+  </si>
+  <si>
+    <t>xsd:byte</t>
   </si>
   <si>
     <t xml:space="preserve">URI of the datasource in the configuration. This is the value that should be referenced from the "datasources:datasource" column in the properties tab</t>
@@ -1281,7 +1335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -1380,9 +1434,19 @@
       <name val="Arial"/>
     </font>
     <font>
+      <i/>
+      <sz val="10.000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.000000"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1405,7 +1469,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.000000"/>
+      <sz val="10.000000"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
@@ -1488,7 +1552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -1496,11 +1560,56 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1559,29 +1668,37 @@
     <xf fontId="18" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="19" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="20" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="21" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="21" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="12" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1589,39 +1706,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="7" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="20" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="24" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="22" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="20" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="20" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="22" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="25" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="26" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="25" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="27" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1629,22 +1746,22 @@
     <xf fontId="13" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="26" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="28" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="20" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="19" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="20" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="27" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="29" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="24" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="26" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="26" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3319,17 +3436,19 @@
   <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.00390625"/>
-    <col customWidth="1" min="2" max="2" width="22.129999999999999"/>
-    <col customWidth="1" min="3" max="3" width="27.57421875"/>
-    <col customWidth="1" min="4" max="4" width="23.28125"/>
-    <col customWidth="1" min="5" max="6" width="20.140625"/>
+    <col customWidth="1" hidden="1" min="2" max="2" width="22.129999999999999"/>
+    <col customWidth="1" hidden="1" min="3" max="3" width="27.57421875"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="23.28125"/>
+    <col customWidth="1" hidden="1" min="5" max="6" width="20.140625"/>
     <col customWidth="1" min="7" max="7" width="18.28125"/>
     <col customWidth="1" min="8" max="8" width="26.00390625"/>
     <col customWidth="1" min="9" max="9" width="36.8515625"/>
     <col customWidth="1" min="10" max="10" width="39.140625"/>
     <col customWidth="1" min="11" max="11" style="17" width="43.00390625"/>
     <col customWidth="1" min="12" max="12" width="35.5"/>
-    <col customWidth="1" min="13" max="32" width="11.5"/>
+    <col customWidth="1" min="13" max="13" width="26.140625"/>
+    <col customWidth="1" min="14" max="14" width="63.28125"/>
+    <col customWidth="1" min="15" max="32" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -3439,7 +3558,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" ht="127.5">
+    <row r="8" ht="109.5" customHeight="1">
       <c r="A8" s="29" t="s">
         <v>29</v>
       </c>
@@ -3476,8 +3595,12 @@
       <c r="L8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="M8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -3498,305 +3621,309 @@
       <c r="AF8" s="29"/>
     </row>
     <row r="9" ht="25.5">
-      <c r="A9" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="H9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="I9" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="J9" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
+      <c r="K9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
     </row>
     <row r="10" ht="25.5">
-      <c r="A10" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="A10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="32" t="s">
+      <c r="C10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="D10" s="34" t="s">
         <v>59</v>
       </c>
+      <c r="E10" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="I10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" ht="51">
+      <c r="A11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" ht="51">
-      <c r="A11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="31">
-        <v>2</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>68</v>
+      <c r="G11" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="35"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" ht="89.25">
-      <c r="A12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="31">
+      <c r="A12" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="34">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="D12" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>75</v>
       </c>
+      <c r="F12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" ht="51">
-      <c r="A13" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="31">
+      <c r="A13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="34">
         <v>4</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      <c r="C13" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="D13" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>82</v>
       </c>
+      <c r="F13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>86</v>
+      </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="31" t="b">
+      <c r="L13" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
     </row>
     <row r="14" ht="51">
-      <c r="A14" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="31">
+      <c r="A14" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="34">
         <v>5</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="D14" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>89</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
     </row>
     <row r="15" ht="51">
-      <c r="A15" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="31">
+      <c r="A15" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="34">
         <v>6</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="33" t="s">
+      <c r="C15" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="D15" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>96</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="7" t="b">
@@ -3824,110 +3951,136 @@
       <c r="AF15" s="28"/>
     </row>
     <row r="16" ht="25.5">
-      <c r="A16" s="40" t="s">
-        <v>97</v>
+      <c r="A16" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="B16" s="7">
         <v>7</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="39" t="s">
+      <c r="C16" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="D16" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>103</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>107</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" ht="25.5">
-      <c r="A17" s="40" t="s">
-        <v>104</v>
+    <row r="17" ht="14.25">
+      <c r="A17" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="B17" s="7">
         <v>8</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="C17" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="17"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" ht="25.5">
-      <c r="A18" s="40" t="s">
-        <v>109</v>
+      <c r="A18" s="42" t="s">
+        <v>113</v>
       </c>
       <c r="B18" s="7">
         <v>9</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>114</v>
+      <c r="G18" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" ht="15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+    <row r="19" ht="89.25">
+      <c r="A19" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="7">
+        <v>10</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="7"/>
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" ht="15">
       <c r="A20" s="28"/>
@@ -6520,7 +6673,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
@@ -6529,21 +6682,21 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="33.421875"/>
     <col customWidth="1" min="2" max="2" width="30.140625"/>
-    <col customWidth="1" min="3" max="3" width="20.7109375"/>
+    <col customWidth="1" hidden="1" min="3" max="3" width="20.7109375"/>
     <col customWidth="1" hidden="1" min="4" max="4" width="13.28125"/>
     <col customWidth="1" min="5" max="5" width="20.140625"/>
     <col customWidth="1" hidden="1" min="6" max="6" width="14.25"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="45.130000000000003"/>
     <col customWidth="1" hidden="1" min="8" max="8" width="40.880000000000003"/>
     <col customWidth="1" hidden="1" min="9" max="12" width="14.25"/>
-    <col customWidth="1" min="13" max="13" width="16.57421875"/>
+    <col customWidth="1" hidden="1" min="13" max="13" width="16.57421875"/>
     <col customWidth="1" hidden="1" min="14" max="14" width="14.25"/>
     <col customWidth="1" hidden="1" min="15" max="15" width="27.7109375"/>
     <col customWidth="1" hidden="1" min="16" max="16" width="14.25"/>
-    <col customWidth="1" hidden="1" min="17" max="17" width="30.57421875"/>
+    <col customWidth="1" min="17" max="17" width="30.57421875"/>
     <col customWidth="1" hidden="1" min="18" max="18" width="20.8515625"/>
-    <col customWidth="1" min="19" max="19" width="20.7109375"/>
-    <col customWidth="1" min="20" max="20" width="20.57421875"/>
+    <col customWidth="1" hidden="1" min="19" max="19" width="20.7109375"/>
+    <col customWidth="1" hidden="1" min="20" max="20" width="20.57421875"/>
     <col customWidth="1" min="21" max="21" width="23.8515625"/>
     <col customWidth="1" min="22" max="22" width="24.00390625"/>
     <col customWidth="1" min="23" max="23" width="22.7109375"/>
@@ -6552,21 +6705,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="44" t="str">
         <f>Entities!B1</f>
         <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
@@ -6578,11 +6731,11 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
@@ -6594,11 +6747,11 @@
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
@@ -6610,11 +6763,11 @@
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -6627,7 +6780,7 @@
       <c r="B5" s="28"/>
       <c r="C5" s="22"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="49"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -6635,78 +6788,78 @@
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
-    <row r="6" ht="191.25">
+    <row r="6" ht="191.25" hidden="1">
       <c r="A6" s="29" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="W6" s="29" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="X6" s="29" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="29"/>
@@ -6714,1486 +6867,1557 @@
       <c r="AB6" s="29"/>
     </row>
     <row r="7" ht="25.5">
-      <c r="A7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" s="30" t="s">
+      <c r="A7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="F7" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="T7" s="30" t="s">
+      <c r="I7" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="U7" s="30" t="s">
+      <c r="J7" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="V7" s="30" t="s">
+      <c r="K7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="M7" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="X7" s="30" t="s">
+      <c r="N7" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
+      <c r="O7" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
     </row>
     <row r="8" ht="15.75">
-      <c r="A8" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
+      <c r="A8" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
     </row>
     <row r="9" ht="25.5">
-      <c r="A9" s="40" t="str">
+      <c r="A9" s="42" t="str">
         <f>CONCATENATE("this:",RIGHT(C9,LEN(C9)-SEARCH(":",C9)),"_",RIGHT(B9,LEN(B9)-SEARCH(":",B9)))</f>
         <v>this:Vehicle_VIN</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>53</v>
+      <c r="B9" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="7">
         <f>D8+1</f>
         <v>1</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="40">
+      <c r="E9" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="42">
         <v>1</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="42">
         <v>1</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
+      <c r="K9" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="40" t="str">
+      <c r="A10" s="42" t="str">
         <f>CONCATENATE("this:",RIGHT(C10,LEN(C10)-SEARCH(":",C10)),"_",RIGHT(B10,LEN(B10)-SEARCH(":",B10)))</f>
         <v>this:Vehicle_hasManufacturer</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="B10" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="38">
         <v>2</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="40">
+      <c r="E10" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="42">
         <v>1</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="42">
         <v>1</v>
       </c>
-      <c r="K10" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="35"/>
+      <c r="K10" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="38"/>
       <c r="M10" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="35"/>
+      <c r="O10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="38"/>
       <c r="T10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
     </row>
     <row r="11" ht="25.5">
-      <c r="A11" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="A11" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="38">
         <v>3</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="35"/>
+      <c r="E11" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="38"/>
       <c r="M11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
+      <c r="O11" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
       <c r="T11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="40" t="str">
+      <c r="A12" s="42" t="str">
         <f>CONCATENATE("this:",RIGHT(C12,LEN(C12)-SEARCH(":",C12)),"_",RIGHT(B12,LEN(B12)-SEARCH(":",B12)))</f>
         <v>this:Vehicle_weightInKg</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="B12" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="38">
         <v>4</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="35">
+      <c r="E12" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="38">
         <v>1</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="38">
         <v>1</v>
       </c>
-      <c r="K12" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>183</v>
+      <c r="K12" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
+      <c r="O12" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
       <c r="T12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
     </row>
     <row r="13" ht="15.75">
-      <c r="A13" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
+      <c r="A13" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="40" t="str">
+      <c r="A14" s="42" t="str">
         <f>CONCATENATE("this:",RIGHT(C14,LEN(C14)-SEARCH(":",C14)),"_",RIGHT(B14,LEN(B14)-SEARCH(":",B14)))</f>
         <v>this:Manufacturer_name</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="35">
+        <v>194</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="38">
         <v>1</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="54" t="s">
+      <c r="E14" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="38">
+        <v>1</v>
+      </c>
+      <c r="J14" s="38">
+        <v>1</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="I14" s="35">
-        <v>1</v>
-      </c>
-      <c r="J14" s="35">
-        <v>1</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
+      <c r="P14" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
     </row>
     <row r="15" ht="15.75">
-      <c r="A15" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
+      <c r="A15" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="40" t="str">
+      <c r="A16" s="42" t="str">
         <f t="shared" ref="A16:A33" si="0">CONCATENATE("this:",RIGHT(C16,LEN(C16)-SEARCH(":",C16)),"_",RIGHT(B16,LEN(B16)-SEARCH(":",B16)))</f>
         <v>this:Diagnostic_diagnosticDate</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="35">
+      <c r="B16" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="38">
         <v>1</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="35">
+      <c r="E16" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="38">
         <v>1</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="38">
         <v>1</v>
       </c>
-      <c r="K16" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
+      <c r="K16" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
       <c r="T16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
     </row>
     <row r="17" ht="25.5">
-      <c r="A17" s="40" t="str">
+      <c r="A17" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_analysedVehicle</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="35">
+      <c r="B17" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="38">
         <v>2</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="I17" s="35">
+      <c r="E17" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="38">
         <v>1</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="38">
         <v>1</v>
       </c>
-      <c r="K17" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
+      <c r="K17" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="40" t="str">
+      <c r="A18" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_hasResults</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="35">
+      <c r="B18" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="38">
         <v>3</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
+      <c r="E18" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="40" t="str">
+      <c r="A19" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:Diagnostic_diagnosticPlace</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="35">
+      <c r="B19" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="38">
         <v>4</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="I19" s="35">
+      <c r="E19" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" s="38">
         <v>1</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="38">
         <v>1</v>
       </c>
-      <c r="K19" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
+      <c r="K19" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
     </row>
     <row r="20" ht="25.5">
-      <c r="A20" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="A20" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="38">
         <v>5</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
+      <c r="E20" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
     </row>
     <row r="21" ht="15.75">
-      <c r="A21" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
+      <c r="A21" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
     </row>
     <row r="22" ht="25.5">
-      <c r="A22" s="40" t="str">
+      <c r="A22" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:Error_alreadyRaised</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="35">
+      <c r="B22" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="38">
         <v>1</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35">
+      <c r="E22" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38">
         <v>1</v>
       </c>
-      <c r="K22" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+      <c r="K22" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="M22" s="38"/>
+      <c r="N22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
       <c r="S22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
     </row>
     <row r="23" ht="25.5">
-      <c r="A23" s="40" t="str">
+      <c r="A23" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:Error_hasErrorCode</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="35">
+      <c r="B23" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="38">
         <v>2</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="I23" s="35">
+      <c r="E23" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="38">
         <v>1</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="38">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
     </row>
     <row r="24" ht="15.75">
-      <c r="A24" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
+      <c r="A24" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="40" t="str">
+      <c r="A25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_errorCode</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="35">
+      <c r="B25" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="38">
         <v>1</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="35">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="38">
         <v>1</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="38">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="P25" s="32" t="s">
-        <v>166</v>
+        <v>110</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="S25" s="35"/>
+      <c r="S25" s="38"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
     </row>
     <row r="26" ht="25.5">
-      <c r="A26" s="40" t="str">
+      <c r="A26" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_hasSymptom</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="35">
+      <c r="B26" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="38">
         <v>1</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="56" t="s">
-        <v>240</v>
+      <c r="E26" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="M26" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="57" t="s">
+        <v>249</v>
       </c>
       <c r="R26" s="3"/>
-      <c r="S26" s="35"/>
+      <c r="S26" s="38"/>
       <c r="T26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
     </row>
     <row r="27" ht="25.5">
-      <c r="A27" s="40" t="str">
+      <c r="A27" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:ErrorCode_hasComponent</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="35">
+      <c r="B27" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="38">
         <v>2</v>
       </c>
-      <c r="E27" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="R27" s="56"/>
-      <c r="S27" s="35"/>
+      <c r="E27" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="38"/>
+      <c r="M27" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="R27" s="57"/>
+      <c r="S27" s="38"/>
       <c r="T27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
     </row>
     <row r="28" ht="25.5">
-      <c r="A28" s="40" t="s">
-        <v>247</v>
+      <c r="A28" s="42" t="s">
+        <v>256</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="35">
+        <v>250</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="38">
         <v>3</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
+      <c r="E28" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="38"/>
+      <c r="M28" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
       <c r="T28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U28" s="35"/>
-      <c r="V28" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="W28" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
+      <c r="U28" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="V28" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
     </row>
     <row r="29" ht="15.75">
-      <c r="A29" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
+      <c r="A29" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="40" t="str">
+      <c r="A30" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:Symptom_label</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="35">
+        <v>262</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="38">
         <v>1</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="I30" s="35">
+      <c r="E30" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="38">
         <v>1</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="38">
         <v>1</v>
       </c>
-      <c r="K30" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="P30" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
+      <c r="K30" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="P30" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
     </row>
     <row r="31" ht="15.75">
-      <c r="A31" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
+      <c r="A31" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="40" t="str">
+      <c r="A32" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:Component_componentCode</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="35">
+      <c r="B32" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="38">
         <v>1</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="I32" s="35">
+      <c r="E32" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="38">
         <v>1</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="38">
         <v>1</v>
       </c>
-      <c r="K32" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="K32" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
       <c r="R32" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="40" t="str">
+      <c r="A33" s="42" t="str">
         <f t="shared" si="0"/>
         <v>this:Component_label</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="35">
+        <v>262</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="38">
         <v>2</v>
       </c>
-      <c r="E33" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" s="33" t="s">
+      <c r="E33" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="I33" s="35">
+      <c r="H33" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" s="38">
         <v>1</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L33" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="P33" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="3" t="b">
+      <c r="J33" s="38"/>
+      <c r="K33" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
     </row>
     <row r="34" ht="25.5">
-      <c r="A34" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="35">
+      <c r="A34" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="38">
         <v>3</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="O34" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="O34" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-    </row>
-    <row r="35" ht="15">
-      <c r="C35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" ht="15">
-      <c r="C36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="O36" s="7"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+    </row>
+    <row r="35" ht="15.75">
+      <c r="A35" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="38">
+        <v>3</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
     </row>
     <row r="37" ht="15">
       <c r="C37" s="22"/>
@@ -9774,8 +9998,8 @@
     <row r="959" ht="15"/>
     <row r="960" ht="15"/>
   </sheetData>
-  <dataValidations count="16" disablePrompts="0">
-    <dataValidation sqref="O35:O58" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+  <dataValidations count="18" disablePrompts="0">
+    <dataValidation sqref="O37:O58" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>'sparnatural-config-core'!$A$2:$A$13</formula1>
     </dataValidation>
     <dataValidation sqref="O9" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
@@ -9823,6 +10047,12 @@
     <dataValidation sqref="O12" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
       <formula1>'sparnatural-config-core'!$A$2:$A$12</formula1>
     </dataValidation>
+    <dataValidation sqref="G36:H36" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+      <formula1>'sparnatural-config-core'!$A$2:$A$12</formula1>
+    </dataValidation>
+    <dataValidation sqref="O36" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+      <formula1>'sparnatural-config-core'!$A$2:$A$12</formula1>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
@@ -9841,7 +10071,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9858,18 +10088,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="59" t="str">
+      <c r="B1" s="61" t="str">
         <f>Entities!B1</f>
         <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>115</v>
+      <c r="C1" s="62" t="s">
+        <v>124</v>
       </c>
       <c r="D1" s="28"/>
-      <c r="E1" s="60"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -9887,66 +10117,66 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" ht="91.5" customHeight="1">
-      <c r="A3" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>277</v>
+      <c r="A3" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>293</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>282</v>
+      <c r="C4" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+    </row>
+    <row r="5" ht="12.75" hidden="1" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>298</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -9954,31 +10184,31 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" ht="276" customHeight="1">
-      <c r="A6" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>284</v>
+      <c r="A6" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="D6" s="28"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
     <row r="7" ht="315" customHeight="1">
-      <c r="A7" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>285</v>
+      <c r="A7" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>301</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -9988,14 +10218,14 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" ht="333.75" customHeight="1">
-      <c r="A8" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>286</v>
+      <c r="A8" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>302</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -10006,7 +10236,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="60"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -10017,7 +10247,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="60"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -10028,7 +10258,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="60"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -10039,7 +10269,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="60"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -10050,7 +10280,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="60"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -10061,7 +10291,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="60"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -10072,7 +10302,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="60"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -10083,7 +10313,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -10094,7 +10324,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -10105,7 +10335,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="60"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -10116,7 +10346,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="60"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -10127,7 +10357,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="60"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -10138,7 +10368,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="28"/>
-      <c r="B21" s="60"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -10149,7 +10379,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="28"/>
-      <c r="B22" s="60"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -10160,7 +10390,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="28"/>
-      <c r="B23" s="60"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -10171,7 +10401,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="28"/>
-      <c r="B24" s="60"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -11183,1553 +11413,1553 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="59" t="str">
+      <c r="B1" s="61" t="str">
         <f>Entities!B1</f>
         <v>http://data.mydomain.com/sparnatural-page/sparnatural-config</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="69"/>
+      <c r="C1" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="71"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="47"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="47"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" ht="58.5" customHeight="1">
-      <c r="A4" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>289</v>
+      <c r="A4" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>305</v>
       </c>
       <c r="E4" s="28"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="64"/>
+      <c r="C5" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" ht="160.5" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>294</v>
+        <v>307</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>310</v>
       </c>
       <c r="E6" s="28"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="47"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="28"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="28"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="60"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="47"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="28"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="60"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="28"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="60"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="47"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="60"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="47"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="60"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="47"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="60"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="47"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="28"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="60"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="47"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="47"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="28"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="47"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="28"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="60"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="60"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="47"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="28"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="60"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="47"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="28"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="47"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="28"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="47"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="28"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
-      <c r="D23" s="47"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="28"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="47"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="28"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="47"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="28"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="47"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="28"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="47"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="28"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="47"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="28"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="47"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="28"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="28"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
-      <c r="D31" s="47"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="28"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
-      <c r="D32" s="47"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="28"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
-      <c r="D33" s="47"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="28"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
-      <c r="D34" s="47"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="28"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
-      <c r="D35" s="47"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="28"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
-      <c r="D36" s="47"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="28"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
-      <c r="D37" s="47"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="28"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="47"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="28"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="47"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="28"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
-      <c r="D40" s="47"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="28"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="47"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="28"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="47"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="28"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="47"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="28"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="47"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="28"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="47"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="28"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="47"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="28"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="47"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="28"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="47"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="28"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
-      <c r="D49" s="47"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="28"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="47"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="28"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="47"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="28"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="47"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="28"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="47"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="28"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="47"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="28"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="47"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="28"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="28"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
-      <c r="D57" s="47"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="28"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
-      <c r="D58" s="47"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="28"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="47"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="28"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
-      <c r="D60" s="47"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="28"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="47"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="28"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="47"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="28"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="47"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="28"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="47"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="28"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="47"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="28"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="47"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="28"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="47"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="28"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="47"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="28"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="47"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="28"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="47"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="28"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
-      <c r="D71" s="47"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="28"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
-      <c r="D72" s="47"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="28"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="47"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="28"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="47"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="28"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="47"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="28"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="47"/>
+      <c r="D76" s="49"/>
       <c r="E76" s="28"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="47"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="28"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="47"/>
+      <c r="D78" s="49"/>
       <c r="E78" s="28"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
-      <c r="D79" s="47"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
-      <c r="D80" s="47"/>
+      <c r="D80" s="49"/>
       <c r="E80" s="28"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
-      <c r="D81" s="47"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="28"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
-      <c r="D82" s="47"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="28"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
-      <c r="D83" s="47"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="28"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
-      <c r="D84" s="47"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="28"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
-      <c r="D85" s="47"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="28"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
-      <c r="D86" s="47"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="28"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
-      <c r="D87" s="47"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="28"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
-      <c r="D88" s="47"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="28"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
-      <c r="D89" s="47"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="28"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
-      <c r="D90" s="47"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="28"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
-      <c r="D91" s="47"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="28"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
-      <c r="D92" s="47"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="28"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
-      <c r="D93" s="47"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="28"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
-      <c r="D94" s="47"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="28"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
-      <c r="D95" s="47"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="28"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
-      <c r="D96" s="47"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="28"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
-      <c r="D97" s="47"/>
+      <c r="D97" s="49"/>
       <c r="E97" s="28"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
-      <c r="D98" s="47"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="28"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
-      <c r="D99" s="47"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="28"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
-      <c r="D100" s="47"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="28"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
-      <c r="D101" s="47"/>
+      <c r="D101" s="49"/>
       <c r="E101" s="28"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
-      <c r="D102" s="47"/>
+      <c r="D102" s="49"/>
       <c r="E102" s="28"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="28"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
-      <c r="D103" s="47"/>
+      <c r="D103" s="49"/>
       <c r="E103" s="28"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="28"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
-      <c r="D104" s="47"/>
+      <c r="D104" s="49"/>
       <c r="E104" s="28"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="28"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
-      <c r="D105" s="47"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="28"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
-      <c r="D106" s="47"/>
+      <c r="D106" s="49"/>
       <c r="E106" s="28"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
-      <c r="D107" s="47"/>
+      <c r="D107" s="49"/>
       <c r="E107" s="28"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="28"/>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
-      <c r="D108" s="47"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="28"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="28"/>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
-      <c r="D109" s="47"/>
+      <c r="D109" s="49"/>
       <c r="E109" s="28"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="28"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
-      <c r="D110" s="47"/>
+      <c r="D110" s="49"/>
       <c r="E110" s="28"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="28"/>
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
-      <c r="D111" s="47"/>
+      <c r="D111" s="49"/>
       <c r="E111" s="28"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="28"/>
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
-      <c r="D112" s="47"/>
+      <c r="D112" s="49"/>
       <c r="E112" s="28"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="28"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
-      <c r="D113" s="47"/>
+      <c r="D113" s="49"/>
       <c r="E113" s="28"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="28"/>
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
-      <c r="D114" s="47"/>
+      <c r="D114" s="49"/>
       <c r="E114" s="28"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="28"/>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
-      <c r="D115" s="47"/>
+      <c r="D115" s="49"/>
       <c r="E115" s="28"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="28"/>
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
-      <c r="D116" s="47"/>
+      <c r="D116" s="49"/>
       <c r="E116" s="28"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
-      <c r="D117" s="47"/>
+      <c r="D117" s="49"/>
       <c r="E117" s="28"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="28"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
-      <c r="D118" s="47"/>
+      <c r="D118" s="49"/>
       <c r="E118" s="28"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="28"/>
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
-      <c r="D119" s="47"/>
+      <c r="D119" s="49"/>
       <c r="E119" s="28"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
-      <c r="D120" s="47"/>
+      <c r="D120" s="49"/>
       <c r="E120" s="28"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
-      <c r="D121" s="47"/>
+      <c r="D121" s="49"/>
       <c r="E121" s="28"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="28"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
-      <c r="D122" s="47"/>
+      <c r="D122" s="49"/>
       <c r="E122" s="28"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="28"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
-      <c r="D123" s="47"/>
+      <c r="D123" s="49"/>
       <c r="E123" s="28"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
-      <c r="D124" s="47"/>
+      <c r="D124" s="49"/>
       <c r="E124" s="28"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="28"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
-      <c r="D125" s="47"/>
+      <c r="D125" s="49"/>
       <c r="E125" s="28"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
-      <c r="D126" s="47"/>
+      <c r="D126" s="49"/>
       <c r="E126" s="28"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="28"/>
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
-      <c r="D127" s="47"/>
+      <c r="D127" s="49"/>
       <c r="E127" s="28"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
-      <c r="D128" s="47"/>
+      <c r="D128" s="49"/>
       <c r="E128" s="28"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
-      <c r="D129" s="47"/>
+      <c r="D129" s="49"/>
       <c r="E129" s="28"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
-      <c r="D130" s="47"/>
+      <c r="D130" s="49"/>
       <c r="E130" s="28"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
-      <c r="D131" s="47"/>
+      <c r="D131" s="49"/>
       <c r="E131" s="28"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="28"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
-      <c r="D132" s="47"/>
+      <c r="D132" s="49"/>
       <c r="E132" s="28"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
-      <c r="D133" s="47"/>
+      <c r="D133" s="49"/>
       <c r="E133" s="28"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="28"/>
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
-      <c r="D134" s="47"/>
+      <c r="D134" s="49"/>
       <c r="E134" s="28"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
-      <c r="D135" s="47"/>
+      <c r="D135" s="49"/>
       <c r="E135" s="28"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
-      <c r="D136" s="47"/>
+      <c r="D136" s="49"/>
       <c r="E136" s="28"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
-      <c r="D137" s="47"/>
+      <c r="D137" s="49"/>
       <c r="E137" s="28"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
-      <c r="D138" s="47"/>
+      <c r="D138" s="49"/>
       <c r="E138" s="28"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
-      <c r="D139" s="47"/>
+      <c r="D139" s="49"/>
       <c r="E139" s="28"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
-      <c r="D140" s="47"/>
+      <c r="D140" s="49"/>
       <c r="E140" s="28"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
-      <c r="D141" s="47"/>
+      <c r="D141" s="49"/>
       <c r="E141" s="28"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
-      <c r="D142" s="47"/>
+      <c r="D142" s="49"/>
       <c r="E142" s="28"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
-      <c r="D143" s="47"/>
+      <c r="D143" s="49"/>
       <c r="E143" s="28"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
-      <c r="D144" s="47"/>
+      <c r="D144" s="49"/>
       <c r="E144" s="28"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
-      <c r="D145" s="47"/>
+      <c r="D145" s="49"/>
       <c r="E145" s="28"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
-      <c r="D146" s="47"/>
+      <c r="D146" s="49"/>
       <c r="E146" s="28"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
-      <c r="D147" s="47"/>
+      <c r="D147" s="49"/>
       <c r="E147" s="28"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
-      <c r="D148" s="47"/>
+      <c r="D148" s="49"/>
       <c r="E148" s="28"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
-      <c r="D149" s="47"/>
+      <c r="D149" s="49"/>
       <c r="E149" s="28"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
-      <c r="D150" s="47"/>
+      <c r="D150" s="49"/>
       <c r="E150" s="28"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
-      <c r="D151" s="47"/>
+      <c r="D151" s="49"/>
       <c r="E151" s="28"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
-      <c r="D152" s="47"/>
+      <c r="D152" s="49"/>
       <c r="E152" s="28"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
-      <c r="D153" s="47"/>
+      <c r="D153" s="49"/>
       <c r="E153" s="28"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
-      <c r="D154" s="47"/>
+      <c r="D154" s="49"/>
       <c r="E154" s="28"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
-      <c r="D155" s="47"/>
+      <c r="D155" s="49"/>
       <c r="E155" s="28"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
-      <c r="D156" s="47"/>
+      <c r="D156" s="49"/>
       <c r="E156" s="28"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
-      <c r="D157" s="47"/>
+      <c r="D157" s="49"/>
       <c r="E157" s="28"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
-      <c r="D158" s="47"/>
+      <c r="D158" s="49"/>
       <c r="E158" s="28"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
-      <c r="D159" s="47"/>
+      <c r="D159" s="49"/>
       <c r="E159" s="28"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
-      <c r="D160" s="47"/>
+      <c r="D160" s="49"/>
       <c r="E160" s="28"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
-      <c r="D161" s="47"/>
+      <c r="D161" s="49"/>
       <c r="E161" s="28"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
-      <c r="D162" s="47"/>
+      <c r="D162" s="49"/>
       <c r="E162" s="28"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
-      <c r="D163" s="47"/>
+      <c r="D163" s="49"/>
       <c r="E163" s="28"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
-      <c r="D164" s="47"/>
+      <c r="D164" s="49"/>
       <c r="E164" s="28"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
-      <c r="D165" s="47"/>
+      <c r="D165" s="49"/>
       <c r="E165" s="28"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
-      <c r="D166" s="47"/>
+      <c r="D166" s="49"/>
       <c r="E166" s="28"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
-      <c r="D167" s="47"/>
+      <c r="D167" s="49"/>
       <c r="E167" s="28"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
-      <c r="D168" s="47"/>
+      <c r="D168" s="49"/>
       <c r="E168" s="28"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
-      <c r="D169" s="47"/>
+      <c r="D169" s="49"/>
       <c r="E169" s="28"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
-      <c r="D170" s="47"/>
+      <c r="D170" s="49"/>
       <c r="E170" s="28"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
-      <c r="D171" s="47"/>
+      <c r="D171" s="49"/>
       <c r="E171" s="28"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
-      <c r="D172" s="47"/>
+      <c r="D172" s="49"/>
       <c r="E172" s="28"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
-      <c r="D173" s="47"/>
+      <c r="D173" s="49"/>
       <c r="E173" s="28"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
-      <c r="D174" s="47"/>
+      <c r="D174" s="49"/>
       <c r="E174" s="28"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
-      <c r="D175" s="47"/>
+      <c r="D175" s="49"/>
       <c r="E175" s="28"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
-      <c r="D176" s="47"/>
+      <c r="D176" s="49"/>
       <c r="E176" s="28"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
-      <c r="D177" s="47"/>
+      <c r="D177" s="49"/>
       <c r="E177" s="28"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
-      <c r="D178" s="47"/>
+      <c r="D178" s="49"/>
       <c r="E178" s="28"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
-      <c r="D179" s="47"/>
+      <c r="D179" s="49"/>
       <c r="E179" s="28"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
-      <c r="D180" s="47"/>
+      <c r="D180" s="49"/>
       <c r="E180" s="28"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
-      <c r="D181" s="47"/>
+      <c r="D181" s="49"/>
       <c r="E181" s="28"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
-      <c r="D182" s="47"/>
+      <c r="D182" s="49"/>
       <c r="E182" s="28"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
-      <c r="D183" s="47"/>
+      <c r="D183" s="49"/>
       <c r="E183" s="28"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="28"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
-      <c r="D184" s="47"/>
+      <c r="D184" s="49"/>
       <c r="E184" s="28"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="28"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
-      <c r="D185" s="47"/>
+      <c r="D185" s="49"/>
       <c r="E185" s="28"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="28"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
-      <c r="D186" s="47"/>
+      <c r="D186" s="49"/>
       <c r="E186" s="28"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="28"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
-      <c r="D187" s="47"/>
+      <c r="D187" s="49"/>
       <c r="E187" s="28"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="28"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
-      <c r="D188" s="47"/>
+      <c r="D188" s="49"/>
       <c r="E188" s="28"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="28"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
-      <c r="D189" s="47"/>
+      <c r="D189" s="49"/>
       <c r="E189" s="28"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="28"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
-      <c r="D190" s="47"/>
+      <c r="D190" s="49"/>
       <c r="E190" s="28"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="28"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
-      <c r="D191" s="47"/>
+      <c r="D191" s="49"/>
       <c r="E191" s="28"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
-      <c r="D192" s="47"/>
+      <c r="D192" s="49"/>
       <c r="E192" s="28"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="28"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
-      <c r="D193" s="47"/>
+      <c r="D193" s="49"/>
       <c r="E193" s="28"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="28"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
-      <c r="D194" s="47"/>
+      <c r="D194" s="49"/>
       <c r="E194" s="28"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="28"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
-      <c r="D195" s="47"/>
+      <c r="D195" s="49"/>
       <c r="E195" s="28"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="28"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
-      <c r="D196" s="47"/>
+      <c r="D196" s="49"/>
       <c r="E196" s="28"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="28"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
-      <c r="D197" s="47"/>
+      <c r="D197" s="49"/>
       <c r="E197" s="28"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="28"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
-      <c r="D198" s="47"/>
+      <c r="D198" s="49"/>
       <c r="E198" s="28"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="28"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
-      <c r="D199" s="47"/>
+      <c r="D199" s="49"/>
       <c r="E199" s="28"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="28"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
-      <c r="D200" s="47"/>
+      <c r="D200" s="49"/>
       <c r="E200" s="28"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="28"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
-      <c r="D201" s="47"/>
+      <c r="D201" s="49"/>
       <c r="E201" s="28"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="28"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
-      <c r="D202" s="47"/>
+      <c r="D202" s="49"/>
       <c r="E202" s="28"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="28"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
-      <c r="D203" s="47"/>
+      <c r="D203" s="49"/>
       <c r="E203" s="28"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="28"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
-      <c r="D204" s="47"/>
+      <c r="D204" s="49"/>
       <c r="E204" s="28"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="28"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
-      <c r="D205" s="47"/>
+      <c r="D205" s="49"/>
       <c r="E205" s="28"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="28"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
-      <c r="D206" s="47"/>
+      <c r="D206" s="49"/>
       <c r="E206" s="28"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="28"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
-      <c r="D207" s="47"/>
+      <c r="D207" s="49"/>
       <c r="E207" s="28"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="28"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
-      <c r="D208" s="47"/>
+      <c r="D208" s="49"/>
       <c r="E208" s="28"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="28"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
-      <c r="D209" s="47"/>
+      <c r="D209" s="49"/>
       <c r="E209" s="28"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="28"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
-      <c r="D210" s="47"/>
+      <c r="D210" s="49"/>
       <c r="E210" s="28"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="28"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
-      <c r="D211" s="47"/>
+      <c r="D211" s="49"/>
       <c r="E211" s="28"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="28"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
-      <c r="D212" s="47"/>
+      <c r="D212" s="49"/>
       <c r="E212" s="28"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="28"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
-      <c r="D213" s="47"/>
+      <c r="D213" s="49"/>
       <c r="E213" s="28"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="28"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
-      <c r="D214" s="47"/>
+      <c r="D214" s="49"/>
       <c r="E214" s="28"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="28"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
-      <c r="D215" s="47"/>
+      <c r="D215" s="49"/>
       <c r="E215" s="28"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="28"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
-      <c r="D216" s="47"/>
+      <c r="D216" s="49"/>
       <c r="E216" s="28"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="28"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
-      <c r="D217" s="47"/>
+      <c r="D217" s="49"/>
       <c r="E217" s="28"/>
     </row>
     <row r="218" ht="12.75" customHeight="1"/>
@@ -13542,404 +13772,404 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="70" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>297</v>
+      <c r="A1" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>283</v>
-      </c>
-    </row>
     <row r="19">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>335</v>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>337</v>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>339</v>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>341</v>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>343</v>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>345</v>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>347</v>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>349</v>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="C27" s="38"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="40"/>
     </row>
     <row r="28">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="C28" s="38"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="40"/>
     </row>
     <row r="29">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="C29" s="38"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="C29" s="40"/>
     </row>
     <row r="30">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="C30" s="38"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="40"/>
     </row>
     <row r="31">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="C31" s="38"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="40"/>
     </row>
     <row r="32">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="C32" s="38"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="40"/>
     </row>
     <row r="33">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="C33" s="38"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="40"/>
     </row>
     <row r="34">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="C34" s="38"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="40"/>
     </row>
     <row r="35">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="C35" s="38"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="40"/>
     </row>
     <row r="36">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="C36" s="38"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="40"/>
     </row>
     <row r="37">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37" s="38"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="40"/>
     </row>
     <row r="38">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="38"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="40"/>
     </row>
     <row r="39">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="C39" s="38"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="40"/>
     </row>
     <row r="40">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="C40" s="38"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" s="40"/>
     </row>
     <row r="41">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="C41" s="38"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C42" s="38"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="C43" s="38"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="40"/>
     </row>
     <row r="44">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="C44" s="38"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C44" s="40"/>
     </row>
     <row r="45">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="C45" s="38"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="40"/>
     </row>
     <row r="46">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="C46" s="38"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="40"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
